--- a/frintmedfit.xlsx
+++ b/frintmedfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="285">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -60,19 +60,19 @@
     <t xml:space="preserve">=~</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_4</t>
+    <t xml:space="preserve">security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">2</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_5</t>
+    <t xml:space="preserve">security_freedom_6</t>
   </si>
   <si>
     <t xml:space="preserve">3</t>
   </si>
   <si>
-    <t xml:space="preserve">security_freedom_6</t>
+    <t xml:space="preserve">security_freedom_7</t>
   </si>
   <si>
     <t xml:space="preserve">4</t>
@@ -393,15 +393,15 @@
     <t xml:space="preserve">est.std</t>
   </si>
   <si>
-    <t xml:space="preserve">cov.security_freedom_4</t>
-  </si>
-  <si>
     <t xml:space="preserve">cov.security_freedom_5</t>
   </si>
   <si>
     <t xml:space="preserve">cov.security_freedom_6</t>
   </si>
   <si>
+    <t xml:space="preserve">cov.security_freedom_7</t>
+  </si>
+  <si>
     <t xml:space="preserve">cov.Nar_5correct</t>
   </si>
   <si>
@@ -450,55 +450,55 @@
     <t xml:space="preserve">mean</t>
   </si>
   <si>
-    <t xml:space="preserve">5.15088756399444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.12721859488628</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.215975885694</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.14201248321369</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.57692373739246</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.58875814907788</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.53846217384346</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.52071035525356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.13017796575573</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.81656856803497</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.32840265743777</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.90828424015789</t>
-  </si>
-  <si>
-    <t xml:space="preserve">4.93195295875009</t>
-  </si>
-  <si>
-    <t xml:space="preserve">5.0207104344637</t>
-  </si>
-  <si>
-    <t xml:space="preserve">3.14792939589064</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.84615432024953</t>
-  </si>
-  <si>
-    <t xml:space="preserve">2.63609509083754</t>
+    <t xml:space="preserve">5.12721887941687</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.2159765451677</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.45858000109864</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.14201168307922</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.5769228562928</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.58875723657351</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.53846142171443</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.52071000204729</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.13017752506107</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.81656777393011</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.3284022700189</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.90828408528816</t>
+  </si>
+  <si>
+    <t xml:space="preserve">4.93195259381522</t>
+  </si>
+  <si>
+    <t xml:space="preserve">5.02070989380766</t>
+  </si>
+  <si>
+    <t xml:space="preserve">3.14792885492693</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.84615376967185</t>
+  </si>
+  <si>
+    <t xml:space="preserve">2.63609458021593</t>
   </si>
   <si>
     <t xml:space="preserve">0.5</t>
@@ -510,55 +510,55 @@
     <t xml:space="preserve">raw</t>
   </si>
   <si>
-    <t xml:space="preserve">0.00000000997005322744826</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000340024966405394</t>
-  </si>
-  <si>
-    <t xml:space="preserve">0.000000445666946014001</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000648894163290947</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000660469382296469</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000752628180222814</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000635381921298972</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000296081962503081</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000450962833298263</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000520697689410099</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000290573864525356</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000216489251414487</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000296028196622444</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000375292104060065</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000401807803473986</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000474095681823883</t>
-  </si>
-  <si>
-    <t xml:space="preserve">-0.000000416281327186852</t>
+    <t xml:space="preserve">0.0000000554943770936234</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00000021380675185867</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.00000011944183064827</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000151240306500711</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.00000022063028115582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000159876196725861</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000116747113310112</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000571243115032871</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000102681658731285</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000273407171125228</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000968450066807236</t>
+  </si>
+  <si>
+    <t xml:space="preserve">-0.0000000616195174885092</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000689066759207435</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000165363934989671</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.000000139155909906208</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000764819958476437</t>
+  </si>
+  <si>
+    <t xml:space="preserve">0.0000000943402791442338</t>
   </si>
   <si>
     <t xml:space="preserve">0</t>
@@ -573,13 +573,13 @@
     <t xml:space="preserve">fmin</t>
   </si>
   <si>
-    <t xml:space="preserve">0.288406906543948</t>
+    <t xml:space="preserve">0.286451445519205</t>
   </si>
   <si>
     <t xml:space="preserve">chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">194.963068823709</t>
+    <t xml:space="preserve">193.641177170983</t>
   </si>
   <si>
     <t xml:space="preserve">df</t>
@@ -588,13 +588,13 @@
     <t xml:space="preserve">123</t>
   </si>
   <si>
-    <t xml:space="preserve">0.000038580149827383</t>
+    <t xml:space="preserve">0.0000500009521490208</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.chisq</t>
   </si>
   <si>
-    <t xml:space="preserve">3365.0391168664</t>
+    <t xml:space="preserve">3513.61507533253</t>
   </si>
   <si>
     <t xml:space="preserve">baseline.df</t>
@@ -609,52 +609,46 @@
     <t xml:space="preserve">cfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977595830497259</t>
+    <t xml:space="preserve">0.978979688066777</t>
   </si>
   <si>
     <t xml:space="preserve">tli</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972131398911225</t>
+    <t xml:space="preserve">0.97385278271721</t>
   </si>
   <si>
     <t xml:space="preserve">cfi.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.97759583049726</t>
-  </si>
-  <si>
     <t xml:space="preserve">tli.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.972131398911226</t>
-  </si>
-  <si>
     <t xml:space="preserve">nnfi</t>
   </si>
   <si>
     <t xml:space="preserve">rfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.927930990277662</t>
+    <t xml:space="preserve">0.931446465416892</t>
   </si>
   <si>
     <t xml:space="preserve">nfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.942062168654591</t>
+    <t xml:space="preserve">0.944888334942991</t>
   </si>
   <si>
     <t xml:space="preserve">pnfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.757344096369377</t>
+    <t xml:space="preserve">0.75961611240515</t>
   </si>
   <si>
     <t xml:space="preserve">ifi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.977803146035676</t>
+    <t xml:space="preserve">0.979165674781277</t>
   </si>
   <si>
     <t xml:space="preserve">rni</t>
@@ -669,25 +663,25 @@
     <t xml:space="preserve">logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9278.9492521137</t>
+    <t xml:space="preserve">-9201.20379907963</t>
   </si>
   <si>
     <t xml:space="preserve">unrestricted.logl</t>
   </si>
   <si>
-    <t xml:space="preserve">-9181.46771770185</t>
+    <t xml:space="preserve">-9104.38321049414</t>
   </si>
   <si>
     <t xml:space="preserve">aic</t>
   </si>
   <si>
-    <t xml:space="preserve">18685.8985042274</t>
+    <t xml:space="preserve">18530.4075981593</t>
   </si>
   <si>
     <t xml:space="preserve">bic</t>
   </si>
   <si>
-    <t xml:space="preserve">18930.5734415383</t>
+    <t xml:space="preserve">18775.0825354702</t>
   </si>
   <si>
     <t xml:space="preserve">ntotal</t>
@@ -699,25 +693,25 @@
     <t xml:space="preserve">bic2</t>
   </si>
   <si>
-    <t xml:space="preserve">18727.5555786122</t>
+    <t xml:space="preserve">18572.064672544</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0416048472437977</t>
+    <t xml:space="preserve">0.0412209558350639</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0301816174372804</t>
+    <t xml:space="preserve">0.0297276345866098</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0523616287072445</t>
+    <t xml:space="preserve">0.0520141262539653</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.level</t>
@@ -729,7 +723,7 @@
     <t xml:space="preserve">rmsea.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.89707316507391</t>
+    <t xml:space="preserve">0.906825241821525</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.close.h0</t>
@@ -741,7 +735,7 @@
     <t xml:space="preserve">rmsea.notclose.pvalue</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000000858684686914961</t>
+    <t xml:space="preserve">0.0000000000601674734657151</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.h0</t>
@@ -753,49 +747,49 @@
     <t xml:space="preserve">rmsea.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0416048472437972</t>
+    <t xml:space="preserve">0.041220955835064</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.lower.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0301816174372797</t>
+    <t xml:space="preserve">0.02972763458661</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.ci.upper.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0523616287072439</t>
+    <t xml:space="preserve">0.0520141262539655</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.897073165073928</t>
+    <t xml:space="preserve">0.906825241821518</t>
   </si>
   <si>
     <t xml:space="preserve">rmsea.notclose.pvalue.robust</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0000000000858684686914402</t>
+    <t xml:space="preserve">0.0000000000601674734657186</t>
   </si>
   <si>
     <t xml:space="preserve">rmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.12089247013948</t>
+    <t xml:space="preserve">0.120849360558943</t>
   </si>
   <si>
     <t xml:space="preserve">rmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.127096063143411</t>
+    <t xml:space="preserve">0.127050741396287</t>
   </si>
   <si>
     <t xml:space="preserve">srmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0429786077923833</t>
+    <t xml:space="preserve">0.0428253312411683</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_bentler</t>
@@ -804,73 +798,73 @@
     <t xml:space="preserve">srmr_bentler_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0451840535931374</t>
+    <t xml:space="preserve">0.0450229116609812</t>
   </si>
   <si>
     <t xml:space="preserve">crmr</t>
   </si>
   <si>
-    <t xml:space="preserve">0.045177109041127</t>
+    <t xml:space="preserve">0.0450218004226191</t>
   </si>
   <si>
     <t xml:space="preserve">crmr_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0477607101908011</t>
+    <t xml:space="preserve">0.0475965197396611</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0429774493801396</t>
+    <t xml:space="preserve">0.04282882556059</t>
   </si>
   <si>
     <t xml:space="preserve">srmr_mplus_nomean</t>
   </si>
   <si>
-    <t xml:space="preserve">0.0451790499344767</t>
+    <t xml:space="preserve">0.0450233704553084</t>
   </si>
   <si>
     <t xml:space="preserve">cn_05</t>
   </si>
   <si>
-    <t xml:space="preserve">260.84911806646</t>
+    <t xml:space="preserve">262.622978281309</t>
   </si>
   <si>
     <t xml:space="preserve">cn_01</t>
   </si>
   <si>
-    <t xml:space="preserve">282.543717530701</t>
+    <t xml:space="preserve">284.465675946357</t>
   </si>
   <si>
     <t xml:space="preserve">gfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.989958288033802</t>
+    <t xml:space="preserve">0.990008394161889</t>
   </si>
   <si>
     <t xml:space="preserve">agfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.984570052344622</t>
+    <t xml:space="preserve">0.98464704468778</t>
   </si>
   <si>
     <t xml:space="preserve">pgfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.64425856840295</t>
+    <t xml:space="preserve">0.644291177152975</t>
   </si>
   <si>
     <t xml:space="preserve">mfi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.899016182764578</t>
+    <t xml:space="preserve">0.900775893833055</t>
   </si>
   <si>
     <t xml:space="preserve">ecvi</t>
   </si>
   <si>
-    <t xml:space="preserve">0.955512037939966</t>
+    <t xml:space="preserve">0.951601115890481</t>
   </si>
 </sst>
 </file>
@@ -1285,22 +1279,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>1.17270106232654</v>
+        <v>1.11575832257498</v>
       </c>
       <c r="G3" t="n">
-        <v>0.0729016738623351</v>
+        <v>0.0510538962278832</v>
       </c>
       <c r="H3" t="n">
-        <v>16.0860649721299</v>
+        <v>21.8545185580881</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>1.0427981813189</v>
+        <v>1.02756880602535</v>
       </c>
       <c r="K3" t="n">
-        <v>1.33014668664557</v>
+        <v>1.23124664105087</v>
       </c>
     </row>
     <row r="4">
@@ -1320,22 +1314,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>1.14039936155906</v>
+        <v>0.993482231556173</v>
       </c>
       <c r="G4" t="n">
-        <v>0.083123423884421</v>
+        <v>0.052554385325611</v>
       </c>
       <c r="H4" t="n">
-        <v>13.7193501935716</v>
+        <v>18.9038883320747</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.999322599418852</v>
+        <v>0.892935136688798</v>
       </c>
       <c r="K4" t="n">
-        <v>1.32310549131074</v>
+        <v>1.09877125236801</v>
       </c>
     </row>
     <row r="5">
@@ -1386,22 +1380,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.920892042954332</v>
+        <v>0.916552856156761</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0625161231598277</v>
+        <v>0.062321474713726</v>
       </c>
       <c r="H6" t="n">
-        <v>14.730472659029</v>
+        <v>14.7068544248504</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.799299891175339</v>
+        <v>0.795503901694348</v>
       </c>
       <c r="K6" t="n">
-        <v>1.04773397120104</v>
+        <v>1.0438226611766</v>
       </c>
     </row>
     <row r="7">
@@ -1421,22 +1415,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.841372818801875</v>
+        <v>0.839475513448278</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0680771793270134</v>
+        <v>0.0680047586511207</v>
       </c>
       <c r="H7" t="n">
-        <v>12.3591022295486</v>
+        <v>12.3443642783143</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.711968099867195</v>
+        <v>0.710374354423873</v>
       </c>
       <c r="K7" t="n">
-        <v>0.981500079600264</v>
+        <v>0.978099609799713</v>
       </c>
     </row>
     <row r="8">
@@ -1456,22 +1450,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.896008890509578</v>
+        <v>0.889735239276253</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0707358830835971</v>
+        <v>0.0708803587629002</v>
       </c>
       <c r="H8" t="n">
-        <v>12.6669640845603</v>
+        <v>12.5526345352241</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.76079729645087</v>
+        <v>0.753239506741479</v>
       </c>
       <c r="K8" t="n">
-        <v>1.03742034236747</v>
+        <v>1.03059837820097</v>
       </c>
     </row>
     <row r="9">
@@ -1522,22 +1516,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>1.30264825812583</v>
+        <v>1.29809734887206</v>
       </c>
       <c r="G10" t="n">
-        <v>0.152462531811141</v>
+        <v>0.150930423938959</v>
       </c>
       <c r="H10" t="n">
-        <v>8.54405500585185</v>
+        <v>8.60063408684953</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>1.05742026341498</v>
+        <v>1.05602299547934</v>
       </c>
       <c r="K10" t="n">
-        <v>1.65763024123654</v>
+        <v>1.64908991314893</v>
       </c>
     </row>
     <row r="11">
@@ -1557,22 +1551,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>1.36628264746553</v>
+        <v>1.36473487037999</v>
       </c>
       <c r="G11" t="n">
-        <v>0.159886527506803</v>
+        <v>0.160075152796794</v>
       </c>
       <c r="H11" t="n">
-        <v>8.54532691885122</v>
+        <v>8.52558842853293</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>1.1154147955854</v>
+        <v>1.1132856538591</v>
       </c>
       <c r="K11" t="n">
-        <v>1.74654135962882</v>
+        <v>1.74363337183328</v>
       </c>
     </row>
     <row r="12">
@@ -1592,22 +1586,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.96668261919589</v>
+        <v>0.967282160997063</v>
       </c>
       <c r="G12" t="n">
-        <v>0.143461209802651</v>
+        <v>0.143378442614131</v>
       </c>
       <c r="H12" t="n">
-        <v>6.73828570472595</v>
+        <v>6.74635700710095</v>
       </c>
       <c r="I12" t="n">
-        <v>0.000000000016026513449674</v>
+        <v>0.0000000000151603174458614</v>
       </c>
       <c r="J12" t="n">
-        <v>0.730414956039885</v>
+        <v>0.732084579178522</v>
       </c>
       <c r="K12" t="n">
-        <v>1.29878505292665</v>
+        <v>1.29942820790854</v>
       </c>
     </row>
     <row r="13">
@@ -1658,22 +1652,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>1.11900938894187</v>
+        <v>1.11903453398614</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0470669580276001</v>
+        <v>0.0470664244563592</v>
       </c>
       <c r="H14" t="n">
-        <v>23.7748398416929</v>
+        <v>23.7756436124383</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>1.03180365142297</v>
+        <v>1.03181763150672</v>
       </c>
       <c r="K14" t="n">
-        <v>1.21702211412228</v>
+        <v>1.21678590772455</v>
       </c>
     </row>
     <row r="15">
@@ -1693,22 +1687,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>1.11438014533446</v>
+        <v>1.11434766474679</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0459318729744468</v>
+        <v>0.0459234826729845</v>
       </c>
       <c r="H15" t="n">
-        <v>24.2615872850301</v>
+        <v>24.2653126436843</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>1.02897835814334</v>
+        <v>1.02902129203402</v>
       </c>
       <c r="K15" t="n">
-        <v>1.21249998925239</v>
+        <v>1.21275517350125</v>
       </c>
     </row>
     <row r="16">
@@ -1759,22 +1753,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>1.25542250638806</v>
+        <v>1.25768939148557</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0740305544337955</v>
+        <v>0.0745349658220128</v>
       </c>
       <c r="H17" t="n">
-        <v>16.9581670161712</v>
+        <v>16.8738172428884</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>1.12579851599309</v>
+        <v>1.12684007270289</v>
       </c>
       <c r="K17" t="n">
-        <v>1.4206992219772</v>
+        <v>1.42464491986569</v>
       </c>
     </row>
     <row r="18">
@@ -1794,22 +1788,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>1.04624570037923</v>
+        <v>1.04621284929285</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0661243687955772</v>
+        <v>0.0661094741482612</v>
       </c>
       <c r="H18" t="n">
-        <v>15.8223922501807</v>
+        <v>15.82546015941</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.927961256407767</v>
+        <v>0.928049361633853</v>
       </c>
       <c r="K18" t="n">
-        <v>1.18572242197972</v>
+        <v>1.18560649112355</v>
       </c>
     </row>
     <row r="19">
@@ -1829,22 +1823,22 @@
         <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>0.116343474147364</v>
+        <v>0.109320943110865</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0583181336550601</v>
+        <v>0.0519551626101635</v>
       </c>
       <c r="H19" t="n">
-        <v>1.99497938043614</v>
+        <v>2.10414013966495</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0460451287999075</v>
+        <v>0.0353662243357178</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.000795382871020857</v>
+        <v>0.00632675859615809</v>
       </c>
       <c r="K19" t="n">
-        <v>0.233234357109862</v>
+        <v>0.213958407133452</v>
       </c>
     </row>
     <row r="20">
@@ -1864,22 +1858,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.0249662338499201</v>
+        <v>-0.0259146888381434</v>
       </c>
       <c r="G20" t="n">
-        <v>0.135055488519548</v>
+        <v>0.134113017591574</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.184859083652172</v>
+        <v>-0.193230227039284</v>
       </c>
       <c r="I20" t="n">
-        <v>0.853339564317419</v>
+        <v>0.846778667053913</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.303766829192109</v>
+        <v>-0.304355128331388</v>
       </c>
       <c r="K20" t="n">
-        <v>0.224778008374431</v>
+        <v>0.221238214102203</v>
       </c>
     </row>
     <row r="21">
@@ -1899,22 +1893,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.153381137785242</v>
+        <v>0.15471827988361</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0635130555480741</v>
+        <v>0.0633685837975269</v>
       </c>
       <c r="H21" t="n">
-        <v>2.41495447607848</v>
+        <v>2.44156126919232</v>
       </c>
       <c r="I21" t="n">
-        <v>0.0157371764523551</v>
+        <v>0.0146239066178833</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0341125828601044</v>
+        <v>0.036996791319332</v>
       </c>
       <c r="K21" t="n">
-        <v>0.284048094982917</v>
+        <v>0.286669777840021</v>
       </c>
     </row>
     <row r="22">
@@ -1934,22 +1928,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.157958081617947</v>
+        <v>0.152980170779891</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0851169472414164</v>
+        <v>0.0841752248947056</v>
       </c>
       <c r="H22" t="n">
-        <v>1.85577710123851</v>
+        <v>1.81740139062596</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0634853357689378</v>
+        <v>0.0691556749755213</v>
       </c>
       <c r="J22" t="n">
-        <v>0.00105087792230408</v>
+        <v>-0.00273922524187056</v>
       </c>
       <c r="K22" t="n">
-        <v>0.329901573699134</v>
+        <v>0.324272293654025</v>
       </c>
     </row>
     <row r="23">
@@ -1969,22 +1963,22 @@
         <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.154457696804981</v>
+        <v>-0.157121145544262</v>
       </c>
       <c r="G23" t="n">
-        <v>0.073441961469963</v>
+        <v>0.0643757729083432</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.10312597476243</v>
+        <v>-2.44068752025654</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0354547589476768</v>
+        <v>0.0146593330327798</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.305380768759838</v>
+        <v>-0.286999139726086</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0154058603013237</v>
+        <v>-0.032773024459878</v>
       </c>
     </row>
     <row r="24">
@@ -2004,22 +1998,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0362217367783933</v>
+        <v>-0.0285148646411502</v>
       </c>
       <c r="G24" t="n">
-        <v>0.170285942434352</v>
+        <v>0.170211398589012</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.212711256493514</v>
+        <v>-0.167526175553033</v>
       </c>
       <c r="I24" t="n">
-        <v>0.831552186276078</v>
+        <v>0.866956053437294</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.375966480711049</v>
+        <v>-0.367130064020905</v>
       </c>
       <c r="K24" t="n">
-        <v>0.289331926083422</v>
+        <v>0.303401714788063</v>
       </c>
     </row>
     <row r="25">
@@ -2039,22 +2033,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.333139327078981</v>
+        <v>0.332511558809136</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0701355129806732</v>
+        <v>0.0699909612053166</v>
       </c>
       <c r="H25" t="n">
-        <v>4.7499378406312</v>
+        <v>4.75077857316065</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00000203479183946698</v>
+        <v>0.00000202634927104484</v>
       </c>
       <c r="J25" t="n">
-        <v>0.197192147601455</v>
+        <v>0.196615407592525</v>
       </c>
       <c r="K25" t="n">
-        <v>0.472880455979386</v>
+        <v>0.470192651548367</v>
       </c>
     </row>
     <row r="26">
@@ -2074,22 +2068,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.34503955492496</v>
+        <v>0.350624790993633</v>
       </c>
       <c r="G26" t="n">
-        <v>0.105741943888359</v>
+        <v>0.104303095848967</v>
       </c>
       <c r="H26" t="n">
-        <v>3.26303396965398</v>
+        <v>3.36159524451072</v>
       </c>
       <c r="I26" t="n">
-        <v>0.00110226306799244</v>
+        <v>0.000774936255947933</v>
       </c>
       <c r="J26" t="n">
-        <v>0.146736678437497</v>
+        <v>0.153424806159512</v>
       </c>
       <c r="K26" t="n">
-        <v>0.563428328667073</v>
+        <v>0.567962918264287</v>
       </c>
     </row>
     <row r="27">
@@ -2109,22 +2103,22 @@
         <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>0.590739784945427</v>
+        <v>0.633291378943223</v>
       </c>
       <c r="G27" t="n">
-        <v>0.156421285446713</v>
+        <v>0.171273521826155</v>
       </c>
       <c r="H27" t="n">
-        <v>3.77659461919376</v>
+        <v>3.69754397638896</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000158987178887404</v>
+        <v>0.000217695514871163</v>
       </c>
       <c r="J27" t="n">
-        <v>0.280031390164874</v>
+        <v>0.291131143806323</v>
       </c>
       <c r="K27" t="n">
-        <v>0.89218171098252</v>
+        <v>0.957804802756497</v>
       </c>
     </row>
     <row r="28">
@@ -2144,22 +2138,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00360563413672715</v>
+        <v>-0.0127040503789165</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0721848067906948</v>
+        <v>0.077211999074236</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0499500420799346</v>
+        <v>-0.164534664705445</v>
       </c>
       <c r="I28" t="n">
-        <v>0.960162199231382</v>
+        <v>0.869310260093877</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.143453718866231</v>
+        <v>-0.167338047726078</v>
       </c>
       <c r="K28" t="n">
-        <v>0.14048119525182</v>
+        <v>0.136082280606821</v>
       </c>
     </row>
     <row r="29">
@@ -2179,22 +2173,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.355464988289031</v>
+        <v>-0.328007532263664</v>
       </c>
       <c r="G29" t="n">
-        <v>0.104210138881983</v>
+        <v>0.107080519207493</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.4110403469627</v>
+        <v>-3.06318585949396</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000647155144932299</v>
+        <v>0.00218993999235684</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.568733049846252</v>
+        <v>-0.54092439249285</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.158527135604466</v>
+        <v>-0.12175680009691</v>
       </c>
     </row>
     <row r="30">
@@ -2214,22 +2208,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.73146713332069</v>
+        <v>0.740895176553219</v>
       </c>
       <c r="G30" t="n">
-        <v>0.158882394910455</v>
+        <v>0.158624910440788</v>
       </c>
       <c r="H30" t="n">
-        <v>4.60382746454029</v>
+        <v>4.67073661062702</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00000414796146364083</v>
+        <v>0.00000300121561713773</v>
       </c>
       <c r="J30" t="n">
-        <v>0.425610597435436</v>
+        <v>0.433702733872854</v>
       </c>
       <c r="K30" t="n">
-        <v>1.04423647847937</v>
+        <v>1.05254866503975</v>
       </c>
     </row>
     <row r="31">
@@ -2249,22 +2243,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>1.06442318585343</v>
+        <v>0.9870867615707</v>
       </c>
       <c r="G31" t="n">
-        <v>0.19980677138808</v>
+        <v>0.189466014633224</v>
       </c>
       <c r="H31" t="n">
-        <v>5.32726282727435</v>
+        <v>5.20983546036762</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000000997038409611406</v>
+        <v>0.000000189008175999206</v>
       </c>
       <c r="J31" t="n">
-        <v>0.684326683049671</v>
+        <v>0.638717020753201</v>
       </c>
       <c r="K31" t="n">
-        <v>1.45606140986755</v>
+        <v>1.38507343161879</v>
       </c>
     </row>
     <row r="32">
@@ -2284,22 +2278,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.631707050882206</v>
+        <v>0.364337706015912</v>
       </c>
       <c r="G32" t="n">
-        <v>0.199666742252171</v>
+        <v>0.146708818394594</v>
       </c>
       <c r="H32" t="n">
-        <v>3.16380707050543</v>
+        <v>2.48340699627186</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00155719984350355</v>
+        <v>0.0130132310706104</v>
       </c>
       <c r="J32" t="n">
-        <v>0.266393098348737</v>
+        <v>0.0894241856393212</v>
       </c>
       <c r="K32" t="n">
-        <v>1.04135994083407</v>
+        <v>0.678928128393336</v>
       </c>
     </row>
     <row r="33">
@@ -2319,22 +2313,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.773634287020299</v>
+        <v>0.624156864527297</v>
       </c>
       <c r="G33" t="n">
-        <v>0.164502861730162</v>
+        <v>0.143769019377102</v>
       </c>
       <c r="H33" t="n">
-        <v>4.70286218053343</v>
+        <v>4.34138639347711</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00000256539593768146</v>
+        <v>0.0000141586480928435</v>
       </c>
       <c r="J33" t="n">
-        <v>0.463746707740073</v>
+        <v>0.355599141486269</v>
       </c>
       <c r="K33" t="n">
-        <v>1.11262926426021</v>
+        <v>0.92011170506319</v>
       </c>
     </row>
     <row r="34">
@@ -2354,22 +2348,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>1.08630366731357</v>
+        <v>1.07270592685396</v>
       </c>
       <c r="G34" t="n">
-        <v>0.163925872202899</v>
+        <v>0.162911142564481</v>
       </c>
       <c r="H34" t="n">
-        <v>6.62679815403999</v>
+        <v>6.58460747354573</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0000000000343045591932878</v>
+        <v>0.0000000000456088500300211</v>
       </c>
       <c r="J34" t="n">
-        <v>0.769632501605629</v>
+        <v>0.75802749304737</v>
       </c>
       <c r="K34" t="n">
-        <v>1.42804724605055</v>
+        <v>1.41311811515497</v>
       </c>
     </row>
     <row r="35">
@@ -2389,22 +2383,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>1.03444920905983</v>
+        <v>1.03935113192994</v>
       </c>
       <c r="G35" t="n">
-        <v>0.147877836460758</v>
+        <v>0.147628944449245</v>
       </c>
       <c r="H35" t="n">
-        <v>6.9952958050907</v>
+        <v>7.04029372971145</v>
       </c>
       <c r="I35" t="n">
-        <v>0.0000000000026469937353113</v>
+        <v>0.00000000000191824334194735</v>
       </c>
       <c r="J35" t="n">
-        <v>0.753928982767721</v>
+        <v>0.758176222743422</v>
       </c>
       <c r="K35" t="n">
-        <v>1.33083544464359</v>
+        <v>1.33443081604092</v>
       </c>
     </row>
     <row r="36">
@@ -2424,22 +2418,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>1.73359156393583</v>
+        <v>1.73054538679386</v>
       </c>
       <c r="G36" t="n">
-        <v>0.211483545974327</v>
+        <v>0.211647635468417</v>
       </c>
       <c r="H36" t="n">
-        <v>8.19728814338244</v>
+        <v>8.17654013929253</v>
       </c>
       <c r="I36" t="n">
         <v>0.000000000000000222044604925031</v>
       </c>
       <c r="J36" t="n">
-        <v>1.32359488042879</v>
+        <v>1.32387474415716</v>
       </c>
       <c r="K36" t="n">
-        <v>2.14882041752125</v>
+        <v>2.14633519709458</v>
       </c>
     </row>
     <row r="37">
@@ -2459,22 +2453,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>1.43322392491301</v>
+        <v>1.44539672541704</v>
       </c>
       <c r="G37" t="n">
-        <v>0.169121840280094</v>
+        <v>0.171209075848502</v>
       </c>
       <c r="H37" t="n">
-        <v>8.47450525928147</v>
+        <v>8.44229032984225</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>1.10399099144123</v>
+        <v>1.11402751814816</v>
       </c>
       <c r="K37" t="n">
-        <v>1.76098757720404</v>
+        <v>1.78122889915721</v>
       </c>
     </row>
     <row r="38">
@@ -2494,22 +2488,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>1.70150994064499</v>
+        <v>1.69876001684504</v>
       </c>
       <c r="G38" t="n">
-        <v>0.202020671146151</v>
+        <v>0.202002932465319</v>
       </c>
       <c r="H38" t="n">
-        <v>8.42245464779212</v>
+        <v>8.40958097049751</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>1.31108096569691</v>
+        <v>1.30626353096166</v>
       </c>
       <c r="K38" t="n">
-        <v>2.11128017944451</v>
+        <v>2.1098977057192</v>
       </c>
     </row>
     <row r="39">
@@ -2529,22 +2523,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>1.83954824995208</v>
+        <v>1.84853700266674</v>
       </c>
       <c r="G39" t="n">
-        <v>0.275994714318406</v>
+        <v>0.274687395327966</v>
       </c>
       <c r="H39" t="n">
-        <v>6.66515753569779</v>
+        <v>6.72960257408121</v>
       </c>
       <c r="I39" t="n">
-        <v>0.0000000000264381849746087</v>
+        <v>0.000000000017012613540146</v>
       </c>
       <c r="J39" t="n">
-        <v>1.28805993526738</v>
+        <v>1.29416676260065</v>
       </c>
       <c r="K39" t="n">
-        <v>2.37295227480764</v>
+        <v>2.37600354361813</v>
       </c>
     </row>
     <row r="40">
@@ -2564,22 +2558,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>1.50891927667313</v>
+        <v>1.50865635765001</v>
       </c>
       <c r="G40" t="n">
-        <v>0.199725790500402</v>
+        <v>0.200027806465756</v>
       </c>
       <c r="H40" t="n">
-        <v>7.55495458494677</v>
+        <v>7.54223317400764</v>
       </c>
       <c r="I40" t="n">
-        <v>0.0000000000000419664303308309</v>
+        <v>0.0000000000000461852778244065</v>
       </c>
       <c r="J40" t="n">
-        <v>1.11371241372978</v>
+        <v>1.11385160255849</v>
       </c>
       <c r="K40" t="n">
-        <v>1.89371841958567</v>
+        <v>1.89771992975611</v>
       </c>
     </row>
     <row r="41">
@@ -2599,22 +2593,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>2.08523862966244</v>
+        <v>2.08132199659283</v>
       </c>
       <c r="G41" t="n">
-        <v>0.212330931977258</v>
+        <v>0.212458070526685</v>
       </c>
       <c r="H41" t="n">
-        <v>9.82070115853769</v>
+        <v>9.79638943078612</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>1.64509885438017</v>
+        <v>1.64318989503484</v>
       </c>
       <c r="K41" t="n">
-        <v>2.4870423077224</v>
+        <v>2.48614417931131</v>
       </c>
     </row>
     <row r="42">
@@ -2634,22 +2628,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.587773984143144</v>
+        <v>0.587768052196158</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0800248273465565</v>
+        <v>0.0800235903189542</v>
       </c>
       <c r="H42" t="n">
-        <v>7.34489537350356</v>
+        <v>7.34493478552337</v>
       </c>
       <c r="I42" t="n">
         <v>0.000000000000205835348765504</v>
       </c>
       <c r="J42" t="n">
-        <v>0.433865852263877</v>
+        <v>0.433757131670696</v>
       </c>
       <c r="K42" t="n">
-        <v>0.750904356296403</v>
+        <v>0.750578803856608</v>
       </c>
     </row>
     <row r="43">
@@ -2669,22 +2663,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.233546475688836</v>
+        <v>0.233454430339758</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0540669427113994</v>
+        <v>0.0541170281192334</v>
       </c>
       <c r="H43" t="n">
-        <v>4.3195798389317</v>
+        <v>4.31388120251908</v>
       </c>
       <c r="I43" t="n">
-        <v>0.000015632654627673</v>
+        <v>0.0000160413167842322</v>
       </c>
       <c r="J43" t="n">
-        <v>0.128233087386124</v>
+        <v>0.128428797467201</v>
       </c>
       <c r="K43" t="n">
-        <v>0.343282623319121</v>
+        <v>0.344441324876754</v>
       </c>
     </row>
     <row r="44">
@@ -2704,22 +2698,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.342395757030062</v>
+        <v>0.342501529675177</v>
       </c>
       <c r="G44" t="n">
-        <v>0.05968847791639</v>
+        <v>0.0597478974339561</v>
       </c>
       <c r="H44" t="n">
-        <v>5.7363794317168</v>
+        <v>5.7324448957182</v>
       </c>
       <c r="I44" t="n">
-        <v>0.00000000967218460878883</v>
+        <v>0.00000000989932003037097</v>
       </c>
       <c r="J44" t="n">
-        <v>0.228700556372476</v>
+        <v>0.22900219737227</v>
       </c>
       <c r="K44" t="n">
-        <v>0.461163197856439</v>
+        <v>0.461020901744127</v>
       </c>
     </row>
     <row r="45">
@@ -2739,22 +2733,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.481856837030809</v>
+        <v>0.483268247022562</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0659027061465279</v>
+        <v>0.0659545993576538</v>
       </c>
       <c r="H45" t="n">
-        <v>7.31163961551821</v>
+        <v>7.32728652329354</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000264011035255862</v>
+        <v>0.000000000000234923192010683</v>
       </c>
       <c r="J45" t="n">
-        <v>0.3573679401411</v>
+        <v>0.359508041605666</v>
       </c>
       <c r="K45" t="n">
-        <v>0.619282118315393</v>
+        <v>0.620734509703908</v>
       </c>
     </row>
     <row r="46">
@@ -2774,22 +2768,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0321707268082062</v>
+        <v>0.0298541429843493</v>
       </c>
       <c r="G46" t="n">
-        <v>0.043562487625324</v>
+        <v>0.0439383764724649</v>
       </c>
       <c r="H46" t="n">
-        <v>0.738496090602148</v>
+        <v>0.679454849749812</v>
       </c>
       <c r="I46" t="n">
-        <v>0.460213041943486</v>
+        <v>0.496849706283387</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0574424408098182</v>
+        <v>-0.0605521197847272</v>
       </c>
       <c r="K46" t="n">
-        <v>0.114004255603762</v>
+        <v>0.111733771906981</v>
       </c>
     </row>
     <row r="47">
@@ -2809,22 +2803,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.476269410390082</v>
+        <v>0.477866917398506</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0545793388281032</v>
+        <v>0.0549507827038727</v>
       </c>
       <c r="H47" t="n">
-        <v>8.72618504760722</v>
+        <v>8.69627135201531</v>
       </c>
       <c r="I47" t="n">
         <v>0</v>
       </c>
       <c r="J47" t="n">
-        <v>0.370746288285516</v>
+        <v>0.372064878113574</v>
       </c>
       <c r="K47" t="n">
-        <v>0.586130548934952</v>
+        <v>0.589018826020748</v>
       </c>
     </row>
     <row r="48">
@@ -2844,22 +2838,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>1.87369017048672</v>
+        <v>2.29777477269635</v>
       </c>
       <c r="G48" t="n">
-        <v>0.245346805277396</v>
+        <v>0.21722235036677</v>
       </c>
       <c r="H48" t="n">
-        <v>7.63690470054529</v>
+        <v>10.5779850407504</v>
       </c>
       <c r="I48" t="n">
-        <v>0.0000000000000222044604925031</v>
+        <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>1.38805782506655</v>
+        <v>1.84706556281776</v>
       </c>
       <c r="K48" t="n">
-        <v>2.3523344181267</v>
+        <v>2.70591184401499</v>
       </c>
     </row>
     <row r="49">
@@ -2879,22 +2873,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>1.74371296579151</v>
+        <v>1.74348542335055</v>
       </c>
       <c r="G49" t="n">
-        <v>0.199974100825324</v>
+        <v>0.198136713059471</v>
       </c>
       <c r="H49" t="n">
-        <v>8.7196939933468</v>
+        <v>8.7994062101315</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>1.33873112531955</v>
+        <v>1.34206528432126</v>
       </c>
       <c r="K49" t="n">
-        <v>2.11770152446173</v>
+        <v>2.11701804721694</v>
       </c>
     </row>
     <row r="50">
@@ -2914,22 +2908,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>1.08554620308346</v>
+        <v>1.08598702043017</v>
       </c>
       <c r="G50" t="n">
-        <v>0.206712456467911</v>
+        <v>0.206553534253605</v>
       </c>
       <c r="H50" t="n">
-        <v>5.25147938170806</v>
+        <v>5.25765402346883</v>
       </c>
       <c r="I50" t="n">
-        <v>0.000000150882425220544</v>
+        <v>0.000000145904681447817</v>
       </c>
       <c r="J50" t="n">
-        <v>0.67953777198576</v>
+        <v>0.682006910636195</v>
       </c>
       <c r="K50" t="n">
-        <v>1.4920911427532</v>
+        <v>1.4923730941949</v>
       </c>
     </row>
     <row r="51">
@@ -2949,22 +2943,22 @@
         <v>0</v>
       </c>
       <c r="F51" t="n">
-        <v>1.53695529360409</v>
+        <v>1.53695699616045</v>
       </c>
       <c r="G51" t="n">
-        <v>0.155672678419387</v>
+        <v>0.155656346024362</v>
       </c>
       <c r="H51" t="n">
-        <v>9.87299318807554</v>
+        <v>9.87404005950324</v>
       </c>
       <c r="I51" t="n">
         <v>0</v>
       </c>
       <c r="J51" t="n">
-        <v>1.2402006707763</v>
+        <v>1.24087231396042</v>
       </c>
       <c r="K51" t="n">
-        <v>1.84928239377254</v>
+        <v>1.84933137640438</v>
       </c>
     </row>
     <row r="52">
@@ -2984,22 +2978,22 @@
         <v>0</v>
       </c>
       <c r="F52" t="n">
-        <v>0.798033147218867</v>
+        <v>0.796624874004522</v>
       </c>
       <c r="G52" t="n">
-        <v>0.0904731417330916</v>
+        <v>0.0904400065846341</v>
       </c>
       <c r="H52" t="n">
-        <v>8.82066359067287</v>
+        <v>8.80832392752026</v>
       </c>
       <c r="I52" t="n">
         <v>0</v>
       </c>
       <c r="J52" t="n">
-        <v>0.621334701275169</v>
+        <v>0.620018404900948</v>
       </c>
       <c r="K52" t="n">
-        <v>0.97649178888004</v>
+        <v>0.974629659619408</v>
       </c>
     </row>
     <row r="53">
@@ -3019,22 +3013,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.175232368886665</v>
+        <v>-0.17488190975902</v>
       </c>
       <c r="G53" t="n">
-        <v>0.072394989593383</v>
+        <v>0.0722998099551439</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.42050409663545</v>
+        <v>-2.41884328420116</v>
       </c>
       <c r="I53" t="n">
-        <v>0.0154990046550925</v>
+        <v>0.0155699465387014</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.317136717969703</v>
+        <v>-0.316890030754179</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0393905284428373</v>
+        <v>-0.0390616682805057</v>
       </c>
     </row>
     <row r="54">
@@ -3085,22 +3079,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>4.85551767152173</v>
+        <v>4.81057318994525</v>
       </c>
       <c r="G55" t="n">
-        <v>0.128663046024464</v>
+        <v>0.135182831240678</v>
       </c>
       <c r="H55" t="n">
-        <v>37.7382459187115</v>
+        <v>35.585681597248</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>4.60224196469693</v>
+        <v>4.54626907295513</v>
       </c>
       <c r="K55" t="n">
-        <v>5.10697955370802</v>
+        <v>5.07253702293202</v>
       </c>
     </row>
     <row r="56">
@@ -3120,22 +3114,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>4.78083800820425</v>
+        <v>4.86267648183226</v>
       </c>
       <c r="G56" t="n">
-        <v>0.141467460595008</v>
+        <v>0.146419072817025</v>
       </c>
       <c r="H56" t="n">
-        <v>33.7946124719861</v>
+        <v>33.2106766439436</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>4.50110353076878</v>
+        <v>4.5797309969283</v>
       </c>
       <c r="K56" t="n">
-        <v>5.04996934144937</v>
+        <v>5.1506363862598</v>
       </c>
     </row>
     <row r="57">
@@ -3155,22 +3149,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>4.87913624889435</v>
+        <v>5.14399813490974</v>
       </c>
       <c r="G57" t="n">
-        <v>0.141733311933401</v>
+        <v>0.134932792556143</v>
       </c>
       <c r="H57" t="n">
-        <v>34.4247670666653</v>
+        <v>38.1226686075545</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>4.60417460997455</v>
+        <v>4.87833888535184</v>
       </c>
       <c r="K57" t="n">
-        <v>5.15654000870703</v>
+        <v>5.40303234020081</v>
       </c>
     </row>
     <row r="58">
@@ -3190,22 +3184,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>4.20574550489976</v>
+        <v>4.20602084886123</v>
       </c>
       <c r="G58" t="n">
-        <v>0.124122525929493</v>
+        <v>0.124296623137602</v>
       </c>
       <c r="H58" t="n">
-        <v>33.883821436963</v>
+        <v>33.8385769676539</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>3.96429608836977</v>
+        <v>3.96400284202686</v>
       </c>
       <c r="K58" t="n">
-        <v>4.44546875952317</v>
+        <v>4.44603538205024</v>
       </c>
     </row>
     <row r="59">
@@ -3225,22 +3219,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>4.63561496993659</v>
+        <v>4.63559064001051</v>
       </c>
       <c r="G59" t="n">
-        <v>0.115202890801293</v>
+        <v>0.115129562624622</v>
       </c>
       <c r="H59" t="n">
-        <v>40.2387035402811</v>
+        <v>40.2641209983988</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>4.40904201525186</v>
+        <v>4.40947724578349</v>
       </c>
       <c r="K59" t="n">
-        <v>4.86303123369725</v>
+        <v>4.86285984581369</v>
       </c>
     </row>
     <row r="60">
@@ -3260,22 +3254,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>4.64238138118465</v>
+        <v>4.64249136388375</v>
       </c>
       <c r="G60" t="n">
-        <v>0.11753332875602</v>
+        <v>0.11758633909848</v>
       </c>
       <c r="H60" t="n">
-        <v>39.4984250877592</v>
+        <v>39.4815537202466</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>4.4061595950906</v>
+        <v>4.40620874842443</v>
       </c>
       <c r="K60" t="n">
-        <v>4.86801555806772</v>
+        <v>4.86857310032103</v>
       </c>
     </row>
     <row r="61">
@@ -3295,22 +3289,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>4.59556752789322</v>
+        <v>4.59541263214735</v>
       </c>
       <c r="G61" t="n">
-        <v>0.116345617067292</v>
+        <v>0.116194220790765</v>
       </c>
       <c r="H61" t="n">
-        <v>39.4992750370238</v>
+        <v>39.5494078868385</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>4.36205979135697</v>
+        <v>4.36222436437496</v>
       </c>
       <c r="K61" t="n">
-        <v>4.82016278364452</v>
+        <v>4.81952457558732</v>
       </c>
     </row>
     <row r="62">
@@ -3330,22 +3324,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>4.49882911272971</v>
+        <v>4.49905134106133</v>
       </c>
       <c r="G62" t="n">
-        <v>0.111416805833307</v>
+        <v>0.111466195704987</v>
       </c>
       <c r="H62" t="n">
-        <v>40.3783709206357</v>
+        <v>40.3624732377949</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>4.28248303245832</v>
+        <v>4.2825915613003</v>
       </c>
       <c r="K62" t="n">
-        <v>4.72362842091907</v>
+        <v>4.72471346287711</v>
       </c>
     </row>
     <row r="63">
@@ -3365,22 +3359,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>4.10167440329641</v>
+        <v>4.10206247465508</v>
       </c>
       <c r="G63" t="n">
-        <v>0.135921597911662</v>
+        <v>0.135751128854477</v>
       </c>
       <c r="H63" t="n">
-        <v>30.1767670945287</v>
+        <v>30.2175201729072</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>3.83757883153293</v>
+        <v>3.83748699436503</v>
       </c>
       <c r="K63" t="n">
-        <v>4.36767528939296</v>
+        <v>4.3687810293909</v>
       </c>
     </row>
     <row r="64">
@@ -3400,22 +3394,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>3.78667260606965</v>
+        <v>3.78700944403684</v>
       </c>
       <c r="G64" t="n">
-        <v>0.136014320001097</v>
+        <v>0.135982546388498</v>
       </c>
       <c r="H64" t="n">
-        <v>27.8402495122507</v>
+        <v>27.8492317184402</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>3.52702531694054</v>
+        <v>3.52752153828516</v>
       </c>
       <c r="K64" t="n">
-        <v>4.05229283645905</v>
+        <v>4.05265173831568</v>
       </c>
     </row>
     <row r="65">
@@ -3435,22 +3429,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>4.30725044060356</v>
+        <v>4.3074522336161</v>
       </c>
       <c r="G65" t="n">
-        <v>0.114702066443968</v>
+        <v>0.114789385304032</v>
       </c>
       <c r="H65" t="n">
-        <v>37.551637683072</v>
+        <v>37.5248305599628</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>4.08427973175</v>
+        <v>4.08453943752739</v>
       </c>
       <c r="K65" t="n">
-        <v>4.53123439295664</v>
+        <v>4.5317560349399</v>
       </c>
     </row>
     <row r="66">
@@ -3470,22 +3464,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>4.90828424015789</v>
+        <v>4.90828408528816</v>
       </c>
       <c r="G66" t="n">
-        <v>0.0803015769767395</v>
+        <v>0.0803015825021512</v>
       </c>
       <c r="H66" t="n">
-        <v>61.1231363685379</v>
+        <v>61.1231302341603</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>4.75147922902506</v>
+        <v>4.75147916682896</v>
       </c>
       <c r="K66" t="n">
-        <v>5.06508892946734</v>
+        <v>5.06508900159734</v>
       </c>
     </row>
     <row r="67">
@@ -3505,22 +3499,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>4.93195295875009</v>
+        <v>4.93195259381522</v>
       </c>
       <c r="G67" t="n">
-        <v>0.0803939697542333</v>
+        <v>0.0803939719243287</v>
       </c>
       <c r="H67" t="n">
-        <v>61.3472997269225</v>
+        <v>61.3472935316276</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>4.77514734098434</v>
+        <v>4.77514744532932</v>
       </c>
       <c r="K67" t="n">
-        <v>5.0917157658403</v>
+        <v>5.09171582834572</v>
       </c>
     </row>
     <row r="68">
@@ -3540,22 +3534,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>5.0207104344637</v>
+        <v>5.02070989380766</v>
       </c>
       <c r="G68" t="n">
-        <v>0.0820210232787495</v>
+        <v>0.0820210221197767</v>
       </c>
       <c r="H68" t="n">
-        <v>61.2124822851911</v>
+        <v>61.2124765584588</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>4.86094640685521</v>
+        <v>4.86094654104378</v>
       </c>
       <c r="K68" t="n">
-        <v>5.18639016559625</v>
+        <v>5.18639029391194</v>
       </c>
     </row>
     <row r="69">
@@ -3575,22 +3569,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>3.14792939589064</v>
+        <v>3.14792885492693</v>
       </c>
       <c r="G69" t="n">
-        <v>0.0613600641958315</v>
+        <v>0.0613600625553259</v>
       </c>
       <c r="H69" t="n">
-        <v>51.3025766375339</v>
+        <v>51.3025691929269</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>3.02662746314325</v>
+        <v>3.02662735868773</v>
       </c>
       <c r="K69" t="n">
-        <v>3.26923037918766</v>
+        <v>3.26923022550054</v>
       </c>
     </row>
     <row r="70">
@@ -3610,22 +3604,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.84615432024953</v>
+        <v>2.84615376967185</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0603606962404746</v>
+        <v>0.0603606896752715</v>
       </c>
       <c r="H70" t="n">
-        <v>47.1524435190503</v>
+        <v>47.1524395261815</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.72485201435413</v>
+        <v>2.7248519884135</v>
       </c>
       <c r="K70" t="n">
-        <v>2.96449758606592</v>
+        <v>2.96449777090348</v>
       </c>
     </row>
     <row r="71">
@@ -3645,22 +3639,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.63609509083754</v>
+        <v>2.63609458021593</v>
       </c>
       <c r="G71" t="n">
-        <v>0.062234044767725</v>
+        <v>0.062234036450347</v>
       </c>
       <c r="H71" t="n">
-        <v>42.3577657643207</v>
+        <v>42.3577632204385</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.51486863498948</v>
+        <v>2.51486791057026</v>
       </c>
       <c r="K71" t="n">
-        <v>2.76035594009671</v>
+        <v>2.76035581498267</v>
       </c>
     </row>
     <row r="72">
@@ -3866,22 +3860,22 @@
         <v>118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0687287188976175</v>
+        <v>0.0692320108100531</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0396223813784039</v>
+        <v>0.0384232781278201</v>
       </c>
       <c r="H78" t="n">
-        <v>1.73459334110286</v>
+        <v>1.80182467981373</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0828128597739508</v>
+        <v>0.0715729934974707</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.000520723550093525</v>
+        <v>0.00309243042306236</v>
       </c>
       <c r="K78" t="n">
-        <v>0.156861562658743</v>
+        <v>0.155187155876355</v>
       </c>
     </row>
     <row r="79">
@@ -3901,22 +3895,22 @@
         <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0912443065937401</v>
+        <v>-0.0995034669228648</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0502460605643717</v>
+        <v>0.0500184177734879</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.81594946089046</v>
+        <v>-1.9893365554559</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0693781250853143</v>
+        <v>0.0466640673553205</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.203175159150239</v>
+        <v>-0.208422745120677</v>
       </c>
       <c r="K79" t="n">
-        <v>-0.00772737844862932</v>
+        <v>-0.0178139397147137</v>
       </c>
     </row>
   </sheetData>
@@ -3985,22 +3979,22 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>0.812076201321914</v>
+        <v>0.845875984554841</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0391448840620419</v>
+        <v>0.029930703530486</v>
       </c>
       <c r="H2" t="n">
-        <v>20.7453980457531</v>
+        <v>28.2611460734049</v>
       </c>
       <c r="I2" t="n">
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>0.735353638381316</v>
+        <v>0.787212883603142</v>
       </c>
       <c r="K2" t="n">
-        <v>0.888798764262512</v>
+        <v>0.904539085506539</v>
       </c>
     </row>
     <row r="3">
@@ -4020,22 +4014,22 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>0.904305845468081</v>
+        <v>0.945803548263313</v>
       </c>
       <c r="G3" t="n">
-        <v>0.031635120866503</v>
+        <v>0.0223442759520557</v>
       </c>
       <c r="H3" t="n">
-        <v>28.5855030958839</v>
+        <v>42.3286729134894</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.842302147923164</v>
+        <v>0.90200957213666</v>
       </c>
       <c r="K3" t="n">
-        <v>0.966309543012998</v>
+        <v>0.989597524389967</v>
       </c>
     </row>
     <row r="4">
@@ -4055,22 +4049,22 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.880934556853366</v>
+        <v>0.892740230394689</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0278527325528009</v>
+        <v>0.0275418960870858</v>
       </c>
       <c r="H4" t="n">
-        <v>31.6282991330693</v>
+        <v>32.4138987225825</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>0.82634420417885</v>
+        <v>0.838759105998056</v>
       </c>
       <c r="K4" t="n">
-        <v>0.935524909527882</v>
+        <v>0.946721354791321</v>
       </c>
     </row>
     <row r="5">
@@ -4090,22 +4084,22 @@
         <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>0.808100802238938</v>
+        <v>0.810782314088106</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0321973335288738</v>
+        <v>0.0319227022541417</v>
       </c>
       <c r="H5" t="n">
-        <v>25.0983765942683</v>
+        <v>25.3982982904561</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0.744995188124121</v>
+        <v>0.748214967380793</v>
       </c>
       <c r="K5" t="n">
-        <v>0.871206416353755</v>
+        <v>0.873349660795419</v>
       </c>
     </row>
     <row r="6">
@@ -4125,22 +4119,22 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>0.791403259907495</v>
+        <v>0.790284374636746</v>
       </c>
       <c r="G6" t="n">
-        <v>0.0337054978655381</v>
+        <v>0.0337098346978782</v>
       </c>
       <c r="H6" t="n">
-        <v>23.4799457069186</v>
+        <v>23.4437333116465</v>
       </c>
       <c r="I6" t="n">
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>0.725341698010049</v>
+        <v>0.724214312704106</v>
       </c>
       <c r="K6" t="n">
-        <v>0.857464821804942</v>
+        <v>0.856354436569386</v>
       </c>
     </row>
     <row r="7">
@@ -4160,22 +4154,22 @@
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0.674537639799528</v>
+        <v>0.67524742633083</v>
       </c>
       <c r="G7" t="n">
-        <v>0.0440574794137285</v>
+        <v>0.0440473970284048</v>
       </c>
       <c r="H7" t="n">
-        <v>15.3104001585106</v>
+        <v>15.3300188407361</v>
       </c>
       <c r="I7" t="n">
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0.588186566899005</v>
+        <v>0.58891611454242</v>
       </c>
       <c r="K7" t="n">
-        <v>0.76088871270005</v>
+        <v>0.76157873811924</v>
       </c>
     </row>
     <row r="8">
@@ -4195,22 +4189,22 @@
         <v>0</v>
       </c>
       <c r="F8" t="n">
-        <v>0.73065178860556</v>
+        <v>0.727939189559953</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0379163921173767</v>
+        <v>0.038469395953926</v>
       </c>
       <c r="H8" t="n">
-        <v>19.2700768138409</v>
+        <v>18.9225531493084</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>0.656337025631803</v>
+        <v>0.652540558983247</v>
       </c>
       <c r="K8" t="n">
-        <v>0.804966551579316</v>
+        <v>0.803337820136659</v>
       </c>
     </row>
     <row r="9">
@@ -4230,22 +4224,22 @@
         <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>0.635375642102</v>
+        <v>0.636133679037979</v>
       </c>
       <c r="G9" t="n">
-        <v>0.0533250563874823</v>
+        <v>0.053266871631959</v>
       </c>
       <c r="H9" t="n">
-        <v>11.9151424329511</v>
+        <v>11.9423885718926</v>
       </c>
       <c r="I9" t="n">
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.530860452108968</v>
+        <v>0.531732529070221</v>
       </c>
       <c r="K9" t="n">
-        <v>0.739890832095033</v>
+        <v>0.740534829005737</v>
       </c>
     </row>
     <row r="10">
@@ -4265,22 +4259,22 @@
         <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>0.717759238559221</v>
+        <v>0.716106096778871</v>
       </c>
       <c r="G10" t="n">
-        <v>0.0500414313936608</v>
+        <v>0.0498029735841838</v>
       </c>
       <c r="H10" t="n">
-        <v>14.3432995134137</v>
+        <v>14.3787819329384</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>0.619679835292814</v>
+        <v>0.618494062230871</v>
       </c>
       <c r="K10" t="n">
-        <v>0.815838641825628</v>
+        <v>0.813718131326871</v>
       </c>
     </row>
     <row r="11">
@@ -4300,22 +4294,22 @@
         <v>0</v>
       </c>
       <c r="F11" t="n">
-        <v>0.766581424925458</v>
+        <v>0.766627606084678</v>
       </c>
       <c r="G11" t="n">
-        <v>0.0376773568567368</v>
+        <v>0.0378273563197894</v>
       </c>
       <c r="H11" t="n">
-        <v>20.3459448559591</v>
+        <v>20.2664864973293</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>0.692735162453591</v>
+        <v>0.692487350067527</v>
       </c>
       <c r="K11" t="n">
-        <v>0.840427687397325</v>
+        <v>0.840767862101829</v>
       </c>
     </row>
     <row r="12">
@@ -4335,22 +4329,22 @@
         <v>0</v>
       </c>
       <c r="F12" t="n">
-        <v>0.583498149261416</v>
+        <v>0.584557367086358</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0555336228102432</v>
+        <v>0.055471710289969</v>
       </c>
       <c r="H12" t="n">
-        <v>10.5071147844111</v>
+        <v>10.5379366172538</v>
       </c>
       <c r="I12" t="n">
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>0.474654248622308</v>
+        <v>0.475834812757179</v>
       </c>
       <c r="K12" t="n">
-        <v>0.692342049900525</v>
+        <v>0.693279921415538</v>
       </c>
     </row>
     <row r="13">
@@ -4370,22 +4364,22 @@
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0.85050880955983</v>
+        <v>0.850510127127685</v>
       </c>
       <c r="G13" t="n">
-        <v>0.0225463180819613</v>
+        <v>0.0225436637305883</v>
       </c>
       <c r="H13" t="n">
-        <v>37.7227362120956</v>
+        <v>37.7272362332868</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0.806318838135201</v>
+        <v>0.80632535813615</v>
       </c>
       <c r="K13" t="n">
-        <v>0.894698780984458</v>
+        <v>0.89469489611922</v>
       </c>
     </row>
     <row r="14">
@@ -4405,22 +4399,22 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>0.944341649487937</v>
+        <v>0.944364140965292</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0138524043035077</v>
+        <v>0.01386651568564</v>
       </c>
       <c r="H14" t="n">
-        <v>68.1716782731221</v>
+        <v>68.1039247619549</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
       </c>
       <c r="J14" t="n">
-        <v>0.917191435953774</v>
+        <v>0.917186269630378</v>
       </c>
       <c r="K14" t="n">
-        <v>0.9714918630221</v>
+        <v>0.971542012300206</v>
       </c>
     </row>
     <row r="15">
@@ -4440,22 +4434,22 @@
         <v>0</v>
       </c>
       <c r="F15" t="n">
-        <v>0.920812304157884</v>
+        <v>0.920786665501595</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0154480310762253</v>
+        <v>0.0154596828459449</v>
       </c>
       <c r="H15" t="n">
-        <v>59.6070981223637</v>
+        <v>59.5605145769934</v>
       </c>
       <c r="I15" t="n">
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0.890534719616427</v>
+        <v>0.890486243911132</v>
       </c>
       <c r="K15" t="n">
-        <v>0.951089888699341</v>
+        <v>0.951087087092059</v>
       </c>
     </row>
     <row r="16">
@@ -4475,22 +4469,22 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>0.789630918485457</v>
+        <v>0.788932921091495</v>
       </c>
       <c r="G16" t="n">
-        <v>0.0322126806092314</v>
+        <v>0.0322579873595821</v>
       </c>
       <c r="H16" t="n">
-        <v>24.5130459046357</v>
+        <v>24.456979051334</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>0.726495224645872</v>
+        <v>0.725708427652966</v>
       </c>
       <c r="K16" t="n">
-        <v>0.852766612325042</v>
+        <v>0.852157414530024</v>
       </c>
     </row>
     <row r="17">
@@ -4510,22 +4504,22 @@
         <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>0.987451406005918</v>
+        <v>0.988360361491303</v>
       </c>
       <c r="G17" t="n">
-        <v>0.0171827206710693</v>
+        <v>0.0173115212344423</v>
       </c>
       <c r="H17" t="n">
-        <v>57.4676982131532</v>
+        <v>57.092634905181</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>0.95377389233421</v>
+        <v>0.954430403354196</v>
       </c>
       <c r="K17" t="n">
-        <v>1.02112891967763</v>
+        <v>1.02229031962841</v>
       </c>
     </row>
     <row r="18">
@@ -4545,22 +4539,22 @@
         <v>0</v>
       </c>
       <c r="F18" t="n">
-        <v>0.804463129135106</v>
+        <v>0.80372740862619</v>
       </c>
       <c r="G18" t="n">
-        <v>0.0268122555819077</v>
+        <v>0.0269499961937951</v>
       </c>
       <c r="H18" t="n">
-        <v>30.0035603747542</v>
+        <v>29.8229136229429</v>
       </c>
       <c r="I18" t="n">
         <v>0</v>
       </c>
       <c r="J18" t="n">
-        <v>0.751912073850284</v>
+        <v>0.750906386702861</v>
       </c>
       <c r="K18" t="n">
-        <v>0.857014184419928</v>
+        <v>0.85654843054952</v>
       </c>
     </row>
     <row r="19">
@@ -4580,22 +4574,22 @@
         <v>53</v>
       </c>
       <c r="F19" t="n">
-        <v>0.155632627282637</v>
+        <v>0.16029398598975</v>
       </c>
       <c r="G19" t="n">
-        <v>0.0766179193024345</v>
+        <v>0.0752120123659988</v>
       </c>
       <c r="H19" t="n">
-        <v>2.0312823514341</v>
+        <v>2.13122852250945</v>
       </c>
       <c r="I19" t="n">
-        <v>0.042226360627436</v>
+        <v>0.0330703203153355</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0054642648794691</v>
+        <v>0.0128811505476109</v>
       </c>
       <c r="K19" t="n">
-        <v>0.305800989685805</v>
+        <v>0.307706821431889</v>
       </c>
     </row>
     <row r="20">
@@ -4615,22 +4609,22 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>-0.011630726213738</v>
+        <v>-0.0120581843848282</v>
       </c>
       <c r="G20" t="n">
-        <v>0.062777334044062</v>
+        <v>0.0622522051316038</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.18526951471967</v>
+        <v>-0.193698911698577</v>
       </c>
       <c r="I20" t="n">
-        <v>0.853017647804691</v>
+        <v>0.846411644044218</v>
       </c>
       <c r="J20" t="n">
-        <v>-0.13467203998554</v>
+        <v>-0.134070264400971</v>
       </c>
       <c r="K20" t="n">
-        <v>0.111410587558064</v>
+        <v>0.109953895631315</v>
       </c>
     </row>
     <row r="21">
@@ -4650,22 +4644,22 @@
         <v>0</v>
       </c>
       <c r="F21" t="n">
-        <v>0.177168442294847</v>
+        <v>0.178500075471802</v>
       </c>
       <c r="G21" t="n">
-        <v>0.0688478015328652</v>
+        <v>0.0685667367059653</v>
       </c>
       <c r="H21" t="n">
-        <v>2.573334781217</v>
+        <v>2.60330422661448</v>
       </c>
       <c r="I21" t="n">
-        <v>0.010072372493265</v>
+        <v>0.00923299826502388</v>
       </c>
       <c r="J21" t="n">
-        <v>0.0422292308756698</v>
+        <v>0.0441117409906692</v>
       </c>
       <c r="K21" t="n">
-        <v>0.312107653714024</v>
+        <v>0.312888409952934</v>
       </c>
     </row>
     <row r="22">
@@ -4685,22 +4679,22 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0.131472859898253</v>
+        <v>0.127065599671055</v>
       </c>
       <c r="G22" t="n">
-        <v>0.0668474316068927</v>
+        <v>0.0660032978560353</v>
       </c>
       <c r="H22" t="n">
-        <v>1.96676007945078</v>
+        <v>1.92514016418099</v>
       </c>
       <c r="I22" t="n">
-        <v>0.0492108768792288</v>
+        <v>0.0542118254032613</v>
       </c>
       <c r="J22" t="n">
-        <v>0.000454301489738573</v>
+        <v>-0.0022984869876442</v>
       </c>
       <c r="K22" t="n">
-        <v>0.262491418306767</v>
+        <v>0.256429686329754</v>
       </c>
     </row>
     <row r="23">
@@ -4720,22 +4714,22 @@
         <v>59</v>
       </c>
       <c r="F23" t="n">
-        <v>-0.155092615291746</v>
+        <v>-0.172564698410454</v>
       </c>
       <c r="G23" t="n">
-        <v>0.0698630141589455</v>
+        <v>0.0673112826483811</v>
       </c>
       <c r="H23" t="n">
-        <v>-2.21995310621575</v>
+        <v>-2.56368162395439</v>
       </c>
       <c r="I23" t="n">
-        <v>0.0264219510018622</v>
+        <v>0.0103568498054569</v>
       </c>
       <c r="J23" t="n">
-        <v>-0.292021606894691</v>
+        <v>-0.304492388154477</v>
       </c>
       <c r="K23" t="n">
-        <v>-0.0181636236888011</v>
+        <v>-0.0406370086664317</v>
       </c>
     </row>
     <row r="24">
@@ -4755,22 +4749,22 @@
         <v>0</v>
       </c>
       <c r="F24" t="n">
-        <v>-0.0126661904213344</v>
+        <v>-0.00993826784965049</v>
       </c>
       <c r="G24" t="n">
-        <v>0.0595599993056391</v>
+        <v>0.0593383867528744</v>
       </c>
       <c r="H24" t="n">
-        <v>-0.212662702635981</v>
+        <v>-0.167484631677639</v>
       </c>
       <c r="I24" t="n">
-        <v>0.831590060259307</v>
+        <v>0.866988738877474</v>
       </c>
       <c r="J24" t="n">
-        <v>-0.129401643979618</v>
+        <v>-0.126239368785993</v>
       </c>
       <c r="K24" t="n">
-        <v>0.104069263136949</v>
+        <v>0.106362833086692</v>
       </c>
     </row>
     <row r="25">
@@ -4790,22 +4784,22 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0.288843939711934</v>
+        <v>0.28734720932803</v>
       </c>
       <c r="G25" t="n">
-        <v>0.0590980494396798</v>
+        <v>0.0588825610321398</v>
       </c>
       <c r="H25" t="n">
-        <v>4.8875376167322</v>
+        <v>4.88000529004144</v>
       </c>
       <c r="I25" t="n">
-        <v>0.00000102104990573615</v>
+        <v>0.00000106082995077195</v>
       </c>
       <c r="J25" t="n">
-        <v>0.173013891253594</v>
+        <v>0.171939510387554</v>
       </c>
       <c r="K25" t="n">
-        <v>0.404673988170274</v>
+        <v>0.402754908268505</v>
       </c>
     </row>
     <row r="26">
@@ -4825,22 +4819,22 @@
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>0.215568891508607</v>
+        <v>0.218141818795075</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0624439109266971</v>
+        <v>0.0609701754209687</v>
       </c>
       <c r="H26" t="n">
-        <v>3.45220035563857</v>
+        <v>3.57784469683603</v>
       </c>
       <c r="I26" t="n">
-        <v>0.000556034680117223</v>
+        <v>0.000346439184587988</v>
       </c>
       <c r="J26" t="n">
-        <v>0.0931810750384535</v>
+        <v>0.0986424708388874</v>
       </c>
       <c r="K26" t="n">
-        <v>0.33795670797876</v>
+        <v>0.337641166751263</v>
       </c>
     </row>
     <row r="27">
@@ -4860,22 +4854,22 @@
         <v>64</v>
       </c>
       <c r="F27" t="n">
-        <v>0.20572704984259</v>
+        <v>0.200967411647262</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0541665413102017</v>
+        <v>0.0531083456194727</v>
       </c>
       <c r="H27" t="n">
-        <v>3.79804663296536</v>
+        <v>3.78410227814694</v>
       </c>
       <c r="I27" t="n">
-        <v>0.000145840889683058</v>
+        <v>0.000154264379864655</v>
       </c>
       <c r="J27" t="n">
-        <v>0.0995625797074942</v>
+        <v>0.09687696695459</v>
       </c>
       <c r="K27" t="n">
-        <v>0.311891519977687</v>
+        <v>0.305057856339934</v>
       </c>
     </row>
     <row r="28">
@@ -4895,22 +4889,22 @@
         <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>-0.00311341811333895</v>
+        <v>-0.00999597414549422</v>
       </c>
       <c r="G28" t="n">
-        <v>0.0623266774189524</v>
+        <v>0.0606790991618363</v>
       </c>
       <c r="H28" t="n">
-        <v>-0.0499532181446306</v>
+        <v>-0.164735045239121</v>
       </c>
       <c r="I28" t="n">
-        <v>0.960159668257966</v>
+        <v>0.869152531695674</v>
       </c>
       <c r="J28" t="n">
-        <v>-0.125271461130531</v>
+        <v>-0.128924823117028</v>
       </c>
       <c r="K28" t="n">
-        <v>0.119044624903854</v>
+        <v>0.108932874826039</v>
       </c>
     </row>
     <row r="29">
@@ -4930,22 +4924,22 @@
         <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>-0.221173183869639</v>
+        <v>-0.185807314728124</v>
       </c>
       <c r="G29" t="n">
-        <v>0.0594574782435255</v>
+        <v>0.0580640320825028</v>
       </c>
       <c r="H29" t="n">
-        <v>-3.71985476685977</v>
+        <v>-3.20004154145051</v>
       </c>
       <c r="I29" t="n">
-        <v>0.000199337369538144</v>
+        <v>0.00137407781203258</v>
       </c>
       <c r="J29" t="n">
-        <v>-0.337707699838523</v>
+        <v>-0.299610726407008</v>
       </c>
       <c r="K29" t="n">
-        <v>-0.104638667900756</v>
+        <v>-0.0720039030492405</v>
       </c>
     </row>
     <row r="30">
@@ -4965,22 +4959,22 @@
         <v>0</v>
       </c>
       <c r="F30" t="n">
-        <v>0.531658990343335</v>
+        <v>0.538437488316381</v>
       </c>
       <c r="G30" t="n">
-        <v>0.0766346333816268</v>
+        <v>0.0758225544095119</v>
       </c>
       <c r="H30" t="n">
-        <v>6.93758118076676</v>
+        <v>7.10128394525355</v>
       </c>
       <c r="I30" t="n">
-        <v>0.00000000000398880928287326</v>
+        <v>0.00000000000123612231561765</v>
       </c>
       <c r="J30" t="n">
-        <v>0.381457868946915</v>
+        <v>0.389828012457909</v>
       </c>
       <c r="K30" t="n">
-        <v>0.681860111739754</v>
+        <v>0.687046964174852</v>
       </c>
     </row>
     <row r="31">
@@ -5000,22 +4994,22 @@
         <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>0.340532243246571</v>
+        <v>0.284493818753379</v>
       </c>
       <c r="G31" t="n">
-        <v>0.0635772561176729</v>
+        <v>0.0506353266513708</v>
       </c>
       <c r="H31" t="n">
-        <v>5.3561959738604</v>
+        <v>5.61848491098215</v>
       </c>
       <c r="I31" t="n">
-        <v>0.0000000849923225132443</v>
+        <v>0.0000000192639215690349</v>
       </c>
       <c r="J31" t="n">
-        <v>0.215923111020053</v>
+        <v>0.185250402171271</v>
       </c>
       <c r="K31" t="n">
-        <v>0.465141375473089</v>
+        <v>0.383737235335487</v>
       </c>
     </row>
     <row r="32">
@@ -5035,22 +5029,22 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
-        <v>0.182230937852259</v>
+        <v>0.105455648092526</v>
       </c>
       <c r="G32" t="n">
-        <v>0.0572156490804519</v>
+        <v>0.0422665910592267</v>
       </c>
       <c r="H32" t="n">
-        <v>3.1849841919301</v>
+        <v>2.49501191011016</v>
       </c>
       <c r="I32" t="n">
-        <v>0.00144761915743441</v>
+        <v>0.0125952902487372</v>
       </c>
       <c r="J32" t="n">
-        <v>0.070090326302491</v>
+        <v>0.0226146518671595</v>
       </c>
       <c r="K32" t="n">
-        <v>0.294371549402027</v>
+        <v>0.188296644317894</v>
       </c>
     </row>
     <row r="33">
@@ -5070,22 +5064,22 @@
         <v>0</v>
       </c>
       <c r="F33" t="n">
-        <v>0.223954306541563</v>
+        <v>0.203014881034838</v>
       </c>
       <c r="G33" t="n">
-        <v>0.0490728691875384</v>
+        <v>0.049175515642405</v>
       </c>
       <c r="H33" t="n">
-        <v>4.56370923994056</v>
+        <v>4.12837320326489</v>
       </c>
       <c r="I33" t="n">
-        <v>0.00000502576714622727</v>
+        <v>0.000036533880903189</v>
       </c>
       <c r="J33" t="n">
-        <v>0.127773250315943</v>
+        <v>0.106632641454538</v>
       </c>
       <c r="K33" t="n">
-        <v>0.320135362767184</v>
+        <v>0.299397120615138</v>
       </c>
     </row>
     <row r="34">
@@ -5105,22 +5099,22 @@
         <v>0</v>
       </c>
       <c r="F34" t="n">
-        <v>0.346973093420785</v>
+        <v>0.342632039161936</v>
       </c>
       <c r="G34" t="n">
-        <v>0.0520373828287772</v>
+        <v>0.0517647251514431</v>
       </c>
       <c r="H34" t="n">
-        <v>6.6677660281736</v>
+        <v>6.61902556537352</v>
       </c>
       <c r="I34" t="n">
-        <v>0.0000000000259725574380809</v>
+        <v>0.0000000000361575214213872</v>
       </c>
       <c r="J34" t="n">
-        <v>0.244981697226659</v>
+        <v>0.241175042195493</v>
       </c>
       <c r="K34" t="n">
-        <v>0.448964489614911</v>
+        <v>0.444089036128379</v>
       </c>
     </row>
     <row r="35">
@@ -5140,22 +5134,22 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0.373680880207789</v>
+        <v>0.375450607205008</v>
       </c>
       <c r="G35" t="n">
-        <v>0.053349282870753</v>
+        <v>0.0532807125417671</v>
       </c>
       <c r="H35" t="n">
-        <v>7.00442180475207</v>
+        <v>7.04665139210909</v>
       </c>
       <c r="I35" t="n">
-        <v>0.00000000000248001619240767</v>
+        <v>0.00000000000183275616905121</v>
       </c>
       <c r="J35" t="n">
-        <v>0.269118207180073</v>
+        <v>0.271022329552513</v>
       </c>
       <c r="K35" t="n">
-        <v>0.478243553235504</v>
+        <v>0.479878884857503</v>
       </c>
     </row>
     <row r="36">
@@ -5175,22 +5169,22 @@
         <v>0</v>
       </c>
       <c r="F36" t="n">
-        <v>0.544998972493683</v>
+        <v>0.54404091323359</v>
       </c>
       <c r="G36" t="n">
-        <v>0.0594368556869919</v>
+        <v>0.0594857835602486</v>
       </c>
       <c r="H36" t="n">
-        <v>9.16937758894535</v>
+        <v>9.14572996559039</v>
       </c>
       <c r="I36" t="n">
         <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>0.428504875992874</v>
+        <v>0.427450919863358</v>
       </c>
       <c r="K36" t="n">
-        <v>0.661493068994491</v>
+        <v>0.660630906603822</v>
       </c>
     </row>
     <row r="37">
@@ -5210,22 +5204,22 @@
         <v>0</v>
       </c>
       <c r="F37" t="n">
-        <v>0.466147963807496</v>
+        <v>0.470104536302799</v>
       </c>
       <c r="G37" t="n">
-        <v>0.0554073592786825</v>
+        <v>0.0560067623173495</v>
       </c>
       <c r="H37" t="n">
-        <v>8.41310558517888</v>
+        <v>8.39371027446755</v>
       </c>
       <c r="I37" t="n">
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>0.357551535142808</v>
+        <v>0.360333299270099</v>
       </c>
       <c r="K37" t="n">
-        <v>0.574744392472185</v>
+        <v>0.579875773335499</v>
       </c>
     </row>
     <row r="38">
@@ -5245,22 +5239,22 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0.596297793423471</v>
+        <v>0.595333942393605</v>
       </c>
       <c r="G38" t="n">
-        <v>0.0677628844027807</v>
+        <v>0.0677697026428433</v>
       </c>
       <c r="H38" t="n">
-        <v>8.79976994307228</v>
+        <v>8.78466215989033</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0.46348498050547</v>
+        <v>0.462507765970643</v>
       </c>
       <c r="K38" t="n">
-        <v>0.729110606341472</v>
+        <v>0.728160118816567</v>
       </c>
     </row>
     <row r="39">
@@ -5280,22 +5274,22 @@
         <v>0</v>
       </c>
       <c r="F39" t="n">
-        <v>0.484821675462887</v>
+        <v>0.48719205815613</v>
       </c>
       <c r="G39" t="n">
-        <v>0.0718353997658066</v>
+        <v>0.0713284260513805</v>
       </c>
       <c r="H39" t="n">
-        <v>6.74906351246701</v>
+        <v>6.83026508681388</v>
       </c>
       <c r="I39" t="n">
-        <v>0.000000000014880319199051</v>
+        <v>0.0000000000084758866591983</v>
       </c>
       <c r="J39" t="n">
-        <v>0.344026879106869</v>
+        <v>0.347390912021496</v>
       </c>
       <c r="K39" t="n">
-        <v>0.625616471818905</v>
+        <v>0.626993204290764</v>
       </c>
     </row>
     <row r="40">
@@ -5315,22 +5309,22 @@
         <v>0</v>
       </c>
       <c r="F40" t="n">
-        <v>0.412352918959254</v>
+        <v>0.412282113588875</v>
       </c>
       <c r="G40" t="n">
-        <v>0.057765523105739</v>
+        <v>0.0579989913426298</v>
       </c>
       <c r="H40" t="n">
-        <v>7.1383914970258</v>
+        <v>7.10843592353724</v>
       </c>
       <c r="I40" t="n">
-        <v>0.000000000000944355704746158</v>
+        <v>0.00000000000117372778163372</v>
       </c>
       <c r="J40" t="n">
-        <v>0.29913457412389</v>
+        <v>0.29860617941767</v>
       </c>
       <c r="K40" t="n">
-        <v>0.525571263794619</v>
+        <v>0.52595804776008</v>
       </c>
     </row>
     <row r="41">
@@ -5350,22 +5344,22 @@
         <v>0</v>
       </c>
       <c r="F41" t="n">
-        <v>0.659529909808502</v>
+        <v>0.658292684585064</v>
       </c>
       <c r="G41" t="n">
-        <v>0.064807533414783</v>
+        <v>0.0648527937716988</v>
       </c>
       <c r="H41" t="n">
-        <v>10.1767475948723</v>
+        <v>10.1505678676304</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0.532509478388651</v>
+        <v>0.531183544495731</v>
       </c>
       <c r="K41" t="n">
-        <v>0.786550341228353</v>
+        <v>0.785401824674397</v>
       </c>
     </row>
     <row r="42">
@@ -5385,22 +5379,22 @@
         <v>0</v>
       </c>
       <c r="F42" t="n">
-        <v>0.276634764861121</v>
+        <v>0.276632523653249</v>
       </c>
       <c r="G42" t="n">
-        <v>0.0383516843254571</v>
+        <v>0.0383472294760703</v>
       </c>
       <c r="H42" t="n">
-        <v>7.21310601416</v>
+        <v>7.21388552531219</v>
       </c>
       <c r="I42" t="n">
-        <v>0.000000000000546895861930352</v>
+        <v>0.000000000000543787237461402</v>
       </c>
       <c r="J42" t="n">
-        <v>0.201466844836776</v>
+        <v>0.201473334973258</v>
       </c>
       <c r="K42" t="n">
-        <v>0.351802684885466</v>
+        <v>0.351791712333239</v>
       </c>
     </row>
     <row r="43">
@@ -5420,22 +5414,22 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>0.108218849042403</v>
+        <v>0.108176369258885</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0261628043401611</v>
+        <v>0.026190080291014</v>
       </c>
       <c r="H43" t="n">
-        <v>4.13636273984138</v>
+        <v>4.13043289890186</v>
       </c>
       <c r="I43" t="n">
-        <v>0.0000352854257421598</v>
+        <v>0.00003620807706195</v>
       </c>
       <c r="J43" t="n">
-        <v>0.0569406948011186</v>
+        <v>0.0568447551362857</v>
       </c>
       <c r="K43" t="n">
-        <v>0.159497003283686</v>
+        <v>0.159507983381485</v>
       </c>
     </row>
     <row r="44">
@@ -5455,22 +5449,22 @@
         <v>0</v>
       </c>
       <c r="F44" t="n">
-        <v>0.152104700511448</v>
+        <v>0.152151916634453</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0284494732785045</v>
+        <v>0.0284701381262978</v>
       </c>
       <c r="H44" t="n">
-        <v>5.34648564570697</v>
+        <v>5.34426338079163</v>
       </c>
       <c r="I44" t="n">
-        <v>0.0000000896783893811204</v>
+        <v>0.0000000907854822429499</v>
       </c>
       <c r="J44" t="n">
-        <v>0.0963447575064447</v>
+        <v>0.0963514712720285</v>
       </c>
       <c r="K44" t="n">
-        <v>0.207864643516452</v>
+        <v>0.207952361996877</v>
       </c>
     </row>
     <row r="45">
@@ -5490,22 +5484,22 @@
         <v>0</v>
       </c>
       <c r="F45" t="n">
-        <v>0.376483012571813</v>
+        <v>0.377584846018041</v>
       </c>
       <c r="G45" t="n">
-        <v>0.0508722570596612</v>
+        <v>0.0508987771940725</v>
       </c>
       <c r="H45" t="n">
-        <v>7.40055649841302</v>
+        <v>7.41834807893996</v>
       </c>
       <c r="I45" t="n">
-        <v>0.000000000000135669253609194</v>
+        <v>0.000000000000118571819029967</v>
       </c>
       <c r="J45" t="n">
-        <v>0.276775220922614</v>
+        <v>0.27782507586053</v>
       </c>
       <c r="K45" t="n">
-        <v>0.476190804221013</v>
+        <v>0.477344616175552</v>
       </c>
     </row>
     <row r="46">
@@ -5525,22 +5519,22 @@
         <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>0.0249397207769357</v>
+        <v>0.02314379583278</v>
       </c>
       <c r="G46" t="n">
-        <v>0.0339342026111882</v>
+        <v>0.0342200426741196</v>
       </c>
       <c r="H46" t="n">
-        <v>0.73494347466155</v>
+        <v>0.676322822071859</v>
       </c>
       <c r="I46" t="n">
-        <v>0.462373919909021</v>
+        <v>0.498835705963916</v>
       </c>
       <c r="J46" t="n">
-        <v>-0.0415700941850782</v>
+        <v>-0.0439262553579181</v>
       </c>
       <c r="K46" t="n">
-        <v>0.0914495357389497</v>
+        <v>0.090213847023478</v>
       </c>
     </row>
     <row r="47">
@@ -5560,22 +5554,22 @@
         <v>0</v>
       </c>
       <c r="F47" t="n">
-        <v>0.352839073862154</v>
+        <v>0.354022252623029</v>
       </c>
       <c r="G47" t="n">
-        <v>0.0431389419636725</v>
+        <v>0.0433209012153341</v>
       </c>
       <c r="H47" t="n">
-        <v>8.1791313787733</v>
+        <v>8.17208882297482</v>
       </c>
       <c r="I47" t="n">
         <v>0.000000000000000222044604925031</v>
       </c>
       <c r="J47" t="n">
-        <v>0.268288301282192</v>
+        <v>0.269114846463156</v>
       </c>
       <c r="K47" t="n">
-        <v>0.437389846442116</v>
+        <v>0.438929658782901</v>
       </c>
     </row>
     <row r="48">
@@ -5595,22 +5589,22 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
-        <v>0.908967018321511</v>
+        <v>0.925574912211905</v>
       </c>
       <c r="G48" t="n">
-        <v>0.0308528916598503</v>
+        <v>0.0281653460184222</v>
       </c>
       <c r="H48" t="n">
-        <v>29.4613233774899</v>
+        <v>32.8621885776411</v>
       </c>
       <c r="I48" t="n">
         <v>0</v>
       </c>
       <c r="J48" t="n">
-        <v>0.848496461849289</v>
+        <v>0.870371848403689</v>
       </c>
       <c r="K48" t="n">
-        <v>0.969437574793734</v>
+        <v>0.980777976020121</v>
       </c>
     </row>
     <row r="49">
@@ -5630,22 +5624,22 @@
         <v>0</v>
       </c>
       <c r="F49" t="n">
-        <v>0.852881066444503</v>
+        <v>0.847143685769008</v>
       </c>
       <c r="G49" t="n">
-        <v>0.0449972265897828</v>
+        <v>0.04584777037286</v>
       </c>
       <c r="H49" t="n">
-        <v>18.954080753016</v>
+        <v>18.4773147937088</v>
       </c>
       <c r="I49" t="n">
         <v>0</v>
       </c>
       <c r="J49" t="n">
-        <v>0.76468812292434</v>
+        <v>0.75728370706674</v>
       </c>
       <c r="K49" t="n">
-        <v>0.941074009964665</v>
+        <v>0.937003664471276</v>
       </c>
     </row>
     <row r="50">
@@ -5665,22 +5659,22 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
-        <v>0.942357954925018</v>
+        <v>0.94049495410193</v>
       </c>
       <c r="G50" t="n">
-        <v>0.0306650835099781</v>
+        <v>0.031598295884347</v>
       </c>
       <c r="H50" t="n">
-        <v>30.730650207373</v>
+        <v>29.7641036574959</v>
       </c>
       <c r="I50" t="n">
         <v>0</v>
       </c>
       <c r="J50" t="n">
-        <v>0.882255495662548</v>
+        <v>0.87856343219577</v>
       </c>
       <c r="K50" t="n">
-        <v>1.00246041418749</v>
+        <v>1.00242647600809</v>
       </c>
     </row>
     <row r="51">
@@ -5762,22 +5756,22 @@
         <v>0</v>
       </c>
       <c r="F53" t="n">
-        <v>-0.158224324109637</v>
+        <v>-0.158047306110332</v>
       </c>
       <c r="G53" t="n">
-        <v>0.0613526929863513</v>
+        <v>0.0613149117406508</v>
       </c>
       <c r="H53" t="n">
-        <v>-2.57893038443864</v>
+        <v>-2.57763244900097</v>
       </c>
       <c r="I53" t="n">
-        <v>0.00991067570760995</v>
+        <v>0.00994797489975285</v>
       </c>
       <c r="J53" t="n">
-        <v>-0.278473392717429</v>
+        <v>-0.278222324837259</v>
       </c>
       <c r="K53" t="n">
-        <v>-0.0379752555018453</v>
+        <v>-0.0378722873834041</v>
       </c>
     </row>
     <row r="54">
@@ -5828,22 +5822,22 @@
         <v>0</v>
       </c>
       <c r="F55" t="n">
-        <v>2.74636019365883</v>
+        <v>2.58259068525554</v>
       </c>
       <c r="G55" t="n">
-        <v>0.15155248709917</v>
+        <v>0.138159605480406</v>
       </c>
       <c r="H55" t="n">
-        <v>18.1215118684375</v>
+        <v>18.6928058767641</v>
       </c>
       <c r="I55" t="n">
         <v>0</v>
       </c>
       <c r="J55" t="n">
-        <v>2.44932277717699</v>
+        <v>2.31180283439568</v>
       </c>
       <c r="K55" t="n">
-        <v>3.04339761014068</v>
+        <v>2.85337853611539</v>
       </c>
     </row>
     <row r="56">
@@ -5863,22 +5857,22 @@
         <v>0</v>
       </c>
       <c r="F56" t="n">
-        <v>2.56777650908769</v>
+        <v>2.61612348373571</v>
       </c>
       <c r="G56" t="n">
-        <v>0.141429711463177</v>
+        <v>0.148086634288912</v>
       </c>
       <c r="H56" t="n">
-        <v>18.1558491672116</v>
+        <v>17.6661688362215</v>
       </c>
       <c r="I56" t="n">
         <v>0</v>
       </c>
       <c r="J56" t="n">
-        <v>2.29057936827597</v>
+        <v>2.32587901393768</v>
       </c>
       <c r="K56" t="n">
-        <v>2.84497364989941</v>
+        <v>2.90636795353373</v>
       </c>
     </row>
     <row r="57">
@@ -5898,22 +5892,22 @@
         <v>0</v>
       </c>
       <c r="F57" t="n">
-        <v>2.62515408914937</v>
+        <v>2.93371460754175</v>
       </c>
       <c r="G57" t="n">
-        <v>0.147694906517913</v>
+        <v>0.171619296218479</v>
       </c>
       <c r="H57" t="n">
-        <v>17.7741680538657</v>
+        <v>17.0943167358465</v>
       </c>
       <c r="I57" t="n">
         <v>0</v>
       </c>
       <c r="J57" t="n">
-        <v>2.33567739167425</v>
+        <v>2.59734696790142</v>
       </c>
       <c r="K57" t="n">
-        <v>2.91463078662449</v>
+        <v>3.27008224718207</v>
       </c>
     </row>
     <row r="58">
@@ -5933,22 +5927,22 @@
         <v>0</v>
       </c>
       <c r="F58" t="n">
-        <v>2.37692383482425</v>
+        <v>2.37708694285646</v>
       </c>
       <c r="G58" t="n">
-        <v>0.103873899648592</v>
+        <v>0.103913014894763</v>
       </c>
       <c r="H58" t="n">
-        <v>22.8827823241973</v>
+        <v>22.875738378526</v>
       </c>
       <c r="I58" t="n">
         <v>0</v>
       </c>
       <c r="J58" t="n">
-        <v>2.17333473257928</v>
+        <v>2.17342117613776</v>
       </c>
       <c r="K58" t="n">
-        <v>2.58051293706922</v>
+        <v>2.58075270957517</v>
       </c>
     </row>
     <row r="59">
@@ -5968,22 +5962,22 @@
         <v>0</v>
       </c>
       <c r="F59" t="n">
-        <v>2.7861417576928</v>
+        <v>2.78612332492292</v>
       </c>
       <c r="G59" t="n">
-        <v>0.127648113066088</v>
+        <v>0.127576191687815</v>
       </c>
       <c r="H59" t="n">
-        <v>21.826736727791</v>
+        <v>21.8388971175804</v>
       </c>
       <c r="I59" t="n">
         <v>0</v>
       </c>
       <c r="J59" t="n">
-        <v>2.53595605338877</v>
+        <v>2.53607858393003</v>
       </c>
       <c r="K59" t="n">
-        <v>3.03632746199683</v>
+        <v>3.03616806591582</v>
       </c>
     </row>
     <row r="60">
@@ -6003,22 +5997,22 @@
         <v>0</v>
       </c>
       <c r="F60" t="n">
-        <v>2.6029466388842</v>
+        <v>2.60300731169087</v>
       </c>
       <c r="G60" t="n">
-        <v>0.123072777091654</v>
+        <v>0.123040177610763</v>
       </c>
       <c r="H60" t="n">
-        <v>21.1496538909312</v>
+        <v>21.1557506030711</v>
       </c>
       <c r="I60" t="n">
         <v>0</v>
       </c>
       <c r="J60" t="n">
-        <v>2.36172842830724</v>
+        <v>2.36185299492237</v>
       </c>
       <c r="K60" t="n">
-        <v>2.84416484946117</v>
+        <v>2.84416162845938</v>
       </c>
     </row>
     <row r="61">
@@ -6038,22 +6032,22 @@
         <v>0</v>
       </c>
       <c r="F61" t="n">
-        <v>2.62086121048104</v>
+        <v>2.62076573196712</v>
       </c>
       <c r="G61" t="n">
-        <v>0.114128232091003</v>
+        <v>0.114030650944568</v>
       </c>
       <c r="H61" t="n">
-        <v>22.9641795238818</v>
+        <v>22.9829936973798</v>
       </c>
       <c r="I61" t="n">
         <v>0</v>
       </c>
       <c r="J61" t="n">
-        <v>2.39717398596345</v>
+        <v>2.39726976298211</v>
       </c>
       <c r="K61" t="n">
-        <v>2.84454843499863</v>
+        <v>2.84426170095213</v>
       </c>
     </row>
     <row r="62">
@@ -6073,22 +6067,22 @@
         <v>0</v>
       </c>
       <c r="F62" t="n">
-        <v>2.66326175553903</v>
+        <v>2.66339301193639</v>
       </c>
       <c r="G62" t="n">
-        <v>0.115753821760852</v>
+        <v>0.115772713499615</v>
       </c>
       <c r="H62" t="n">
-        <v>23.0079812055047</v>
+        <v>23.0053605156732</v>
       </c>
       <c r="I62" t="n">
         <v>0</v>
       </c>
       <c r="J62" t="n">
-        <v>2.43638843381489</v>
+        <v>2.43648266308467</v>
       </c>
       <c r="K62" t="n">
-        <v>2.89013507726317</v>
+        <v>2.89030336078811</v>
       </c>
     </row>
     <row r="63">
@@ -6108,22 +6102,22 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
-        <v>2.1057005218705</v>
+        <v>2.10590267519513</v>
       </c>
       <c r="G63" t="n">
-        <v>0.0982991491205176</v>
+        <v>0.0981118739904276</v>
       </c>
       <c r="H63" t="n">
-        <v>21.4213504461657</v>
+        <v>21.4642997788483</v>
       </c>
       <c r="I63" t="n">
         <v>0</v>
       </c>
       <c r="J63" t="n">
-        <v>1.91303772988336</v>
+        <v>1.91360693571816</v>
       </c>
       <c r="K63" t="n">
-        <v>2.29836331385765</v>
+        <v>2.2981984146721</v>
       </c>
     </row>
     <row r="64">
@@ -6143,22 +6137,22 @@
         <v>0</v>
       </c>
       <c r="F64" t="n">
-        <v>1.97951725188081</v>
+        <v>1.9796958443443</v>
       </c>
       <c r="G64" t="n">
-        <v>0.0921792907717828</v>
+        <v>0.0921660969720723</v>
       </c>
       <c r="H64" t="n">
-        <v>21.4746418127873</v>
+        <v>21.4796536837638</v>
       </c>
       <c r="I64" t="n">
         <v>0</v>
       </c>
       <c r="J64" t="n">
-        <v>1.79884916184767</v>
+        <v>1.79905361368341</v>
       </c>
       <c r="K64" t="n">
-        <v>2.16018534191395</v>
+        <v>2.16033807500519</v>
       </c>
     </row>
     <row r="65">
@@ -6178,22 +6172,22 @@
         <v>0</v>
       </c>
       <c r="F65" t="n">
-        <v>2.42236448780699</v>
+        <v>2.42248082193119</v>
       </c>
       <c r="G65" t="n">
-        <v>0.108556031347659</v>
+        <v>0.108597010295602</v>
       </c>
       <c r="H65" t="n">
-        <v>22.3144164145904</v>
+        <v>22.3070673431724</v>
       </c>
       <c r="I65" t="n">
         <v>0</v>
       </c>
       <c r="J65" t="n">
-        <v>2.20959857606098</v>
+        <v>2.20963459292308</v>
       </c>
       <c r="K65" t="n">
-        <v>2.635130399553</v>
+        <v>2.63532705093929</v>
       </c>
     </row>
     <row r="66">
@@ -6213,22 +6207,22 @@
         <v>0</v>
       </c>
       <c r="F66" t="n">
-        <v>3.3672697103933</v>
+        <v>3.36727295551956</v>
       </c>
       <c r="G66" t="n">
-        <v>0.149174353968951</v>
+        <v>0.149174784894386</v>
       </c>
       <c r="H66" t="n">
-        <v>22.5727118690533</v>
+        <v>22.5726684164724</v>
       </c>
       <c r="I66" t="n">
         <v>0</v>
       </c>
       <c r="J66" t="n">
-        <v>3.07489334919712</v>
+        <v>3.07489574972505</v>
       </c>
       <c r="K66" t="n">
-        <v>3.65964607158947</v>
+        <v>3.65965016131406</v>
       </c>
     </row>
     <row r="67">
@@ -6248,22 +6242,22 @@
         <v>0</v>
       </c>
       <c r="F67" t="n">
-        <v>3.35725030513083</v>
+        <v>3.35725271695534</v>
       </c>
       <c r="G67" t="n">
-        <v>0.149605354748079</v>
+        <v>0.149609488395648</v>
       </c>
       <c r="H67" t="n">
-        <v>22.4407094972243</v>
+        <v>22.4401055906091</v>
       </c>
       <c r="I67" t="n">
         <v>0</v>
       </c>
       <c r="J67" t="n">
-        <v>3.06402919793025</v>
+        <v>3.06402350795441</v>
       </c>
       <c r="K67" t="n">
-        <v>3.6504714123314</v>
+        <v>3.65048192595628</v>
       </c>
     </row>
     <row r="68">
@@ -6283,22 +6277,22 @@
         <v>0</v>
       </c>
       <c r="F68" t="n">
-        <v>3.34635726213104</v>
+        <v>3.34635940960274</v>
       </c>
       <c r="G68" t="n">
-        <v>0.152582277778033</v>
+        <v>0.152579944066358</v>
       </c>
       <c r="H68" t="n">
-        <v>21.931493688927</v>
+        <v>21.9318432057321</v>
       </c>
       <c r="I68" t="n">
         <v>0</v>
       </c>
       <c r="J68" t="n">
-        <v>3.04730149300701</v>
+        <v>3.04730821446954</v>
       </c>
       <c r="K68" t="n">
-        <v>3.64541303125507</v>
+        <v>3.64541060473593</v>
       </c>
     </row>
     <row r="69">
@@ -6318,22 +6312,22 @@
         <v>0</v>
       </c>
       <c r="F69" t="n">
-        <v>2.78252235936</v>
+        <v>2.78251847146948</v>
       </c>
       <c r="G69" t="n">
-        <v>0.111818307305591</v>
+        <v>0.111817898168799</v>
       </c>
       <c r="H69" t="n">
-        <v>24.8843183769146</v>
+        <v>24.8843746577049</v>
       </c>
       <c r="I69" t="n">
         <v>0</v>
       </c>
       <c r="J69" t="n">
-        <v>2.56336250422881</v>
+        <v>2.56335941823166</v>
       </c>
       <c r="K69" t="n">
-        <v>3.00168221449119</v>
+        <v>3.00167752470729</v>
       </c>
     </row>
     <row r="70">
@@ -6353,22 +6347,22 @@
         <v>0</v>
       </c>
       <c r="F70" t="n">
-        <v>2.50595807651736</v>
+        <v>2.50595547635677</v>
       </c>
       <c r="G70" t="n">
-        <v>0.0887560361002807</v>
+        <v>0.0887941000219187</v>
       </c>
       <c r="H70" t="n">
-        <v>28.2342270635657</v>
+        <v>28.2220944380108</v>
       </c>
       <c r="I70" t="n">
         <v>0</v>
       </c>
       <c r="J70" t="n">
-        <v>2.33199944235027</v>
+        <v>2.33192223827416</v>
       </c>
       <c r="K70" t="n">
-        <v>2.67991671068444</v>
+        <v>2.67998871443938</v>
       </c>
     </row>
     <row r="71">
@@ -6388,22 +6382,22 @@
         <v>0</v>
       </c>
       <c r="F71" t="n">
-        <v>2.2689402778181</v>
+        <v>2.26893882204684</v>
       </c>
       <c r="G71" t="n">
-        <v>0.0776591273638091</v>
+        <v>0.0776665784914699</v>
       </c>
       <c r="H71" t="n">
-        <v>29.2166594557367</v>
+        <v>29.213837742267</v>
       </c>
       <c r="I71" t="n">
         <v>0</v>
       </c>
       <c r="J71" t="n">
-        <v>2.11673118511422</v>
+        <v>2.11671512540111</v>
       </c>
       <c r="K71" t="n">
-        <v>2.42114937052197</v>
+        <v>2.42116251869258</v>
       </c>
     </row>
     <row r="72">
@@ -6609,22 +6603,22 @@
         <v>118</v>
       </c>
       <c r="F78" t="n">
-        <v>0.0320178412701084</v>
+        <v>0.0322138674669825</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0182095597443427</v>
+        <v>0.0175259129779274</v>
       </c>
       <c r="H78" t="n">
-        <v>1.75829848275468</v>
+        <v>1.8380707189151</v>
       </c>
       <c r="I78" t="n">
-        <v>0.0786967357250288</v>
+        <v>0.0660519852296391</v>
       </c>
       <c r="J78" t="n">
-        <v>-0.0036722400031337</v>
+        <v>-0.0021362907659383</v>
       </c>
       <c r="K78" t="n">
-        <v>0.0677079225433504</v>
+        <v>0.0665640256999033</v>
       </c>
     </row>
     <row r="79">
@@ -6644,22 +6638,22 @@
         <v>122</v>
       </c>
       <c r="F79" t="n">
-        <v>-0.0319067461963428</v>
+        <v>-0.0346798807812394</v>
       </c>
       <c r="G79" t="n">
-        <v>0.0168811808915564</v>
+        <v>0.0168697109519265</v>
       </c>
       <c r="H79" t="n">
-        <v>-1.89007785659721</v>
+        <v>-2.05574836937435</v>
       </c>
       <c r="I79" t="n">
-        <v>0.0587475481357635</v>
+        <v>0.0398067769943709</v>
       </c>
       <c r="J79" t="n">
-        <v>-0.0649932527602991</v>
+        <v>-0.0677439066766162</v>
       </c>
       <c r="K79" t="n">
-        <v>0.00117976036761355</v>
+        <v>-0.00161585488586266</v>
       </c>
     </row>
   </sheetData>
@@ -6743,58 +6737,58 @@
         <v>14</v>
       </c>
       <c r="B2" t="n">
-        <v>3.1257632925018</v>
+        <v>3.4696246333084</v>
       </c>
       <c r="C2" t="n">
-        <v>2.41733573288286</v>
+        <v>2.76991229149891</v>
       </c>
       <c r="D2" t="n">
-        <v>2.3507509415779</v>
+        <v>2.46635726473668</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.402494849352791</v>
+        <v>-0.472831414186004</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.370654304099088</v>
+        <v>-0.433374983152822</v>
       </c>
       <c r="G2" t="n">
-        <v>-0.338648225953194</v>
+        <v>-0.396930394198271</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.360638963404414</v>
+        <v>-0.420694771438113</v>
       </c>
       <c r="I2" t="n">
-        <v>0.200131677413177</v>
+        <v>0.23351088842704</v>
       </c>
       <c r="J2" t="n">
-        <v>0.260701180978075</v>
+        <v>0.3031198651999</v>
       </c>
       <c r="K2" t="n">
-        <v>0.273436438057793</v>
+        <v>0.318680452049792</v>
       </c>
       <c r="L2" t="n">
-        <v>0.193463814105837</v>
+        <v>0.225870916774051</v>
       </c>
       <c r="M2" t="n">
-        <v>0.0567472734809149</v>
+        <v>0.0378370045481624</v>
       </c>
       <c r="N2" t="n">
-        <v>0.0635007318219959</v>
+        <v>0.0423409147519845</v>
       </c>
       <c r="O2" t="n">
-        <v>0.0632380348689961</v>
+        <v>0.0421635776592584</v>
       </c>
       <c r="P2" t="n">
-        <v>-0.283041019519296</v>
+        <v>-0.259077250470136</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.355336066135546</v>
+        <v>-0.325838709491541</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.296130449703018</v>
+        <v>-0.271049948401318</v>
       </c>
       <c r="S2" t="n">
-        <v>0.147684946236357</v>
+        <v>0.158322844735806</v>
       </c>
       <c r="T2" t="s">
         <v>144</v>
@@ -6805,58 +6799,58 @@
         <v>16</v>
       </c>
       <c r="B3" t="n">
-        <v>2.41733573288286</v>
+        <v>2.76991229149891</v>
       </c>
       <c r="C3" t="n">
-        <v>3.46651923283385</v>
+        <v>3.45489039805856</v>
       </c>
       <c r="D3" t="n">
-        <v>2.75672812645353</v>
+        <v>2.75185864457321</v>
       </c>
       <c r="E3" t="n">
-        <v>-0.472006137416981</v>
+        <v>-0.527565585552931</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.434666696172907</v>
+        <v>-0.483541744248553</v>
       </c>
       <c r="G3" t="n">
-        <v>-0.39713313433031</v>
+        <v>-0.442878390809688</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.4229216955007</v>
+        <v>-0.469393692495854</v>
       </c>
       <c r="I3" t="n">
-        <v>0.234694630707626</v>
+        <v>0.260541717174347</v>
       </c>
       <c r="J3" t="n">
-        <v>0.305724551882773</v>
+        <v>0.338208512334594</v>
       </c>
       <c r="K3" t="n">
-        <v>0.32065920138916</v>
+        <v>0.355570366616513</v>
       </c>
       <c r="L3" t="n">
-        <v>0.22687522032366</v>
+        <v>0.252017355218288</v>
       </c>
       <c r="M3" t="n">
-        <v>0.0665475878952038</v>
+        <v>0.0422169527259196</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0744673756661677</v>
+        <v>0.0472422280199645</v>
       </c>
       <c r="O3" t="n">
-        <v>0.0741593106703148</v>
+        <v>0.0470443626828541</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.331922504272266</v>
+        <v>-0.289067598401896</v>
       </c>
       <c r="Q3" t="n">
-        <v>-0.41670298224009</v>
+        <v>-0.363557251932278</v>
       </c>
       <c r="R3" t="n">
-        <v>-0.347272492953966</v>
+        <v>-0.30242623576229</v>
       </c>
       <c r="S3" t="n">
-        <v>0.173190293341014</v>
+        <v>0.176650031667722</v>
       </c>
       <c r="T3" t="s">
         <v>145</v>
@@ -6867,58 +6861,58 @@
         <v>18</v>
       </c>
       <c r="B4" t="n">
-        <v>2.3507509415779</v>
+        <v>2.46635726473668</v>
       </c>
       <c r="C4" t="n">
-        <v>2.75672812645353</v>
+        <v>2.75185864457321</v>
       </c>
       <c r="D4" t="n">
-        <v>3.45442915998011</v>
+        <v>3.07443898371267</v>
       </c>
       <c r="E4" t="n">
-        <v>-0.459004869232735</v>
+        <v>-0.469749608515372</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.422693931753719</v>
+        <v>-0.430550345363285</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.386194220670132</v>
+        <v>-0.39434329380057</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.411272443619716</v>
+        <v>-0.417952780332351</v>
       </c>
       <c r="I4" t="n">
-        <v>0.228230037149732</v>
+        <v>0.23198891852716</v>
       </c>
       <c r="J4" t="n">
-        <v>0.297303460345091</v>
+        <v>0.301144200107803</v>
       </c>
       <c r="K4" t="n">
-        <v>0.311826739388091</v>
+        <v>0.316603366655758</v>
       </c>
       <c r="L4" t="n">
-        <v>0.220626010091078</v>
+        <v>0.224398742440323</v>
       </c>
       <c r="M4" t="n">
-        <v>0.064714554447853</v>
+        <v>0.0375903917139095</v>
       </c>
       <c r="N4" t="n">
-        <v>0.0724161940283375</v>
+        <v>0.0420649464739313</v>
       </c>
       <c r="O4" t="n">
-        <v>0.072116614590853</v>
+        <v>0.0418887652233121</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.322779797954831</v>
+        <v>-0.257388644942508</v>
       </c>
       <c r="Q4" t="n">
-        <v>-0.405225022959886</v>
+        <v>-0.323714968233039</v>
       </c>
       <c r="R4" t="n">
-        <v>-0.33770697577952</v>
+        <v>-0.269283307600927</v>
       </c>
       <c r="S4" t="n">
-        <v>0.168419818399826</v>
+        <v>0.15729093309445</v>
       </c>
       <c r="T4" t="s">
         <v>146</v>
@@ -6929,58 +6923,58 @@
         <v>21</v>
       </c>
       <c r="B5" t="n">
-        <v>-0.402494849352791</v>
+        <v>-0.472831414186004</v>
       </c>
       <c r="C5" t="n">
-        <v>-0.472006137416981</v>
+        <v>-0.527565585552931</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.459004869232735</v>
+        <v>-0.469749608515372</v>
       </c>
       <c r="E5" t="n">
-        <v>3.13080088315717</v>
+        <v>3.13078114200223</v>
       </c>
       <c r="F5" t="n">
-        <v>1.88276121791266</v>
+        <v>1.88633471662959</v>
       </c>
       <c r="G5" t="n">
-        <v>1.72018438552692</v>
+        <v>1.72770374795177</v>
       </c>
       <c r="H5" t="n">
-        <v>1.83188768201795</v>
+        <v>1.83114204399848</v>
       </c>
       <c r="I5" t="n">
-        <v>0.794529916119239</v>
+        <v>0.798758413529599</v>
       </c>
       <c r="J5" t="n">
-        <v>1.03499301126159</v>
+        <v>1.03686617899202</v>
       </c>
       <c r="K5" t="n">
-        <v>1.08555243728596</v>
+        <v>1.09009345995324</v>
       </c>
       <c r="L5" t="n">
-        <v>0.768058260343637</v>
+        <v>0.772624764353496</v>
       </c>
       <c r="M5" t="n">
-        <v>0.442793100530817</v>
+        <v>0.443793040059522</v>
       </c>
       <c r="N5" t="n">
-        <v>0.495489636852667</v>
+        <v>0.496619737769302</v>
       </c>
       <c r="O5" t="n">
-        <v>0.493439839722627</v>
+        <v>0.494539737821207</v>
       </c>
       <c r="P5" t="n">
-        <v>0.260694072454688</v>
+        <v>0.261872687905</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.327281205841575</v>
+        <v>0.329354501497931</v>
       </c>
       <c r="R5" t="n">
-        <v>0.272750052420069</v>
+        <v>0.273974570965067</v>
       </c>
       <c r="S5" t="n">
-        <v>-0.0318665108430334</v>
+        <v>-0.0320045828910037</v>
       </c>
       <c r="T5" t="s">
         <v>147</v>
@@ -6991,58 +6985,58 @@
         <v>23</v>
       </c>
       <c r="B6" t="n">
-        <v>-0.370654304099088</v>
+        <v>-0.433374983152822</v>
       </c>
       <c r="C6" t="n">
-        <v>-0.434666696172907</v>
+        <v>-0.483541744248553</v>
       </c>
       <c r="D6" t="n">
-        <v>-0.422693931753719</v>
+        <v>-0.430550345363285</v>
       </c>
       <c r="E6" t="n">
-        <v>1.88276121791266</v>
+        <v>1.88633471662959</v>
       </c>
       <c r="F6" t="n">
-        <v>2.7682690334186</v>
+        <v>2.76827660412445</v>
       </c>
       <c r="G6" t="n">
-        <v>1.58410411304602</v>
+        <v>1.58353180477794</v>
       </c>
       <c r="H6" t="n">
-        <v>1.68697078995638</v>
+        <v>1.67833847045553</v>
       </c>
       <c r="I6" t="n">
-        <v>0.73167627764338</v>
+        <v>0.732104305299797</v>
       </c>
       <c r="J6" t="n">
-        <v>0.953116828584138</v>
+        <v>0.950342657807488</v>
       </c>
       <c r="K6" t="n">
-        <v>0.999676601706321</v>
+        <v>0.99912827419795</v>
       </c>
       <c r="L6" t="n">
-        <v>0.707298740475802</v>
+        <v>0.708151434505641</v>
       </c>
       <c r="M6" t="n">
-        <v>0.407764642953907</v>
+        <v>0.406759778409047</v>
       </c>
       <c r="N6" t="n">
-        <v>0.456292463943953</v>
+        <v>0.455178239076275</v>
       </c>
       <c r="O6" t="n">
-        <v>0.454404822077228</v>
+        <v>0.453271809183043</v>
       </c>
       <c r="P6" t="n">
-        <v>0.240071096968882</v>
+        <v>0.240020160048776</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.301390658268005</v>
+        <v>0.301870809036015</v>
       </c>
       <c r="R6" t="n">
-        <v>0.251173352989019</v>
+        <v>0.251112175532356</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.0293456162720674</v>
+        <v>-0.0293338918588553</v>
       </c>
       <c r="T6" t="s">
         <v>148</v>
@@ -7053,58 +7047,58 @@
         <v>25</v>
       </c>
       <c r="B7" t="n">
-        <v>-0.338648225953194</v>
+        <v>-0.396930394198271</v>
       </c>
       <c r="C7" t="n">
-        <v>-0.39713313433031</v>
+        <v>-0.442878390809688</v>
       </c>
       <c r="D7" t="n">
-        <v>-0.386194220670132</v>
+        <v>-0.39434329380057</v>
       </c>
       <c r="E7" t="n">
-        <v>1.72018438552692</v>
+        <v>1.72770374795177</v>
       </c>
       <c r="F7" t="n">
-        <v>1.58410411304602</v>
+        <v>1.58353180477794</v>
       </c>
       <c r="G7" t="n">
-        <v>3.18090794924558</v>
+        <v>3.18091037769219</v>
       </c>
       <c r="H7" t="n">
-        <v>1.54130050274787</v>
+        <v>1.53719890758235</v>
       </c>
       <c r="I7" t="n">
-        <v>0.668495875147661</v>
+        <v>0.670538129318892</v>
       </c>
       <c r="J7" t="n">
-        <v>0.870814987325401</v>
+        <v>0.870423767986484</v>
       </c>
       <c r="K7" t="n">
-        <v>0.913354314116532</v>
+        <v>0.915106767000857</v>
       </c>
       <c r="L7" t="n">
-        <v>0.64622334350939</v>
+        <v>0.648599570758506</v>
       </c>
       <c r="M7" t="n">
-        <v>0.372554079139636</v>
+        <v>0.37255339016874</v>
       </c>
       <c r="N7" t="n">
-        <v>0.416891512445846</v>
+        <v>0.416900109352433</v>
       </c>
       <c r="O7" t="n">
-        <v>0.415166868856572</v>
+        <v>0.415154000328034</v>
       </c>
       <c r="P7" t="n">
-        <v>0.219340906586141</v>
+        <v>0.21983570913713</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.275365510699802</v>
+        <v>0.276485039251477</v>
       </c>
       <c r="R7" t="n">
-        <v>0.229484480433033</v>
+        <v>0.229994943632672</v>
       </c>
       <c r="S7" t="n">
-        <v>-0.0268116160533835</v>
+        <v>-0.0268670636551233</v>
       </c>
       <c r="T7" t="s">
         <v>149</v>
@@ -7115,58 +7109,58 @@
         <v>27</v>
       </c>
       <c r="B8" t="n">
-        <v>-0.360638963404414</v>
+        <v>-0.420694771438113</v>
       </c>
       <c r="C8" t="n">
-        <v>-0.4229216955007</v>
+        <v>-0.469393692495854</v>
       </c>
       <c r="D8" t="n">
-        <v>-0.411272443619716</v>
+        <v>-0.417952780332351</v>
       </c>
       <c r="E8" t="n">
-        <v>1.83188768201795</v>
+        <v>1.83114204399848</v>
       </c>
       <c r="F8" t="n">
-        <v>1.68697078995638</v>
+        <v>1.67833847045553</v>
       </c>
       <c r="G8" t="n">
-        <v>1.54130050274787</v>
+        <v>1.53719890758235</v>
       </c>
       <c r="H8" t="n">
-        <v>3.07461157441608</v>
+        <v>3.07462833008283</v>
       </c>
       <c r="I8" t="n">
-        <v>0.711905868618667</v>
+        <v>0.710683508185678</v>
       </c>
       <c r="J8" t="n">
-        <v>0.92736293970566</v>
+        <v>0.922536377862923</v>
       </c>
       <c r="K8" t="n">
-        <v>0.97266463492256</v>
+        <v>0.969894565424977</v>
       </c>
       <c r="L8" t="n">
-        <v>0.688187029697218</v>
+        <v>0.687431479582816</v>
       </c>
       <c r="M8" t="n">
-        <v>0.396746554731913</v>
+        <v>0.394858306686495</v>
       </c>
       <c r="N8" t="n">
-        <v>0.443963119775352</v>
+        <v>0.44186008121348</v>
       </c>
       <c r="O8" t="n">
-        <v>0.442126483323095</v>
+        <v>0.440009431961967</v>
       </c>
       <c r="P8" t="n">
-        <v>0.233584206622548</v>
+        <v>0.232997358633071</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.293246870130746</v>
+        <v>0.293038306196973</v>
       </c>
       <c r="R8" t="n">
-        <v>0.244386471855335</v>
+        <v>0.243764830453213</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0285526770248777</v>
+        <v>-0.0284756052164639</v>
       </c>
       <c r="T8" t="s">
         <v>150</v>
@@ -7177,58 +7171,58 @@
         <v>30</v>
       </c>
       <c r="B9" t="n">
-        <v>0.200131677413177</v>
+        <v>0.23351088842704</v>
       </c>
       <c r="C9" t="n">
-        <v>0.234694630707626</v>
+        <v>0.260541717174347</v>
       </c>
       <c r="D9" t="n">
-        <v>0.228230037149732</v>
+        <v>0.23198891852716</v>
       </c>
       <c r="E9" t="n">
-        <v>0.794529916119239</v>
+        <v>0.798758413529599</v>
       </c>
       <c r="F9" t="n">
-        <v>0.73167627764338</v>
+        <v>0.732104305299797</v>
       </c>
       <c r="G9" t="n">
-        <v>0.668495875147661</v>
+        <v>0.670538129318892</v>
       </c>
       <c r="H9" t="n">
-        <v>0.711905868618667</v>
+        <v>0.710683508185678</v>
       </c>
       <c r="I9" t="n">
-        <v>2.85345671141303</v>
+        <v>2.85345735540457</v>
       </c>
       <c r="J9" t="n">
-        <v>1.50058145439467</v>
+        <v>1.49890955393376</v>
       </c>
       <c r="K9" t="n">
-        <v>1.57388488370434</v>
+        <v>1.57585572266717</v>
       </c>
       <c r="L9" t="n">
-        <v>1.1135669215403</v>
+        <v>1.11691813693943</v>
       </c>
       <c r="M9" t="n">
-        <v>0.2146627577765</v>
+        <v>0.21517825530147</v>
       </c>
       <c r="N9" t="n">
-        <v>0.240209641408059</v>
+        <v>0.240791898645232</v>
       </c>
       <c r="O9" t="n">
-        <v>0.239215915208872</v>
+        <v>0.239783386299482</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0662484693484982</v>
+        <v>0.0664878116520795</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.0831698194338641</v>
+        <v>0.0836210153779113</v>
       </c>
       <c r="R9" t="n">
-        <v>0.0693121762125716</v>
+        <v>0.0695604028717685</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0109406212619244</v>
+        <v>0.0108293304929774</v>
       </c>
       <c r="T9" t="s">
         <v>151</v>
@@ -7239,58 +7233,58 @@
         <v>32</v>
       </c>
       <c r="B10" t="n">
-        <v>0.260701180978075</v>
+        <v>0.3031198651999</v>
       </c>
       <c r="C10" t="n">
-        <v>0.305724551882773</v>
+        <v>0.338208512334594</v>
       </c>
       <c r="D10" t="n">
-        <v>0.297303460345091</v>
+        <v>0.301144200107803</v>
       </c>
       <c r="E10" t="n">
-        <v>1.03499301126159</v>
+        <v>1.03686617899202</v>
       </c>
       <c r="F10" t="n">
-        <v>0.953116828584138</v>
+        <v>0.950342657807488</v>
       </c>
       <c r="G10" t="n">
-        <v>0.870814987325401</v>
+        <v>0.870423767986484</v>
       </c>
       <c r="H10" t="n">
-        <v>0.92736293970566</v>
+        <v>0.922536377862923</v>
       </c>
       <c r="I10" t="n">
-        <v>1.50058145439467</v>
+        <v>1.49890955393376</v>
       </c>
       <c r="J10" t="n">
-        <v>3.79427806769522</v>
+        <v>3.79426752082716</v>
       </c>
       <c r="K10" t="n">
-        <v>2.05021840224802</v>
+        <v>2.04561413579912</v>
       </c>
       <c r="L10" t="n">
-        <v>1.45058601065102</v>
+        <v>1.44986847246819</v>
       </c>
       <c r="M10" t="n">
-        <v>0.279630067502045</v>
+        <v>0.279322322741754</v>
       </c>
       <c r="N10" t="n">
-        <v>0.312908670965238</v>
+        <v>0.312571325261246</v>
       </c>
       <c r="O10" t="n">
-        <v>0.311614195262812</v>
+        <v>0.311262178058923</v>
       </c>
       <c r="P10" t="n">
-        <v>0.0862984532003234</v>
+        <v>0.0863076520378692</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.108341020414163</v>
+        <v>0.108548218372056</v>
       </c>
       <c r="R10" t="n">
-        <v>0.0902893856102168</v>
+        <v>0.0902961745543151</v>
       </c>
       <c r="S10" t="n">
-        <v>0.0142517812296602</v>
+        <v>0.0140575252029934</v>
       </c>
       <c r="T10" t="s">
         <v>152</v>
@@ -7301,58 +7295,58 @@
         <v>34</v>
       </c>
       <c r="B11" t="n">
-        <v>0.273436438057793</v>
+        <v>0.318680452049792</v>
       </c>
       <c r="C11" t="n">
-        <v>0.32065920138916</v>
+        <v>0.355570366616513</v>
       </c>
       <c r="D11" t="n">
-        <v>0.311826739388091</v>
+        <v>0.316603366655758</v>
       </c>
       <c r="E11" t="n">
-        <v>1.08555243728596</v>
+        <v>1.09009345995324</v>
       </c>
       <c r="F11" t="n">
-        <v>0.999676601706321</v>
+        <v>0.99912827419795</v>
       </c>
       <c r="G11" t="n">
-        <v>0.913354314116532</v>
+        <v>0.915106767000857</v>
       </c>
       <c r="H11" t="n">
-        <v>0.97266463492256</v>
+        <v>0.969894565424977</v>
       </c>
       <c r="I11" t="n">
-        <v>1.57388488370434</v>
+        <v>1.57585572266717</v>
       </c>
       <c r="J11" t="n">
-        <v>2.05021840224802</v>
+        <v>2.04561413579912</v>
       </c>
       <c r="K11" t="n">
-        <v>3.65929088238667</v>
+        <v>3.65928161306175</v>
       </c>
       <c r="L11" t="n">
-        <v>1.52144716169213</v>
+        <v>1.52429712884109</v>
       </c>
       <c r="M11" t="n">
-        <v>0.293290001007129</v>
+        <v>0.293661268357444</v>
       </c>
       <c r="N11" t="n">
-        <v>0.328194264809748</v>
+        <v>0.328617100586153</v>
       </c>
       <c r="O11" t="n">
-        <v>0.326836553947467</v>
+        <v>0.327240748620698</v>
       </c>
       <c r="P11" t="n">
-        <v>0.090514134092005</v>
+        <v>0.0907382350168498</v>
       </c>
       <c r="Q11" t="n">
-        <v>0.11363348108533</v>
+        <v>0.114120515582817</v>
       </c>
       <c r="R11" t="n">
-        <v>0.0947000236173096</v>
+        <v>0.0949315073967828</v>
       </c>
       <c r="S11" t="n">
-        <v>0.0149479809826597</v>
+        <v>0.0147791649466356</v>
       </c>
       <c r="T11" t="s">
         <v>153</v>
@@ -7363,58 +7357,58 @@
         <v>36</v>
       </c>
       <c r="B12" t="n">
-        <v>0.193463814105837</v>
+        <v>0.225870916774051</v>
       </c>
       <c r="C12" t="n">
-        <v>0.22687522032366</v>
+        <v>0.252017355218288</v>
       </c>
       <c r="D12" t="n">
-        <v>0.220626010091078</v>
+        <v>0.224398742440323</v>
       </c>
       <c r="E12" t="n">
-        <v>0.768058260343637</v>
+        <v>0.772624764353496</v>
       </c>
       <c r="F12" t="n">
-        <v>0.707298740475802</v>
+        <v>0.708151434505641</v>
       </c>
       <c r="G12" t="n">
-        <v>0.64622334350939</v>
+        <v>0.648599570758506</v>
       </c>
       <c r="H12" t="n">
-        <v>0.688187029697218</v>
+        <v>0.687431479582817</v>
       </c>
       <c r="I12" t="n">
-        <v>1.1135669215403</v>
+        <v>1.11691813693943</v>
       </c>
       <c r="J12" t="n">
-        <v>1.45058601065102</v>
+        <v>1.44986847246819</v>
       </c>
       <c r="K12" t="n">
-        <v>1.52144716169213</v>
+        <v>1.52429712884109</v>
       </c>
       <c r="L12" t="n">
-        <v>3.16170441802693</v>
+        <v>3.16169698574841</v>
       </c>
       <c r="M12" t="n">
-        <v>0.2075107569312</v>
+        <v>0.208138087787584</v>
       </c>
       <c r="N12" t="n">
-        <v>0.232206485312448</v>
+        <v>0.232913708072146</v>
       </c>
       <c r="O12" t="n">
-        <v>0.231245867467454</v>
+        <v>0.231938192070957</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0640412438675249</v>
+        <v>0.0643124741347892</v>
       </c>
       <c r="Q12" t="n">
-        <v>0.0803988188883771</v>
+        <v>0.0808851164595147</v>
       </c>
       <c r="R12" t="n">
-        <v>0.0670028760433358</v>
+        <v>0.0672845368096305</v>
       </c>
       <c r="S12" t="n">
-        <v>0.0105761084171073</v>
+        <v>0.0104750182013986</v>
       </c>
       <c r="T12" t="s">
         <v>154</v>
@@ -7425,55 +7419,55 @@
         <v>39</v>
       </c>
       <c r="B13" t="n">
-        <v>0.0567472734809149</v>
+        <v>0.0378370045481624</v>
       </c>
       <c r="C13" t="n">
-        <v>0.0665475878952038</v>
+        <v>0.0422169527259196</v>
       </c>
       <c r="D13" t="n">
-        <v>0.064714554447853</v>
+        <v>0.0375903917139095</v>
       </c>
       <c r="E13" t="n">
-        <v>0.442793100530817</v>
+        <v>0.443793040059522</v>
       </c>
       <c r="F13" t="n">
-        <v>0.407764642953907</v>
+        <v>0.406759778409047</v>
       </c>
       <c r="G13" t="n">
-        <v>0.372554079139636</v>
+        <v>0.37255339016874</v>
       </c>
       <c r="H13" t="n">
-        <v>0.396746554731913</v>
+        <v>0.394858306686495</v>
       </c>
       <c r="I13" t="n">
-        <v>0.2146627577765</v>
+        <v>0.21517825530147</v>
       </c>
       <c r="J13" t="n">
-        <v>0.279630067502045</v>
+        <v>0.279322322741754</v>
       </c>
       <c r="K13" t="n">
-        <v>0.293290001007129</v>
+        <v>0.293661268357444</v>
       </c>
       <c r="L13" t="n">
-        <v>0.2075107569312</v>
+        <v>0.208138087787584</v>
       </c>
       <c r="M13" t="n">
-        <v>2.12472927774723</v>
+        <v>2.1247250483566</v>
       </c>
       <c r="N13" t="n">
-        <v>1.71986740392689</v>
+        <v>1.71990795595515</v>
       </c>
       <c r="O13" t="n">
-        <v>1.71275246345908</v>
+        <v>1.71270443948763</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.175232368886665</v>
+        <v>-0.17488190975902</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.219990659748014</v>
+        <v>-0.219947122666657</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.18333611251494</v>
+        <v>-0.18296370109876</v>
       </c>
       <c r="S13" t="n">
         <v>0</v>
@@ -7487,55 +7481,55 @@
         <v>41</v>
       </c>
       <c r="B14" t="n">
-        <v>0.0635007318219959</v>
+        <v>0.0423409147519846</v>
       </c>
       <c r="C14" t="n">
-        <v>0.0744673756661676</v>
+        <v>0.0472422280199645</v>
       </c>
       <c r="D14" t="n">
-        <v>0.0724161940283375</v>
+        <v>0.0420649464739313</v>
       </c>
       <c r="E14" t="n">
-        <v>0.495489636852667</v>
+        <v>0.496619737769302</v>
       </c>
       <c r="F14" t="n">
-        <v>0.456292463943953</v>
+        <v>0.455178239076275</v>
       </c>
       <c r="G14" t="n">
-        <v>0.416891512445846</v>
+        <v>0.416900109352433</v>
       </c>
       <c r="H14" t="n">
-        <v>0.443963119775352</v>
+        <v>0.44186008121348</v>
       </c>
       <c r="I14" t="n">
-        <v>0.240209641408059</v>
+        <v>0.240791898645232</v>
       </c>
       <c r="J14" t="n">
-        <v>0.312908670965238</v>
+        <v>0.312571325261246</v>
       </c>
       <c r="K14" t="n">
-        <v>0.328194264809748</v>
+        <v>0.328617100586153</v>
       </c>
       <c r="L14" t="n">
-        <v>0.232206485312448</v>
+        <v>0.232913708072146</v>
       </c>
       <c r="M14" t="n">
-        <v>1.71986740392689</v>
+        <v>1.71990795595515</v>
       </c>
       <c r="N14" t="n">
-        <v>2.15809424841811</v>
+        <v>2.15809082833109</v>
       </c>
       <c r="O14" t="n">
-        <v>1.91658608754404</v>
+        <v>1.91657541429804</v>
       </c>
       <c r="P14" t="n">
-        <v>-0.196086666030703</v>
+        <v>-0.195698896389792</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.246171613737544</v>
+        <v>-0.246128425914876</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.205154831236322</v>
+        <v>-0.204742699995431</v>
       </c>
       <c r="S14" t="n">
         <v>0</v>
@@ -7549,55 +7543,55 @@
         <v>43</v>
       </c>
       <c r="B15" t="n">
-        <v>0.0632380348689961</v>
+        <v>0.0421635776592584</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0741593106703148</v>
+        <v>0.0470443626828541</v>
       </c>
       <c r="D15" t="n">
-        <v>0.072116614590853</v>
+        <v>0.0418887652233121</v>
       </c>
       <c r="E15" t="n">
-        <v>0.493439839722627</v>
+        <v>0.494539737821207</v>
       </c>
       <c r="F15" t="n">
-        <v>0.454404822077228</v>
+        <v>0.453271809183043</v>
       </c>
       <c r="G15" t="n">
-        <v>0.415166868856572</v>
+        <v>0.415154000328034</v>
       </c>
       <c r="H15" t="n">
-        <v>0.442126483323095</v>
+        <v>0.440009431961967</v>
       </c>
       <c r="I15" t="n">
-        <v>0.239215915208872</v>
+        <v>0.239783386299482</v>
       </c>
       <c r="J15" t="n">
-        <v>0.311614195262812</v>
+        <v>0.311262178058923</v>
       </c>
       <c r="K15" t="n">
-        <v>0.326836553947467</v>
+        <v>0.327240748620698</v>
       </c>
       <c r="L15" t="n">
-        <v>0.231245867467454</v>
+        <v>0.231938192070957</v>
       </c>
       <c r="M15" t="n">
-        <v>1.71275246345908</v>
+        <v>1.71270443948763</v>
       </c>
       <c r="N15" t="n">
-        <v>1.91658608754404</v>
+        <v>1.91657541429804</v>
       </c>
       <c r="O15" t="n">
-        <v>2.25105309618154</v>
+        <v>2.25104972221968</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.195275472707222</v>
+        <v>-0.194879247746423</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.245153223382214</v>
+        <v>-0.245097562511365</v>
       </c>
       <c r="R15" t="n">
-        <v>-0.204306123709454</v>
+        <v>-0.203885173052833</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -7611,55 +7605,55 @@
         <v>46</v>
       </c>
       <c r="B16" t="n">
-        <v>-0.283041019519296</v>
+        <v>-0.259077250470136</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.331922504272266</v>
+        <v>-0.289067598401896</v>
       </c>
       <c r="D16" t="n">
-        <v>-0.322779797954831</v>
+        <v>-0.257388644942508</v>
       </c>
       <c r="E16" t="n">
-        <v>0.260694072454688</v>
+        <v>0.261872687905</v>
       </c>
       <c r="F16" t="n">
-        <v>0.240071096968882</v>
+        <v>0.240020160048776</v>
       </c>
       <c r="G16" t="n">
-        <v>0.219340906586141</v>
+        <v>0.21983570913713</v>
       </c>
       <c r="H16" t="n">
-        <v>0.233584206622548</v>
+        <v>0.232997358633071</v>
       </c>
       <c r="I16" t="n">
-        <v>0.0662484693484982</v>
+        <v>0.0664878116520795</v>
       </c>
       <c r="J16" t="n">
-        <v>0.0862984532003234</v>
+        <v>0.0863076520378692</v>
       </c>
       <c r="K16" t="n">
-        <v>0.090514134092005</v>
+        <v>0.0907382350168498</v>
       </c>
       <c r="L16" t="n">
-        <v>0.0640412438675249</v>
+        <v>0.0643124741347892</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.175232368886665</v>
+        <v>-0.17488190975902</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.196086666030703</v>
+        <v>-0.195698896389792</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.195275472707222</v>
+        <v>-0.194879247746423</v>
       </c>
       <c r="P16" t="n">
-        <v>1.27988998424968</v>
+        <v>1.27989312102708</v>
       </c>
       <c r="Q16" t="n">
-        <v>1.00186877386226</v>
+        <v>1.00190665302902</v>
       </c>
       <c r="R16" t="n">
-        <v>0.834938749037848</v>
+        <v>0.83343917924983</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -7673,55 +7667,55 @@
         <v>48</v>
       </c>
       <c r="B17" t="n">
-        <v>-0.355336066135546</v>
+        <v>-0.325838709491541</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.41670298224009</v>
+        <v>-0.363557251932278</v>
       </c>
       <c r="D17" t="n">
-        <v>-0.405225022959886</v>
+        <v>-0.323714968233039</v>
       </c>
       <c r="E17" t="n">
-        <v>0.327281205841575</v>
+        <v>0.329354501497931</v>
       </c>
       <c r="F17" t="n">
-        <v>0.301390658268005</v>
+        <v>0.301870809036015</v>
       </c>
       <c r="G17" t="n">
-        <v>0.275365510699802</v>
+        <v>0.276485039251477</v>
       </c>
       <c r="H17" t="n">
-        <v>0.293246870130746</v>
+        <v>0.293038306196973</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0831698194338641</v>
+        <v>0.0836210153779113</v>
       </c>
       <c r="J17" t="n">
-        <v>0.108341020414163</v>
+        <v>0.108548218372056</v>
       </c>
       <c r="K17" t="n">
-        <v>0.11363348108533</v>
+        <v>0.114120515582817</v>
       </c>
       <c r="L17" t="n">
-        <v>0.080398818888377</v>
+        <v>0.0808851164595147</v>
       </c>
       <c r="M17" t="n">
-        <v>-0.219990659748014</v>
+        <v>-0.219947122666657</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.246171613737544</v>
+        <v>-0.246128425914876</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.245153223382214</v>
+        <v>-0.245097562511365</v>
       </c>
       <c r="P17" t="n">
-        <v>1.00186877386226</v>
+        <v>1.00190665302902</v>
       </c>
       <c r="Q17" t="n">
-        <v>1.2899393339623</v>
+        <v>1.28994151175777</v>
       </c>
       <c r="R17" t="n">
-        <v>1.04820089699761</v>
+        <v>1.04820761419096</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -7735,55 +7729,55 @@
         <v>50</v>
       </c>
       <c r="B18" t="n">
-        <v>-0.296130449703018</v>
+        <v>-0.271049948401318</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.347272492953966</v>
+        <v>-0.30242623576229</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.33770697577952</v>
+        <v>-0.269283307600927</v>
       </c>
       <c r="E18" t="n">
-        <v>0.272750052420069</v>
+        <v>0.273974570965067</v>
       </c>
       <c r="F18" t="n">
-        <v>0.251173352989019</v>
+        <v>0.251112175532356</v>
       </c>
       <c r="G18" t="n">
-        <v>0.229484480433033</v>
+        <v>0.229994943632672</v>
       </c>
       <c r="H18" t="n">
-        <v>0.244386471855335</v>
+        <v>0.243764830453213</v>
       </c>
       <c r="I18" t="n">
-        <v>0.0693121762125716</v>
+        <v>0.0695604028717685</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0902893856102168</v>
+        <v>0.0902961745543151</v>
       </c>
       <c r="K18" t="n">
-        <v>0.0947000236173096</v>
+        <v>0.0949315073967828</v>
       </c>
       <c r="L18" t="n">
-        <v>0.0670028760433358</v>
+        <v>0.0672845368096306</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.18333611251494</v>
+        <v>-0.18296370109876</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.205154831236322</v>
+        <v>-0.204742699995431</v>
       </c>
       <c r="O18" t="n">
-        <v>-0.204306123709454</v>
+        <v>-0.203885173052833</v>
       </c>
       <c r="P18" t="n">
-        <v>0.834938749037848</v>
+        <v>0.83343917924983</v>
       </c>
       <c r="Q18" t="n">
-        <v>1.04820089699761</v>
+        <v>1.04820761419096</v>
       </c>
       <c r="R18" t="n">
-        <v>1.34982048665095</v>
+        <v>1.34982169583377</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -7797,37 +7791,37 @@
         <v>55</v>
       </c>
       <c r="B19" t="n">
-        <v>0.147684946236357</v>
+        <v>0.158322844735806</v>
       </c>
       <c r="C19" t="n">
-        <v>0.173190293341014</v>
+        <v>0.176650031667722</v>
       </c>
       <c r="D19" t="n">
-        <v>0.168419818399826</v>
+        <v>0.15729093309445</v>
       </c>
       <c r="E19" t="n">
-        <v>-0.0318665108430334</v>
+        <v>-0.0320045828910037</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.0293456162720674</v>
+        <v>-0.0293338918588553</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.0268116160533835</v>
+        <v>-0.0268670636551233</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0285526770248777</v>
+        <v>-0.0284756052164639</v>
       </c>
       <c r="I19" t="n">
-        <v>0.0109406212619244</v>
+        <v>0.0108293304929774</v>
       </c>
       <c r="J19" t="n">
-        <v>0.0142517812296602</v>
+        <v>0.0140575252029934</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0149479809826597</v>
+        <v>0.0147791649466356</v>
       </c>
       <c r="L19" t="n">
-        <v>0.0105761084171073</v>
+        <v>0.0104750182013986</v>
       </c>
       <c r="M19" t="n">
         <v>0</v>
@@ -7941,58 +7935,58 @@
         <v>163</v>
       </c>
       <c r="C2" t="n">
-        <v>0.00827438124911861</v>
+        <v>0.00827354952833659</v>
       </c>
       <c r="D2" t="n">
-        <v>0.0338827118494653</v>
+        <v>-0.0104063218199846</v>
       </c>
       <c r="E2" t="n">
-        <v>-0.00464086139863795</v>
+        <v>0.0433500284253205</v>
       </c>
       <c r="F2" t="n">
-        <v>0.0585818210974758</v>
+        <v>-0.133992576570623</v>
       </c>
       <c r="G2" t="n">
-        <v>0.174136325036728</v>
+        <v>0.141044532538351</v>
       </c>
       <c r="H2" t="n">
-        <v>0.303066488619067</v>
+        <v>0.159307411809699</v>
       </c>
       <c r="I2" t="n">
-        <v>0.187675831861403</v>
+        <v>0.0977543982018849</v>
       </c>
       <c r="J2" t="n">
-        <v>-0.231363076873981</v>
+        <v>-0.29087932790745</v>
       </c>
       <c r="K2" t="n">
-        <v>0.225573809393409</v>
+        <v>0.455467019012836</v>
       </c>
       <c r="L2" t="n">
-        <v>-0.083036942241822</v>
+        <v>-0.227297097125247</v>
       </c>
       <c r="M2" t="n">
-        <v>-0.0566251179817496</v>
+        <v>-0.019129206049636</v>
       </c>
       <c r="N2" t="n">
-        <v>0.06951756318447</v>
+        <v>0.0418783415531649</v>
       </c>
       <c r="O2" t="n">
-        <v>0.106530079424108</v>
+        <v>0.0195704328899079</v>
       </c>
       <c r="P2" t="n">
-        <v>0.0726903289838094</v>
+        <v>-0.0418397094473616</v>
       </c>
       <c r="Q2" t="n">
-        <v>-0.15939797071214</v>
+        <v>0.0124472305128505</v>
       </c>
       <c r="R2" t="n">
-        <v>-0.100740401775243</v>
+        <v>-0.0806246496345397</v>
       </c>
       <c r="S2" t="n">
-        <v>-0.154877918351323</v>
+        <v>-0.147151445107312</v>
       </c>
       <c r="T2" t="n">
-        <v>-0.0308210409109128</v>
+        <v>0.0354641375127147</v>
       </c>
       <c r="U2" t="s">
         <v>164</v>
@@ -8006,58 +8000,58 @@
         <v>163</v>
       </c>
       <c r="C3" t="n">
-        <v>0.0338827118494653</v>
+        <v>-0.0104063218199846</v>
       </c>
       <c r="D3" t="n">
-        <v>0.0113789500028831</v>
+        <v>0.0102981457599332</v>
       </c>
       <c r="E3" t="n">
-        <v>0.00277784322540198</v>
+        <v>0.0100457005127388</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.134817853339647</v>
+        <v>-0.349259455587085</v>
       </c>
       <c r="G3" t="n">
-        <v>0.142336245558435</v>
+        <v>-0.0730126481046565</v>
       </c>
       <c r="H3" t="n">
-        <v>0.159510151941738</v>
+        <v>-0.0215573782460196</v>
       </c>
       <c r="I3" t="n">
-        <v>0.0999813222644713</v>
+        <v>0.0483650170293091</v>
       </c>
       <c r="J3" t="n">
-        <v>-0.292063070188036</v>
+        <v>-0.272411049480641</v>
       </c>
       <c r="K3" t="n">
-        <v>0.452862332329963</v>
+        <v>0.352611136837352</v>
       </c>
       <c r="L3" t="n">
-        <v>-0.229275846464615</v>
+        <v>-0.0881427555384714</v>
       </c>
       <c r="M3" t="n">
-        <v>-0.0201335095992447</v>
+        <v>0.00545787324009761</v>
       </c>
       <c r="N3" t="n">
-        <v>0.0131677582061235</v>
+        <v>0.00126016642256815</v>
       </c>
       <c r="O3" t="n">
-        <v>-0.0125560280242752</v>
+        <v>0.0325431436406909</v>
       </c>
       <c r="P3" t="n">
-        <v>-0.0738354424584179</v>
+        <v>-0.107730263036487</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.0852924843149809</v>
+        <v>0.0293077860703941</v>
       </c>
       <c r="R3" t="n">
-        <v>0.0102396231140096</v>
+        <v>-0.0322097030062774</v>
       </c>
       <c r="S3" t="n">
-        <v>-0.0709289005546638</v>
+        <v>-0.107144507559023</v>
       </c>
       <c r="T3" t="n">
-        <v>0.0205966889075065</v>
+        <v>0.00826121093582854</v>
       </c>
       <c r="U3" t="s">
         <v>165</v>
@@ -8071,58 +8065,58 @@
         <v>163</v>
       </c>
       <c r="C4" t="n">
-        <v>-0.00464086139863795</v>
+        <v>0.0433500284253205</v>
       </c>
       <c r="D4" t="n">
-        <v>0.00277784322540242</v>
+        <v>0.0100457005127388</v>
       </c>
       <c r="E4" t="n">
-        <v>0.0107593838383866</v>
+        <v>0.00816491671098385</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.417820171907281</v>
+        <v>-0.0480368835542315</v>
       </c>
       <c r="G4" t="n">
-        <v>-0.13386046059949</v>
+        <v>0.281369644407439</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.0782415483855761</v>
+        <v>0.216066972943458</v>
       </c>
       <c r="I4" t="n">
-        <v>-0.00975623184682828</v>
+        <v>0.384042903227209</v>
       </c>
       <c r="J4" t="n">
-        <v>-0.240099369456025</v>
+        <v>-0.157166608383959</v>
       </c>
       <c r="K4" t="n">
-        <v>0.393516188826855</v>
+        <v>0.266377945475334</v>
       </c>
       <c r="L4" t="n">
-        <v>-0.0443991283100503</v>
+        <v>-0.143727767061906</v>
       </c>
       <c r="M4" t="n">
-        <v>0.036849218367308</v>
+        <v>0.0687895212759335</v>
       </c>
       <c r="N4" t="n">
-        <v>-0.0212374352993652</v>
+        <v>0.057723147727987</v>
       </c>
       <c r="O4" t="n">
-        <v>0.00736917763231783</v>
+        <v>0.0276017318636626</v>
       </c>
       <c r="P4" t="n">
-        <v>-0.132802514944486</v>
+        <v>-0.05138598170733</v>
       </c>
       <c r="Q4" t="n">
-        <v>0.063019985623329</v>
+        <v>0.124462626945937</v>
       </c>
       <c r="R4" t="n">
-        <v>0.00945806802133126</v>
+        <v>0.0569876127482871</v>
       </c>
       <c r="S4" t="n">
-        <v>-0.0718637675417925</v>
+        <v>-0.0460855520328391</v>
       </c>
       <c r="T4" t="n">
-        <v>0.0164914242037243</v>
+        <v>-0.0137998088340949</v>
       </c>
       <c r="U4" t="s">
         <v>166</v>
@@ -8136,58 +8130,58 @@
         <v>163</v>
       </c>
       <c r="C5" t="n">
-        <v>0.0585818210974758</v>
+        <v>-0.133992576570623</v>
       </c>
       <c r="D5" t="n">
-        <v>-0.134817853339647</v>
+        <v>-0.349259455587085</v>
       </c>
       <c r="E5" t="n">
-        <v>-0.417820171907281</v>
+        <v>-0.0480368835542315</v>
       </c>
       <c r="F5" t="n">
-        <v>0.00287790960219159</v>
+        <v>0.002897650757129</v>
       </c>
       <c r="G5" t="n">
-        <v>0.0412260374355424</v>
+        <v>0.0376525387186104</v>
       </c>
       <c r="H5" t="n">
-        <v>0.0127731439713488</v>
+        <v>0.00525378154649259</v>
       </c>
       <c r="I5" t="n">
-        <v>-0.0651603265331919</v>
+        <v>-0.0644146885137216</v>
       </c>
       <c r="J5" t="n">
-        <v>0.288327826956983</v>
+        <v>0.284099329546623</v>
       </c>
       <c r="K5" t="n">
-        <v>-0.517976800344601</v>
+        <v>-0.51984996807504</v>
       </c>
       <c r="L5" t="n">
-        <v>0.0825089051040118</v>
+        <v>0.0779678824367283</v>
       </c>
       <c r="M5" t="n">
-        <v>-0.00108581540122965</v>
+        <v>-0.00565231941108868</v>
       </c>
       <c r="N5" t="n">
-        <v>-0.0924902399867163</v>
+        <v>-0.0934901795154213</v>
       </c>
       <c r="O5" t="n">
-        <v>-0.0982521451681994</v>
+        <v>-0.0993822460848336</v>
       </c>
       <c r="P5" t="n">
-        <v>0.0124948264305182</v>
+        <v>0.011394928331938</v>
       </c>
       <c r="Q5" t="n">
-        <v>-0.219571562738641</v>
+        <v>-0.220750178188953</v>
       </c>
       <c r="R5" t="n">
-        <v>0.0466377745862814</v>
+        <v>0.044564478929925</v>
       </c>
       <c r="S5" t="n">
-        <v>0.0363252600689911</v>
+        <v>0.035100741523993</v>
       </c>
       <c r="T5" t="n">
-        <v>-0.00659502761850497</v>
+        <v>-0.0064569555705346</v>
       </c>
       <c r="U5" t="s">
         <v>167</v>
@@ -8201,58 +8195,58 @@
         <v>163</v>
       </c>
       <c r="C6" t="n">
-        <v>0.174136325036728</v>
+        <v>0.141044532538351</v>
       </c>
       <c r="D6" t="n">
-        <v>0.142336245558435</v>
+        <v>-0.0730126481046565</v>
       </c>
       <c r="E6" t="n">
-        <v>-0.13386046059949</v>
+        <v>0.281369644407439</v>
       </c>
       <c r="F6" t="n">
-        <v>0.0412260374355424</v>
+        <v>0.0376525387186104</v>
       </c>
       <c r="G6" t="n">
-        <v>0.00244102575299365</v>
+        <v>0.00243345504715275</v>
       </c>
       <c r="H6" t="n">
-        <v>-0.0835351553764743</v>
+        <v>-0.0829628471083874</v>
       </c>
       <c r="I6" t="n">
-        <v>0.0526741804578215</v>
+        <v>0.0613064999586719</v>
       </c>
       <c r="J6" t="n">
-        <v>0.269689220763539</v>
+        <v>0.269261193107122</v>
       </c>
       <c r="K6" t="n">
-        <v>-0.353663027946907</v>
+        <v>-0.350888857170256</v>
       </c>
       <c r="L6" t="n">
-        <v>-0.0684066881878866</v>
+        <v>-0.0678583606795156</v>
       </c>
       <c r="M6" t="n">
-        <v>0.0854868762743138</v>
+        <v>0.0846341822444749</v>
       </c>
       <c r="N6" t="n">
-        <v>0.121479781260934</v>
+        <v>0.122484645805794</v>
       </c>
       <c r="O6" t="n">
-        <v>0.0356283371484487</v>
+        <v>0.0367425620161267</v>
       </c>
       <c r="P6" t="n">
-        <v>0.0661914455604611</v>
+        <v>0.0673244584546462</v>
       </c>
       <c r="Q6" t="n">
-        <v>-0.183402913081763</v>
+        <v>-0.183351976161657</v>
       </c>
       <c r="R6" t="n">
-        <v>-0.079497167143744</v>
+        <v>-0.079977317911754</v>
       </c>
       <c r="S6" t="n">
-        <v>-0.050103712570264</v>
+        <v>-0.0500425351136009</v>
       </c>
       <c r="T6" t="n">
-        <v>-0.00467805236698556</v>
+        <v>-0.00468977678019765</v>
       </c>
       <c r="U6" t="s">
         <v>168</v>
@@ -8266,58 +8260,58 @@
         <v>163</v>
       </c>
       <c r="C7" t="n">
-        <v>0.303066488619067</v>
+        <v>0.159307411809699</v>
       </c>
       <c r="D7" t="n">
-        <v>0.159510151941738</v>
+        <v>-0.0215573782460197</v>
       </c>
       <c r="E7" t="n">
-        <v>-0.078241548385576</v>
+        <v>0.216066972943458</v>
       </c>
       <c r="F7" t="n">
-        <v>0.0127731439713488</v>
+        <v>0.00525378154649259</v>
       </c>
       <c r="G7" t="n">
-        <v>-0.0835351553764743</v>
+        <v>-0.0829628471083874</v>
       </c>
       <c r="H7" t="n">
-        <v>0.00204257769675031</v>
+        <v>0.00204014925014206</v>
       </c>
       <c r="I7" t="n">
-        <v>0.0410845678028782</v>
+        <v>0.0451861629684005</v>
       </c>
       <c r="J7" t="n">
-        <v>0.521973646227641</v>
+        <v>0.519931392056411</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.11017985550229</v>
+        <v>-0.109788636163373</v>
       </c>
       <c r="L7" t="n">
-        <v>0.0378378710310439</v>
+        <v>0.0360854181467187</v>
       </c>
       <c r="M7" t="n">
-        <v>0.160427333987898</v>
+        <v>0.158051106738782</v>
       </c>
       <c r="N7" t="n">
-        <v>0.0749355045584151</v>
+        <v>0.0749361935293112</v>
       </c>
       <c r="O7" t="n">
-        <v>-0.0691358316223459</v>
+        <v>-0.0691444285289334</v>
       </c>
       <c r="P7" t="n">
-        <v>0.111101469086774</v>
+        <v>0.111114337615312</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.0249257507437828</v>
+        <v>0.0244309481927931</v>
       </c>
       <c r="R7" t="n">
-        <v>0.0962776390498564</v>
+        <v>0.0951581104981814</v>
       </c>
       <c r="S7" t="n">
-        <v>0.114944986322332</v>
+        <v>0.114434523122693</v>
       </c>
       <c r="T7" t="n">
-        <v>-0.0367978514022379</v>
+        <v>-0.036742403800498</v>
       </c>
       <c r="U7" t="s">
         <v>169</v>
@@ -8331,58 +8325,58 @@
         <v>163</v>
       </c>
       <c r="C8" t="n">
-        <v>0.187675831861403</v>
+        <v>0.0977543982018849</v>
       </c>
       <c r="D8" t="n">
-        <v>0.0999813222644713</v>
+        <v>0.0483650170293092</v>
       </c>
       <c r="E8" t="n">
-        <v>-0.00975623184682828</v>
+        <v>0.384042903227209</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.0651603265331917</v>
+        <v>-0.0644146885137216</v>
       </c>
       <c r="G8" t="n">
-        <v>0.0526741804578215</v>
+        <v>0.0613064999586719</v>
       </c>
       <c r="H8" t="n">
-        <v>0.0410845678028782</v>
+        <v>0.0451861629684007</v>
       </c>
       <c r="I8" t="n">
-        <v>0.00231150250700374</v>
+        <v>0.00229474684025188</v>
       </c>
       <c r="J8" t="n">
-        <v>0.306528359874734</v>
+        <v>0.307750720307723</v>
       </c>
       <c r="K8" t="n">
-        <v>-0.195683376665152</v>
+        <v>-0.190856814822415</v>
       </c>
       <c r="L8" t="n">
-        <v>0.0846862981680154</v>
+        <v>0.0874563676655985</v>
       </c>
       <c r="M8" t="n">
-        <v>-0.078036824872456</v>
+        <v>-0.077281274758054</v>
       </c>
       <c r="N8" t="n">
-        <v>0.0727573141802426</v>
+        <v>0.0746455622256613</v>
       </c>
       <c r="O8" t="n">
-        <v>-0.022706861240985</v>
+        <v>-0.0206038226791126</v>
       </c>
       <c r="P8" t="n">
-        <v>-0.0154082311610547</v>
+        <v>-0.0132911797999271</v>
       </c>
       <c r="Q8" t="n">
-        <v>-0.159392126513308</v>
+        <v>-0.15880527852383</v>
       </c>
       <c r="R8" t="n">
-        <v>0.0203625973248746</v>
+        <v>0.0205711612586478</v>
       </c>
       <c r="S8" t="n">
-        <v>-0.0158930717643028</v>
+        <v>-0.0152714303621805</v>
       </c>
       <c r="T8" t="n">
-        <v>-0.00399170167334717</v>
+        <v>-0.00406877348176103</v>
       </c>
       <c r="U8" t="s">
         <v>170</v>
@@ -8396,58 +8390,58 @@
         <v>163</v>
       </c>
       <c r="C9" t="n">
-        <v>-0.231363076873981</v>
+        <v>-0.29087932790745</v>
       </c>
       <c r="D9" t="n">
-        <v>-0.292063070188036</v>
+        <v>-0.272411049480641</v>
       </c>
       <c r="E9" t="n">
-        <v>-0.240099369456025</v>
+        <v>-0.157166608383959</v>
       </c>
       <c r="F9" t="n">
-        <v>0.288327826956983</v>
+        <v>0.284099329546623</v>
       </c>
       <c r="G9" t="n">
-        <v>0.269689220763539</v>
+        <v>0.269261193107122</v>
       </c>
       <c r="H9" t="n">
-        <v>0.521973646227641</v>
+        <v>0.51993139205641</v>
       </c>
       <c r="I9" t="n">
-        <v>0.306528359874734</v>
+        <v>0.307750720307723</v>
       </c>
       <c r="J9" t="n">
-        <v>-0.000335322105935454</v>
+        <v>-0.000335966097475549</v>
       </c>
       <c r="K9" t="n">
-        <v>0.0766042183758915</v>
+        <v>0.0782761188368004</v>
       </c>
       <c r="L9" t="n">
-        <v>-0.090796056282328</v>
+        <v>-0.092766895245161</v>
       </c>
       <c r="M9" t="n">
-        <v>-0.172143301919143</v>
+        <v>-0.175494517318266</v>
       </c>
       <c r="N9" t="n">
-        <v>0.0431538452836206</v>
+        <v>0.0426383477586506</v>
       </c>
       <c r="O9" t="n">
-        <v>0.0259925223817261</v>
+        <v>0.0254102651445527</v>
       </c>
       <c r="P9" t="n">
-        <v>0.0103551782402376</v>
+        <v>0.00978770714962729</v>
       </c>
       <c r="Q9" t="n">
-        <v>0.117078444975229</v>
+        <v>0.116839102671648</v>
       </c>
       <c r="R9" t="n">
-        <v>0.109365455941648</v>
+        <v>0.108914259997601</v>
       </c>
       <c r="S9" t="n">
-        <v>0.0817154488705825</v>
+        <v>0.0814672222113857</v>
       </c>
       <c r="T9" t="n">
-        <v>-0.0641950591317469</v>
+        <v>-0.0640837683628</v>
       </c>
       <c r="U9" t="s">
         <v>171</v>
@@ -8461,58 +8455,58 @@
         <v>163</v>
       </c>
       <c r="C10" t="n">
-        <v>0.225573809393409</v>
+        <v>0.455467019012836</v>
       </c>
       <c r="D10" t="n">
-        <v>0.452862332329963</v>
+        <v>0.352611136837351</v>
       </c>
       <c r="E10" t="n">
-        <v>0.393516188826855</v>
+        <v>0.266377945475334</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.517976800344601</v>
+        <v>-0.51984996807504</v>
       </c>
       <c r="G10" t="n">
-        <v>-0.353663027946907</v>
+        <v>-0.350888857170256</v>
       </c>
       <c r="H10" t="n">
-        <v>-0.11017985550229</v>
+        <v>-0.109788636163373</v>
       </c>
       <c r="I10" t="n">
-        <v>-0.195683376665152</v>
+        <v>-0.190856814822415</v>
       </c>
       <c r="J10" t="n">
-        <v>0.0766042183758913</v>
+        <v>0.0782761188368004</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.000573365478913068</v>
+        <v>-0.000562818610850613</v>
       </c>
       <c r="L10" t="n">
-        <v>0.0387490708796658</v>
+        <v>0.0433533373285724</v>
       </c>
       <c r="M10" t="n">
-        <v>0.0184977049051591</v>
+        <v>0.0192152430879851</v>
       </c>
       <c r="N10" t="n">
-        <v>0.0133743791209711</v>
+        <v>0.0136821238812616</v>
       </c>
       <c r="O10" t="n">
-        <v>-0.108784165520751</v>
+        <v>-0.10844681981676</v>
       </c>
       <c r="P10" t="n">
-        <v>-0.169339765095802</v>
+        <v>-0.168987747891913</v>
       </c>
       <c r="Q10" t="n">
-        <v>0.01278771325043</v>
+        <v>0.0127785144128842</v>
       </c>
       <c r="R10" t="n">
-        <v>-0.0291421128128887</v>
+        <v>-0.0293493107707824</v>
       </c>
       <c r="S10" t="n">
-        <v>-0.0784200533039269</v>
+        <v>-0.0784268422480252</v>
       </c>
       <c r="T10" t="n">
-        <v>0.0478783962851327</v>
+        <v>0.0480726523117995</v>
       </c>
       <c r="U10" t="s">
         <v>172</v>
@@ -8526,58 +8520,58 @@
         <v>163</v>
       </c>
       <c r="C11" t="n">
-        <v>-0.083036942241822</v>
+        <v>-0.227297097125247</v>
       </c>
       <c r="D11" t="n">
-        <v>-0.229275846464615</v>
+        <v>-0.0881427555384715</v>
       </c>
       <c r="E11" t="n">
-        <v>-0.0443991283100503</v>
+        <v>-0.143727767061906</v>
       </c>
       <c r="F11" t="n">
-        <v>0.0825089051040118</v>
+        <v>0.0779678824367283</v>
       </c>
       <c r="G11" t="n">
-        <v>-0.0684066881878866</v>
+        <v>-0.0678583606795153</v>
       </c>
       <c r="H11" t="n">
-        <v>0.0378378710310439</v>
+        <v>0.0360854181467187</v>
       </c>
       <c r="I11" t="n">
-        <v>0.0846862981680154</v>
+        <v>0.0874563676655985</v>
       </c>
       <c r="J11" t="n">
-        <v>-0.090796056282328</v>
+        <v>-0.0927668952451608</v>
       </c>
       <c r="K11" t="n">
-        <v>0.0387490708796658</v>
+        <v>0.0433533373285728</v>
       </c>
       <c r="L11" t="n">
-        <v>-0.000630471336634297</v>
+        <v>-0.000621202011719113</v>
       </c>
       <c r="M11" t="n">
-        <v>0.0742952843006599</v>
+        <v>0.0714453171516984</v>
       </c>
       <c r="N11" t="n">
-        <v>0.00645440570132355</v>
+        <v>0.00608313835100782</v>
       </c>
       <c r="O11" t="n">
-        <v>-0.00931537401460791</v>
+        <v>-0.00973820979101225</v>
       </c>
       <c r="P11" t="n">
-        <v>0.0112818592733592</v>
+        <v>0.0108776646001277</v>
       </c>
       <c r="Q11" t="n">
-        <v>-0.104799348195154</v>
+        <v>-0.105023449119998</v>
       </c>
       <c r="R11" t="n">
-        <v>-0.041262065518648</v>
+        <v>-0.0417491000161349</v>
       </c>
       <c r="S11" t="n">
-        <v>-0.13186608923126</v>
+        <v>-0.132097573010733</v>
       </c>
       <c r="T11" t="n">
-        <v>0.00280349830728103</v>
+        <v>0.00297231434330508</v>
       </c>
       <c r="U11" t="s">
         <v>173</v>
@@ -8591,58 +8585,58 @@
         <v>163</v>
       </c>
       <c r="C12" t="n">
-        <v>-0.0566251179817496</v>
+        <v>-0.019129206049636</v>
       </c>
       <c r="D12" t="n">
-        <v>-0.0201335095992446</v>
+        <v>0.0054578732400975</v>
       </c>
       <c r="E12" t="n">
-        <v>0.036849218367308</v>
+        <v>0.0687895212759335</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.00108581540122965</v>
+        <v>-0.00565231941108879</v>
       </c>
       <c r="G12" t="n">
-        <v>0.0854868762743138</v>
+        <v>0.0846341822444749</v>
       </c>
       <c r="H12" t="n">
-        <v>0.160427333987898</v>
+        <v>0.158051106738782</v>
       </c>
       <c r="I12" t="n">
-        <v>-0.078036824872456</v>
+        <v>-0.0772812747580541</v>
       </c>
       <c r="J12" t="n">
-        <v>-0.172143301919143</v>
+        <v>-0.175494517318266</v>
       </c>
       <c r="K12" t="n">
-        <v>0.0184977049051593</v>
+        <v>0.0192152430879853</v>
       </c>
       <c r="L12" t="n">
-        <v>0.0742952843006599</v>
+        <v>0.0714453171516987</v>
       </c>
       <c r="M12" t="n">
-        <v>-0.000321763357973737</v>
+        <v>-0.000314331079455332</v>
       </c>
       <c r="N12" t="n">
-        <v>0.16284567316579</v>
+        <v>0.162218342309406</v>
       </c>
       <c r="O12" t="n">
-        <v>0.139252847343973</v>
+        <v>0.138545624584275</v>
       </c>
       <c r="P12" t="n">
-        <v>0.0992310065915763</v>
+        <v>0.0985386819880739</v>
       </c>
       <c r="Q12" t="n">
-        <v>-0.0238640792024221</v>
+        <v>-0.0241353094696864</v>
       </c>
       <c r="R12" t="n">
-        <v>0.00266900086583212</v>
+        <v>0.00218270329469446</v>
       </c>
       <c r="S12" t="n">
-        <v>-0.104300239581027</v>
+        <v>-0.104581900347322</v>
       </c>
       <c r="T12" t="n">
-        <v>-0.0238897178845626</v>
+        <v>-0.0237886276688539</v>
       </c>
       <c r="U12" t="s">
         <v>174</v>
@@ -8656,55 +8650,55 @@
         <v>163</v>
       </c>
       <c r="C13" t="n">
-        <v>0.06951756318447</v>
+        <v>0.0418783415531649</v>
       </c>
       <c r="D13" t="n">
-        <v>0.0131677582061235</v>
+        <v>0.00126016642256815</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.0212374352993652</v>
+        <v>0.057723147727987</v>
       </c>
       <c r="F13" t="n">
-        <v>-0.0924902399867163</v>
+        <v>-0.0934901795154213</v>
       </c>
       <c r="G13" t="n">
-        <v>0.121479781260934</v>
+        <v>0.122484645805794</v>
       </c>
       <c r="H13" t="n">
-        <v>0.0749355045584151</v>
+        <v>0.0749361935293112</v>
       </c>
       <c r="I13" t="n">
-        <v>0.0727573141802426</v>
+        <v>0.0746455622256613</v>
       </c>
       <c r="J13" t="n">
-        <v>0.0431538452836206</v>
+        <v>0.0426383477586506</v>
       </c>
       <c r="K13" t="n">
-        <v>0.0133743791209711</v>
+        <v>0.0136821238812616</v>
       </c>
       <c r="L13" t="n">
-        <v>0.00645440570132355</v>
+        <v>0.00608313835100782</v>
       </c>
       <c r="M13" t="n">
-        <v>0.16284567316579</v>
+        <v>0.162218342309406</v>
       </c>
       <c r="N13" t="n">
-        <v>-0.00000500338708686598</v>
+        <v>-0.000000773996458924842</v>
       </c>
       <c r="O13" t="n">
-        <v>-0.00125636089617709</v>
+        <v>-0.00129691292443823</v>
       </c>
       <c r="P13" t="n">
-        <v>-0.00375242844630241</v>
+        <v>-0.00370440447485043</v>
       </c>
       <c r="Q13" t="n">
-        <v>-0.0833895281057374</v>
+        <v>-0.0837399872333817</v>
       </c>
       <c r="R13" t="n">
-        <v>-0.0692674194508937</v>
+        <v>-0.06931095653225</v>
       </c>
       <c r="S13" t="n">
-        <v>-0.0808090504695468</v>
+        <v>-0.0811814618857275</v>
       </c>
       <c r="T13" t="n">
         <v>-0.0221893491124256</v>
@@ -8721,55 +8715,55 @@
         <v>163</v>
       </c>
       <c r="C14" t="n">
-        <v>0.106530079424108</v>
+        <v>0.0195704328899079</v>
       </c>
       <c r="D14" t="n">
-        <v>-0.0125560280242752</v>
+        <v>0.0325431436406909</v>
       </c>
       <c r="E14" t="n">
-        <v>0.00736917763231783</v>
+        <v>0.0276017318636626</v>
       </c>
       <c r="F14" t="n">
-        <v>-0.0982521451681994</v>
+        <v>-0.0993822460848337</v>
       </c>
       <c r="G14" t="n">
-        <v>0.0356283371484486</v>
+        <v>0.0367425620161267</v>
       </c>
       <c r="H14" t="n">
-        <v>-0.0691358316223459</v>
+        <v>-0.0691444285289334</v>
       </c>
       <c r="I14" t="n">
-        <v>-0.022706861240985</v>
+        <v>-0.0206038226791126</v>
       </c>
       <c r="J14" t="n">
-        <v>0.0259925223817261</v>
+        <v>0.0254102651445526</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.108784165520751</v>
+        <v>-0.10844681981676</v>
       </c>
       <c r="L14" t="n">
-        <v>-0.00931537401460791</v>
+        <v>-0.00973820979101214</v>
       </c>
       <c r="M14" t="n">
-        <v>0.139252847343973</v>
+        <v>0.138545624584275</v>
       </c>
       <c r="N14" t="n">
-        <v>-0.00125636089617709</v>
+        <v>-0.00129691292443823</v>
       </c>
       <c r="O14" t="n">
-        <v>-0.00000279503762090627</v>
+        <v>0.00000062504939890573</v>
       </c>
       <c r="P14" t="n">
-        <v>0.00198294015107248</v>
+        <v>0.00199361339706794</v>
       </c>
       <c r="Q14" t="n">
-        <v>-0.0453264497565588</v>
+        <v>-0.0457142193974701</v>
       </c>
       <c r="R14" t="n">
-        <v>-0.00690075767802212</v>
+        <v>-0.00694394550069022</v>
       </c>
       <c r="S14" t="n">
-        <v>0.00879440968245615</v>
+        <v>0.00838227844156489</v>
       </c>
       <c r="T14" t="n">
         <v>-0.0162721893491122</v>
@@ -8786,55 +8780,55 @@
         <v>163</v>
       </c>
       <c r="C15" t="n">
-        <v>0.0726903289838094</v>
+        <v>-0.0418397094473616</v>
       </c>
       <c r="D15" t="n">
-        <v>-0.0738354424584179</v>
+        <v>-0.107730263036487</v>
       </c>
       <c r="E15" t="n">
-        <v>-0.132802514944486</v>
+        <v>-0.05138598170733</v>
       </c>
       <c r="F15" t="n">
-        <v>0.0124948264305181</v>
+        <v>0.0113949283319381</v>
       </c>
       <c r="G15" t="n">
-        <v>0.0661914455604611</v>
+        <v>0.0673244584546462</v>
       </c>
       <c r="H15" t="n">
-        <v>0.111101469086774</v>
+        <v>0.111114337615312</v>
       </c>
       <c r="I15" t="n">
-        <v>-0.0154082311610548</v>
+        <v>-0.0132911797999272</v>
       </c>
       <c r="J15" t="n">
-        <v>0.0103551782402376</v>
+        <v>0.00978770714962726</v>
       </c>
       <c r="K15" t="n">
-        <v>-0.169339765095802</v>
+        <v>-0.168987747891913</v>
       </c>
       <c r="L15" t="n">
-        <v>0.0112818592733592</v>
+        <v>0.0108776646001277</v>
       </c>
       <c r="M15" t="n">
-        <v>0.0992310065915762</v>
+        <v>0.0985386819880739</v>
       </c>
       <c r="N15" t="n">
-        <v>-0.00375242844630241</v>
+        <v>-0.00370440447485043</v>
       </c>
       <c r="O15" t="n">
-        <v>0.00198294015107248</v>
+        <v>0.00199361339706794</v>
       </c>
       <c r="P15" t="n">
-        <v>-0.0000027127916095715</v>
+        <v>0.000000661170255877863</v>
       </c>
       <c r="Q15" t="n">
-        <v>-0.00305441770277876</v>
+        <v>-0.00345064266357811</v>
       </c>
       <c r="R15" t="n">
-        <v>0.0501145342606844</v>
+        <v>0.0500588733898353</v>
       </c>
       <c r="S15" t="n">
-        <v>0.0698307902127282</v>
+        <v>0.0694098395561071</v>
       </c>
       <c r="T15" t="n">
         <v>-0.00147928994082847</v>
@@ -8851,55 +8845,55 @@
         <v>163</v>
       </c>
       <c r="C16" t="n">
-        <v>-0.15939797071214</v>
+        <v>0.0124472305128505</v>
       </c>
       <c r="D16" t="n">
-        <v>0.0852924843149809</v>
+        <v>0.0293077860703941</v>
       </c>
       <c r="E16" t="n">
-        <v>0.063019985623329</v>
+        <v>0.124462626945937</v>
       </c>
       <c r="F16" t="n">
-        <v>-0.219571562738641</v>
+        <v>-0.220750178188953</v>
       </c>
       <c r="G16" t="n">
-        <v>-0.183402913081763</v>
+        <v>-0.183351976161657</v>
       </c>
       <c r="H16" t="n">
-        <v>0.0249257507437828</v>
+        <v>0.0244309481927931</v>
       </c>
       <c r="I16" t="n">
-        <v>-0.159392126513308</v>
+        <v>-0.15880527852383</v>
       </c>
       <c r="J16" t="n">
-        <v>0.117078444975229</v>
+        <v>0.116839102671648</v>
       </c>
       <c r="K16" t="n">
-        <v>0.01278771325043</v>
+        <v>0.0127785144128842</v>
       </c>
       <c r="L16" t="n">
-        <v>-0.104799348195154</v>
+        <v>-0.105023449119998</v>
       </c>
       <c r="M16" t="n">
-        <v>-0.0238640792024221</v>
+        <v>-0.0241353094696864</v>
       </c>
       <c r="N16" t="n">
-        <v>-0.0833895281057374</v>
+        <v>-0.0837399872333817</v>
       </c>
       <c r="O16" t="n">
-        <v>-0.0453264497565588</v>
+        <v>-0.0457142193974701</v>
       </c>
       <c r="P16" t="n">
-        <v>-0.00305441770277876</v>
+        <v>-0.00345064266357811</v>
       </c>
       <c r="Q16" t="n">
-        <v>0.00000217638895527728</v>
+        <v>-0.000000960388452542205</v>
       </c>
       <c r="R16" t="n">
-        <v>0.000179473748114445</v>
+        <v>0.000141594581356763</v>
       </c>
       <c r="S16" t="n">
-        <v>0.00883422809880774</v>
+        <v>0.0103337978868256</v>
       </c>
       <c r="T16" t="n">
         <v>-0.0355029585798816</v>
@@ -8916,55 +8910,55 @@
         <v>163</v>
       </c>
       <c r="C17" t="n">
-        <v>-0.100740401775243</v>
+        <v>-0.0806246496345397</v>
       </c>
       <c r="D17" t="n">
-        <v>0.0102396231140096</v>
+        <v>-0.0322097030062775</v>
       </c>
       <c r="E17" t="n">
-        <v>0.0094580680213312</v>
+        <v>0.0569876127482871</v>
       </c>
       <c r="F17" t="n">
-        <v>0.0466377745862814</v>
+        <v>0.044564478929925</v>
       </c>
       <c r="G17" t="n">
-        <v>-0.079497167143744</v>
+        <v>-0.0799773179117539</v>
       </c>
       <c r="H17" t="n">
-        <v>0.0962776390498565</v>
+        <v>0.0951581104981814</v>
       </c>
       <c r="I17" t="n">
-        <v>0.0203625973248746</v>
+        <v>0.0205711612586478</v>
       </c>
       <c r="J17" t="n">
-        <v>0.109365455941648</v>
+        <v>0.108914259997601</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.0291421128128887</v>
+        <v>-0.0293493107707824</v>
       </c>
       <c r="L17" t="n">
-        <v>-0.041262065518648</v>
+        <v>-0.0417491000161349</v>
       </c>
       <c r="M17" t="n">
-        <v>0.00266900086583213</v>
+        <v>0.00218270329469446</v>
       </c>
       <c r="N17" t="n">
-        <v>-0.0692674194508937</v>
+        <v>-0.06931095653225</v>
       </c>
       <c r="O17" t="n">
-        <v>-0.00690075767802212</v>
+        <v>-0.00694394550069022</v>
       </c>
       <c r="P17" t="n">
-        <v>0.0501145342606844</v>
+        <v>0.0500588733898353</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.000179473748114445</v>
+        <v>0.000141594581356763</v>
       </c>
       <c r="R17" t="n">
-        <v>0.00000149444006591892</v>
+        <v>-0.000000683355399377916</v>
       </c>
       <c r="S17" t="n">
-        <v>-0.000636035823277981</v>
+        <v>-0.000642753016626418</v>
       </c>
       <c r="T17" t="n">
         <v>-0.0236686390532546</v>
@@ -8981,55 +8975,55 @@
         <v>163</v>
       </c>
       <c r="C18" t="n">
-        <v>-0.154877918351323</v>
+        <v>-0.147151445107312</v>
       </c>
       <c r="D18" t="n">
-        <v>-0.0709289005546637</v>
+        <v>-0.107144507559023</v>
       </c>
       <c r="E18" t="n">
-        <v>-0.0718637675417924</v>
+        <v>-0.0460855520328391</v>
       </c>
       <c r="F18" t="n">
-        <v>0.0363252600689911</v>
+        <v>0.035100741523993</v>
       </c>
       <c r="G18" t="n">
-        <v>-0.050103712570264</v>
+        <v>-0.0500425351136009</v>
       </c>
       <c r="H18" t="n">
-        <v>0.114944986322332</v>
+        <v>0.114434523122693</v>
       </c>
       <c r="I18" t="n">
-        <v>-0.0158930717643028</v>
+        <v>-0.0152714303621805</v>
       </c>
       <c r="J18" t="n">
-        <v>0.0817154488705825</v>
+        <v>0.0814672222113857</v>
       </c>
       <c r="K18" t="n">
-        <v>-0.0784200533039269</v>
+        <v>-0.0784268422480252</v>
       </c>
       <c r="L18" t="n">
-        <v>-0.13186608923126</v>
+        <v>-0.132097573010733</v>
       </c>
       <c r="M18" t="n">
-        <v>-0.104300239581027</v>
+        <v>-0.104581900347322</v>
       </c>
       <c r="N18" t="n">
-        <v>-0.0808090504695468</v>
+        <v>-0.0811814618857275</v>
       </c>
       <c r="O18" t="n">
-        <v>0.00879440968245615</v>
+        <v>0.00838227844156486</v>
       </c>
       <c r="P18" t="n">
-        <v>0.0698307902127282</v>
+        <v>0.0694098395561071</v>
       </c>
       <c r="Q18" t="n">
-        <v>0.00883422809880774</v>
+        <v>0.0103337978868256</v>
       </c>
       <c r="R18" t="n">
-        <v>-0.000636035823277981</v>
+        <v>-0.000642753016626418</v>
       </c>
       <c r="S18" t="n">
-        <v>0.000000948172764747568</v>
+        <v>-0.000000261010055568889</v>
       </c>
       <c r="T18" t="n">
         <v>-0.0340236686390534</v>
@@ -9046,37 +9040,37 @@
         <v>163</v>
       </c>
       <c r="C19" t="n">
-        <v>-0.0308210409109128</v>
+        <v>0.0354641375127147</v>
       </c>
       <c r="D19" t="n">
-        <v>0.0205966889075065</v>
+        <v>0.00826121093582854</v>
       </c>
       <c r="E19" t="n">
-        <v>0.0164914242037243</v>
+        <v>-0.0137998088340949</v>
       </c>
       <c r="F19" t="n">
-        <v>-0.00659502761850497</v>
+        <v>-0.0064569555705346</v>
       </c>
       <c r="G19" t="n">
-        <v>-0.00467805236698556</v>
+        <v>-0.00468977678019765</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.0367978514022379</v>
+        <v>-0.036742403800498</v>
       </c>
       <c r="I19" t="n">
-        <v>-0.00399170167334717</v>
+        <v>-0.00406877348176103</v>
       </c>
       <c r="J19" t="n">
-        <v>-0.0641950591317469</v>
+        <v>-0.0640837683628</v>
       </c>
       <c r="K19" t="n">
-        <v>0.0478783962851327</v>
+        <v>0.0480726523117995</v>
       </c>
       <c r="L19" t="n">
-        <v>0.00280349830728103</v>
+        <v>0.00297231434330508</v>
       </c>
       <c r="M19" t="n">
-        <v>-0.0238897178845626</v>
+        <v>-0.0237886276688539</v>
       </c>
       <c r="N19" t="n">
         <v>-0.0221893491124256</v>
@@ -9210,20 +9204,20 @@
         <v>200</v>
       </c>
       <c r="B12" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B13" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B14" t="s">
         <v>199</v>
@@ -9231,39 +9225,39 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="B15" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="B16" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="B17" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="B18" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B19" t="s">
         <v>197</v>
@@ -9271,298 +9265,298 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B20" t="s">
-        <v>203</v>
+        <v>199</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B21" t="s">
-        <v>201</v>
+        <v>197</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B24" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B25" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B26" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B27" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B28" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B29" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B30" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B31" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B32" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B33" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B34" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B35" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B36" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B37" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B38" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B39" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B40" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
       <c r="B41" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
       <c r="B42" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B43" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B45" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B46" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B47" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B48" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B49" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B50" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B51" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B52" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B53" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B54" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B55" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B56" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
   </sheetData>

--- a/frintmedfit.xlsx
+++ b/frintmedfit.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="283" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="291" uniqueCount="291">
   <si>
     <t xml:space="preserve"/>
   </si>
@@ -186,6 +186,9 @@
     <t xml:space="preserve">gr_1</t>
   </si>
   <si>
+    <t xml:space="preserve">d1</t>
+  </si>
+  <si>
     <t xml:space="preserve">20</t>
   </si>
   <si>
@@ -201,6 +204,9 @@
     <t xml:space="preserve">23</t>
   </si>
   <si>
+    <t xml:space="preserve">d2</t>
+  </si>
+  <si>
     <t xml:space="preserve">24</t>
   </si>
   <si>
@@ -388,6 +394,24 @@
   </si>
   <si>
     <t xml:space="preserve">a1*b2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">79</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind1+d1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">80</t>
+  </si>
+  <si>
+    <t xml:space="preserve">total2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">ind2+d2</t>
   </si>
   <si>
     <t xml:space="preserve">est.std</t>
@@ -1855,7 +1879,7 @@
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0259146888381434</v>
@@ -1878,7 +1902,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -1913,7 +1937,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -1948,7 +1972,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -1960,7 +1984,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>-0.157121145544262</v>
@@ -1983,7 +2007,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -1995,7 +2019,7 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>-0.0285148646411502</v>
@@ -2018,7 +2042,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -2053,7 +2077,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -2088,7 +2112,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -2100,7 +2124,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
         <v>0.633291378943223</v>
@@ -2123,7 +2147,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -2158,7 +2182,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -2193,13 +2217,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -2228,13 +2252,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -2263,13 +2287,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -2298,13 +2322,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -2333,13 +2357,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -2368,13 +2392,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -2403,13 +2427,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -2438,13 +2462,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -2473,13 +2497,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -2508,13 +2532,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -2543,13 +2567,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -2578,13 +2602,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -2613,13 +2637,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -2648,13 +2672,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -2683,13 +2707,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -2718,13 +2742,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -2753,13 +2777,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -2788,13 +2812,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -2823,13 +2847,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -2858,13 +2882,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -2893,13 +2917,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -2928,13 +2952,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -2963,13 +2987,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -2998,13 +3022,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -3033,13 +3057,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -3064,13 +3088,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
@@ -3099,13 +3123,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -3134,13 +3158,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -3169,13 +3193,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -3204,13 +3228,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -3239,13 +3263,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -3274,13 +3298,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -3309,13 +3333,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -3344,13 +3368,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -3379,13 +3403,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -3414,13 +3438,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -3449,13 +3473,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -3484,13 +3508,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -3519,13 +3543,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -3554,13 +3578,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -3589,13 +3613,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -3624,13 +3648,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -3659,13 +3683,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -3690,13 +3714,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -3721,13 +3745,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -3752,13 +3776,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -3783,13 +3807,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -3814,13 +3838,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -3845,19 +3869,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
         <v>120</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
       </c>
       <c r="F78" t="n">
         <v>0.0692320108100531</v>
@@ -3880,19 +3904,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" t="n">
         <v>-0.0995034669228648</v>
@@ -3911,6 +3935,76 @@
       </c>
       <c r="K79" t="n">
         <v>-0.0178139397147137</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0433173219719097</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.132714141046208</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.326395677434463</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.744125007526866</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.228447303154811</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.287649917086958</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.128018331564015</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.16118463555982</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.794234085149536</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.427059168920779</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.44767539086224</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.185324420824188</v>
       </c>
     </row>
   </sheetData>
@@ -3944,7 +4038,7 @@
         <v>4</v>
       </c>
       <c r="F1" t="s">
-        <v>124</v>
+        <v>132</v>
       </c>
       <c r="G1" t="s">
         <v>6</v>
@@ -4606,7 +4700,7 @@
         <v>55</v>
       </c>
       <c r="E20" t="s">
-        <v>0</v>
+        <v>56</v>
       </c>
       <c r="F20" t="n">
         <v>-0.0120581843848282</v>
@@ -4629,7 +4723,7 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="B21" t="s">
         <v>29</v>
@@ -4664,7 +4758,7 @@
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="B22" t="s">
         <v>29</v>
@@ -4699,7 +4793,7 @@
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="B23" t="s">
         <v>20</v>
@@ -4711,7 +4805,7 @@
         <v>12</v>
       </c>
       <c r="E23" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="F23" t="n">
         <v>-0.172564698410454</v>
@@ -4734,7 +4828,7 @@
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="B24" t="s">
         <v>20</v>
@@ -4746,7 +4840,7 @@
         <v>55</v>
       </c>
       <c r="E24" t="s">
-        <v>0</v>
+        <v>62</v>
       </c>
       <c r="F24" t="n">
         <v>-0.00993826784965049</v>
@@ -4769,7 +4863,7 @@
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B25" t="s">
         <v>20</v>
@@ -4804,7 +4898,7 @@
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="B26" t="s">
         <v>20</v>
@@ -4839,7 +4933,7 @@
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B27" t="s">
         <v>12</v>
@@ -4851,7 +4945,7 @@
         <v>55</v>
       </c>
       <c r="E27" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="F27" t="n">
         <v>0.200967411647262</v>
@@ -4874,7 +4968,7 @@
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B28" t="s">
         <v>12</v>
@@ -4909,7 +5003,7 @@
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="B29" t="s">
         <v>12</v>
@@ -4944,13 +5038,13 @@
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>67</v>
+        <v>69</v>
       </c>
       <c r="B30" t="s">
         <v>20</v>
       </c>
       <c r="C30" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D30" t="s">
         <v>29</v>
@@ -4979,13 +5073,13 @@
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="B31" t="s">
         <v>14</v>
       </c>
       <c r="C31" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D31" t="s">
         <v>14</v>
@@ -5014,13 +5108,13 @@
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>70</v>
+        <v>72</v>
       </c>
       <c r="B32" t="s">
         <v>16</v>
       </c>
       <c r="C32" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D32" t="s">
         <v>16</v>
@@ -5049,13 +5143,13 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>71</v>
+        <v>73</v>
       </c>
       <c r="B33" t="s">
         <v>18</v>
       </c>
       <c r="C33" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D33" t="s">
         <v>18</v>
@@ -5084,13 +5178,13 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="B34" t="s">
         <v>21</v>
       </c>
       <c r="C34" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D34" t="s">
         <v>21</v>
@@ -5119,13 +5213,13 @@
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
       <c r="B35" t="s">
         <v>23</v>
       </c>
       <c r="C35" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D35" t="s">
         <v>23</v>
@@ -5154,13 +5248,13 @@
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B36" t="s">
         <v>25</v>
       </c>
       <c r="C36" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D36" t="s">
         <v>25</v>
@@ -5189,13 +5283,13 @@
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
       <c r="B37" t="s">
         <v>27</v>
       </c>
       <c r="C37" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D37" t="s">
         <v>27</v>
@@ -5224,13 +5318,13 @@
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B38" t="s">
         <v>30</v>
       </c>
       <c r="C38" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D38" t="s">
         <v>30</v>
@@ -5259,13 +5353,13 @@
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="B39" t="s">
         <v>32</v>
       </c>
       <c r="C39" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D39" t="s">
         <v>32</v>
@@ -5294,13 +5388,13 @@
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B40" t="s">
         <v>34</v>
       </c>
       <c r="C40" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D40" t="s">
         <v>34</v>
@@ -5329,13 +5423,13 @@
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>79</v>
+        <v>81</v>
       </c>
       <c r="B41" t="s">
         <v>36</v>
       </c>
       <c r="C41" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D41" t="s">
         <v>36</v>
@@ -5364,13 +5458,13 @@
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="B42" t="s">
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D42" t="s">
         <v>39</v>
@@ -5399,13 +5493,13 @@
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="B43" t="s">
         <v>41</v>
       </c>
       <c r="C43" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D43" t="s">
         <v>41</v>
@@ -5434,13 +5528,13 @@
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>82</v>
+        <v>84</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
       </c>
       <c r="C44" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D44" t="s">
         <v>43</v>
@@ -5469,13 +5563,13 @@
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>83</v>
+        <v>85</v>
       </c>
       <c r="B45" t="s">
         <v>46</v>
       </c>
       <c r="C45" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D45" t="s">
         <v>46</v>
@@ -5504,13 +5598,13 @@
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>84</v>
+        <v>86</v>
       </c>
       <c r="B46" t="s">
         <v>48</v>
       </c>
       <c r="C46" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D46" t="s">
         <v>48</v>
@@ -5539,13 +5633,13 @@
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="B47" t="s">
         <v>50</v>
       </c>
       <c r="C47" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D47" t="s">
         <v>50</v>
@@ -5574,13 +5668,13 @@
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="B48" t="s">
         <v>12</v>
       </c>
       <c r="C48" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D48" t="s">
         <v>12</v>
@@ -5609,13 +5703,13 @@
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="B49" t="s">
         <v>20</v>
       </c>
       <c r="C49" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D49" t="s">
         <v>20</v>
@@ -5644,13 +5738,13 @@
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="B50" t="s">
         <v>29</v>
       </c>
       <c r="C50" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D50" t="s">
         <v>29</v>
@@ -5679,13 +5773,13 @@
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="B51" t="s">
         <v>38</v>
       </c>
       <c r="C51" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D51" t="s">
         <v>38</v>
@@ -5710,13 +5804,13 @@
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B52" t="s">
         <v>45</v>
       </c>
       <c r="C52" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D52" t="s">
         <v>45</v>
@@ -5741,13 +5835,13 @@
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="B53" t="s">
         <v>38</v>
       </c>
       <c r="C53" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D53" t="s">
         <v>45</v>
@@ -5776,13 +5870,13 @@
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="B54" t="s">
         <v>55</v>
       </c>
       <c r="C54" t="s">
-        <v>68</v>
+        <v>70</v>
       </c>
       <c r="D54" t="s">
         <v>55</v>
@@ -5807,13 +5901,13 @@
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B55" t="s">
         <v>14</v>
       </c>
       <c r="C55" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D55" t="s">
         <v>0</v>
@@ -5842,13 +5936,13 @@
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="B56" t="s">
         <v>16</v>
       </c>
       <c r="C56" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D56" t="s">
         <v>0</v>
@@ -5877,13 +5971,13 @@
     </row>
     <row r="57">
       <c r="A57" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="B57" t="s">
         <v>18</v>
       </c>
       <c r="C57" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D57" t="s">
         <v>0</v>
@@ -5912,13 +6006,13 @@
     </row>
     <row r="58">
       <c r="A58" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="B58" t="s">
         <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D58" t="s">
         <v>0</v>
@@ -5947,13 +6041,13 @@
     </row>
     <row r="59">
       <c r="A59" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="B59" t="s">
         <v>23</v>
       </c>
       <c r="C59" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D59" t="s">
         <v>0</v>
@@ -5982,13 +6076,13 @@
     </row>
     <row r="60">
       <c r="A60" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="B60" t="s">
         <v>25</v>
       </c>
       <c r="C60" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D60" t="s">
         <v>0</v>
@@ -6017,13 +6111,13 @@
     </row>
     <row r="61">
       <c r="A61" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="B61" t="s">
         <v>27</v>
       </c>
       <c r="C61" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D61" t="s">
         <v>0</v>
@@ -6052,13 +6146,13 @@
     </row>
     <row r="62">
       <c r="A62" t="s">
-        <v>101</v>
+        <v>103</v>
       </c>
       <c r="B62" t="s">
         <v>30</v>
       </c>
       <c r="C62" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D62" t="s">
         <v>0</v>
@@ -6087,13 +6181,13 @@
     </row>
     <row r="63">
       <c r="A63" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="B63" t="s">
         <v>32</v>
       </c>
       <c r="C63" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D63" t="s">
         <v>0</v>
@@ -6122,13 +6216,13 @@
     </row>
     <row r="64">
       <c r="A64" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="B64" t="s">
         <v>34</v>
       </c>
       <c r="C64" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D64" t="s">
         <v>0</v>
@@ -6157,13 +6251,13 @@
     </row>
     <row r="65">
       <c r="A65" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="B65" t="s">
         <v>36</v>
       </c>
       <c r="C65" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D65" t="s">
         <v>0</v>
@@ -6192,13 +6286,13 @@
     </row>
     <row r="66">
       <c r="A66" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="B66" t="s">
         <v>39</v>
       </c>
       <c r="C66" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D66" t="s">
         <v>0</v>
@@ -6227,13 +6321,13 @@
     </row>
     <row r="67">
       <c r="A67" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B67" t="s">
         <v>41</v>
       </c>
       <c r="C67" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D67" t="s">
         <v>0</v>
@@ -6262,13 +6356,13 @@
     </row>
     <row r="68">
       <c r="A68" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
       </c>
       <c r="C68" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D68" t="s">
         <v>0</v>
@@ -6297,13 +6391,13 @@
     </row>
     <row r="69">
       <c r="A69" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="B69" t="s">
         <v>46</v>
       </c>
       <c r="C69" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D69" t="s">
         <v>0</v>
@@ -6332,13 +6426,13 @@
     </row>
     <row r="70">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="B70" t="s">
         <v>48</v>
       </c>
       <c r="C70" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D70" t="s">
         <v>0</v>
@@ -6367,13 +6461,13 @@
     </row>
     <row r="71">
       <c r="A71" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="B71" t="s">
         <v>50</v>
       </c>
       <c r="C71" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D71" t="s">
         <v>0</v>
@@ -6402,13 +6496,13 @@
     </row>
     <row r="72">
       <c r="A72" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="B72" t="s">
         <v>55</v>
       </c>
       <c r="C72" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D72" t="s">
         <v>0</v>
@@ -6433,13 +6527,13 @@
     </row>
     <row r="73">
       <c r="A73" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="B73" t="s">
         <v>12</v>
       </c>
       <c r="C73" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D73" t="s">
         <v>0</v>
@@ -6464,13 +6558,13 @@
     </row>
     <row r="74">
       <c r="A74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="B74" t="s">
         <v>20</v>
       </c>
       <c r="C74" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D74" t="s">
         <v>0</v>
@@ -6495,13 +6589,13 @@
     </row>
     <row r="75">
       <c r="A75" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B75" t="s">
         <v>29</v>
       </c>
       <c r="C75" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D75" t="s">
         <v>0</v>
@@ -6526,13 +6620,13 @@
     </row>
     <row r="76">
       <c r="A76" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
       <c r="B76" t="s">
         <v>38</v>
       </c>
       <c r="C76" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D76" t="s">
         <v>0</v>
@@ -6557,13 +6651,13 @@
     </row>
     <row r="77">
       <c r="A77" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B77" t="s">
         <v>45</v>
       </c>
       <c r="C77" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="D77" t="s">
         <v>0</v>
@@ -6588,19 +6682,19 @@
     </row>
     <row r="78">
       <c r="A78" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
       <c r="B78" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="C78" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D78" t="s">
+        <v>122</v>
+      </c>
+      <c r="E78" t="s">
         <v>120</v>
-      </c>
-      <c r="E78" t="s">
-        <v>118</v>
       </c>
       <c r="F78" t="n">
         <v>0.0322138674669825</v>
@@ -6623,19 +6717,19 @@
     </row>
     <row r="79">
       <c r="A79" t="s">
+        <v>123</v>
+      </c>
+      <c r="B79" t="s">
+        <v>124</v>
+      </c>
+      <c r="C79" t="s">
         <v>121</v>
       </c>
-      <c r="B79" t="s">
-        <v>122</v>
-      </c>
-      <c r="C79" t="s">
-        <v>119</v>
-      </c>
       <c r="D79" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
       <c r="E79" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="F79" t="n">
         <v>-0.0346798807812394</v>
@@ -6654,6 +6748,76 @@
       </c>
       <c r="K79" t="n">
         <v>-0.00161585488586266</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" t="s">
+        <v>126</v>
+      </c>
+      <c r="B80" t="s">
+        <v>127</v>
+      </c>
+      <c r="C80" t="s">
+        <v>121</v>
+      </c>
+      <c r="D80" t="s">
+        <v>128</v>
+      </c>
+      <c r="E80" t="s">
+        <v>127</v>
+      </c>
+      <c r="F80" t="n">
+        <v>0.0201556830821543</v>
+      </c>
+      <c r="G80" t="n">
+        <v>0.0621625663648002</v>
+      </c>
+      <c r="H80" t="n">
+        <v>0.324241489063867</v>
+      </c>
+      <c r="I80" t="n">
+        <v>0.745755213565011</v>
+      </c>
+      <c r="J80" t="n">
+        <v>-0.101680708179435</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0.141992074343744</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" t="s">
+        <v>129</v>
+      </c>
+      <c r="B81" t="s">
+        <v>130</v>
+      </c>
+      <c r="C81" t="s">
+        <v>121</v>
+      </c>
+      <c r="D81" t="s">
+        <v>131</v>
+      </c>
+      <c r="E81" t="s">
+        <v>130</v>
+      </c>
+      <c r="F81" t="n">
+        <v>-0.0446181486308899</v>
+      </c>
+      <c r="G81" t="n">
+        <v>0.0562003061544016</v>
+      </c>
+      <c r="H81" t="n">
+        <v>-0.793912910515265</v>
+      </c>
+      <c r="I81" t="n">
+        <v>0.427246133146636</v>
+      </c>
+      <c r="J81" t="n">
+        <v>-0.154768724613642</v>
+      </c>
+      <c r="K81" t="n">
+        <v>0.0655324273518619</v>
       </c>
     </row>
   </sheetData>
@@ -6675,61 +6839,61 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -6791,7 +6955,7 @@
         <v>0.158322844735806</v>
       </c>
       <c r="T2" t="s">
-        <v>144</v>
+        <v>152</v>
       </c>
     </row>
     <row r="3">
@@ -6853,7 +7017,7 @@
         <v>0.176650031667722</v>
       </c>
       <c r="T3" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
     </row>
     <row r="4">
@@ -6915,7 +7079,7 @@
         <v>0.15729093309445</v>
       </c>
       <c r="T4" t="s">
-        <v>146</v>
+        <v>154</v>
       </c>
     </row>
     <row r="5">
@@ -6977,7 +7141,7 @@
         <v>-0.0320045828910037</v>
       </c>
       <c r="T5" t="s">
-        <v>147</v>
+        <v>155</v>
       </c>
     </row>
     <row r="6">
@@ -7039,7 +7203,7 @@
         <v>-0.0293338918588553</v>
       </c>
       <c r="T6" t="s">
-        <v>148</v>
+        <v>156</v>
       </c>
     </row>
     <row r="7">
@@ -7101,7 +7265,7 @@
         <v>-0.0268670636551233</v>
       </c>
       <c r="T7" t="s">
-        <v>149</v>
+        <v>157</v>
       </c>
     </row>
     <row r="8">
@@ -7163,7 +7327,7 @@
         <v>-0.0284756052164639</v>
       </c>
       <c r="T8" t="s">
-        <v>150</v>
+        <v>158</v>
       </c>
     </row>
     <row r="9">
@@ -7225,7 +7389,7 @@
         <v>0.0108293304929774</v>
       </c>
       <c r="T9" t="s">
-        <v>151</v>
+        <v>159</v>
       </c>
     </row>
     <row r="10">
@@ -7287,7 +7451,7 @@
         <v>0.0140575252029934</v>
       </c>
       <c r="T10" t="s">
-        <v>152</v>
+        <v>160</v>
       </c>
     </row>
     <row r="11">
@@ -7349,7 +7513,7 @@
         <v>0.0147791649466356</v>
       </c>
       <c r="T11" t="s">
-        <v>153</v>
+        <v>161</v>
       </c>
     </row>
     <row r="12">
@@ -7411,7 +7575,7 @@
         <v>0.0104750182013986</v>
       </c>
       <c r="T12" t="s">
-        <v>154</v>
+        <v>162</v>
       </c>
     </row>
     <row r="13">
@@ -7473,7 +7637,7 @@
         <v>0</v>
       </c>
       <c r="T13" t="s">
-        <v>155</v>
+        <v>163</v>
       </c>
     </row>
     <row r="14">
@@ -7535,7 +7699,7 @@
         <v>0</v>
       </c>
       <c r="T14" t="s">
-        <v>156</v>
+        <v>164</v>
       </c>
     </row>
     <row r="15">
@@ -7597,7 +7761,7 @@
         <v>0</v>
       </c>
       <c r="T15" t="s">
-        <v>157</v>
+        <v>165</v>
       </c>
     </row>
     <row r="16">
@@ -7659,7 +7823,7 @@
         <v>0</v>
       </c>
       <c r="T16" t="s">
-        <v>158</v>
+        <v>166</v>
       </c>
     </row>
     <row r="17">
@@ -7721,7 +7885,7 @@
         <v>0</v>
       </c>
       <c r="T17" t="s">
-        <v>159</v>
+        <v>167</v>
       </c>
     </row>
     <row r="18">
@@ -7783,7 +7947,7 @@
         <v>0</v>
       </c>
       <c r="T18" t="s">
-        <v>160</v>
+        <v>168</v>
       </c>
     </row>
     <row r="19">
@@ -7845,7 +8009,7 @@
         <v>0.25</v>
       </c>
       <c r="T19" t="s">
-        <v>161</v>
+        <v>169</v>
       </c>
     </row>
   </sheetData>
@@ -7867,64 +8031,64 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>162</v>
+        <v>170</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>133</v>
       </c>
       <c r="D1" t="s">
-        <v>126</v>
+        <v>134</v>
       </c>
       <c r="E1" t="s">
-        <v>127</v>
+        <v>135</v>
       </c>
       <c r="F1" t="s">
-        <v>128</v>
+        <v>136</v>
       </c>
       <c r="G1" t="s">
-        <v>129</v>
+        <v>137</v>
       </c>
       <c r="H1" t="s">
-        <v>130</v>
+        <v>138</v>
       </c>
       <c r="I1" t="s">
-        <v>131</v>
+        <v>139</v>
       </c>
       <c r="J1" t="s">
-        <v>132</v>
+        <v>140</v>
       </c>
       <c r="K1" t="s">
-        <v>133</v>
+        <v>141</v>
       </c>
       <c r="L1" t="s">
-        <v>134</v>
+        <v>142</v>
       </c>
       <c r="M1" t="s">
-        <v>135</v>
+        <v>143</v>
       </c>
       <c r="N1" t="s">
-        <v>136</v>
+        <v>144</v>
       </c>
       <c r="O1" t="s">
-        <v>137</v>
+        <v>145</v>
       </c>
       <c r="P1" t="s">
-        <v>138</v>
+        <v>146</v>
       </c>
       <c r="Q1" t="s">
-        <v>139</v>
+        <v>147</v>
       </c>
       <c r="R1" t="s">
-        <v>140</v>
+        <v>148</v>
       </c>
       <c r="S1" t="s">
-        <v>141</v>
+        <v>149</v>
       </c>
       <c r="T1" t="s">
-        <v>142</v>
+        <v>150</v>
       </c>
       <c r="U1" t="s">
-        <v>143</v>
+        <v>151</v>
       </c>
     </row>
     <row r="2">
@@ -7932,7 +8096,7 @@
         <v>14</v>
       </c>
       <c r="B2" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C2" t="n">
         <v>0.00827354952833659</v>
@@ -7989,7 +8153,7 @@
         <v>0.0354641375127147</v>
       </c>
       <c r="U2" t="s">
-        <v>164</v>
+        <v>172</v>
       </c>
     </row>
     <row r="3">
@@ -7997,7 +8161,7 @@
         <v>16</v>
       </c>
       <c r="B3" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C3" t="n">
         <v>-0.0104063218199846</v>
@@ -8054,7 +8218,7 @@
         <v>0.00826121093582854</v>
       </c>
       <c r="U3" t="s">
-        <v>165</v>
+        <v>173</v>
       </c>
     </row>
     <row r="4">
@@ -8062,7 +8226,7 @@
         <v>18</v>
       </c>
       <c r="B4" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C4" t="n">
         <v>0.0433500284253205</v>
@@ -8119,7 +8283,7 @@
         <v>-0.0137998088340949</v>
       </c>
       <c r="U4" t="s">
-        <v>166</v>
+        <v>174</v>
       </c>
     </row>
     <row r="5">
@@ -8127,7 +8291,7 @@
         <v>21</v>
       </c>
       <c r="B5" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C5" t="n">
         <v>-0.133992576570623</v>
@@ -8184,7 +8348,7 @@
         <v>-0.0064569555705346</v>
       </c>
       <c r="U5" t="s">
-        <v>167</v>
+        <v>175</v>
       </c>
     </row>
     <row r="6">
@@ -8192,7 +8356,7 @@
         <v>23</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C6" t="n">
         <v>0.141044532538351</v>
@@ -8249,7 +8413,7 @@
         <v>-0.00468977678019765</v>
       </c>
       <c r="U6" t="s">
-        <v>168</v>
+        <v>176</v>
       </c>
     </row>
     <row r="7">
@@ -8257,7 +8421,7 @@
         <v>25</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C7" t="n">
         <v>0.159307411809699</v>
@@ -8314,7 +8478,7 @@
         <v>-0.036742403800498</v>
       </c>
       <c r="U7" t="s">
-        <v>169</v>
+        <v>177</v>
       </c>
     </row>
     <row r="8">
@@ -8322,7 +8486,7 @@
         <v>27</v>
       </c>
       <c r="B8" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C8" t="n">
         <v>0.0977543982018849</v>
@@ -8379,7 +8543,7 @@
         <v>-0.00406877348176103</v>
       </c>
       <c r="U8" t="s">
-        <v>170</v>
+        <v>178</v>
       </c>
     </row>
     <row r="9">
@@ -8387,7 +8551,7 @@
         <v>30</v>
       </c>
       <c r="B9" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C9" t="n">
         <v>-0.29087932790745</v>
@@ -8444,7 +8608,7 @@
         <v>-0.0640837683628</v>
       </c>
       <c r="U9" t="s">
-        <v>171</v>
+        <v>179</v>
       </c>
     </row>
     <row r="10">
@@ -8452,7 +8616,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C10" t="n">
         <v>0.455467019012836</v>
@@ -8509,7 +8673,7 @@
         <v>0.0480726523117995</v>
       </c>
       <c r="U10" t="s">
-        <v>172</v>
+        <v>180</v>
       </c>
     </row>
     <row r="11">
@@ -8517,7 +8681,7 @@
         <v>34</v>
       </c>
       <c r="B11" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C11" t="n">
         <v>-0.227297097125247</v>
@@ -8574,7 +8738,7 @@
         <v>0.00297231434330508</v>
       </c>
       <c r="U11" t="s">
-        <v>173</v>
+        <v>181</v>
       </c>
     </row>
     <row r="12">
@@ -8582,7 +8746,7 @@
         <v>36</v>
       </c>
       <c r="B12" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C12" t="n">
         <v>-0.019129206049636</v>
@@ -8639,7 +8803,7 @@
         <v>-0.0237886276688539</v>
       </c>
       <c r="U12" t="s">
-        <v>174</v>
+        <v>182</v>
       </c>
     </row>
     <row r="13">
@@ -8647,7 +8811,7 @@
         <v>39</v>
       </c>
       <c r="B13" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C13" t="n">
         <v>0.0418783415531649</v>
@@ -8704,7 +8868,7 @@
         <v>-0.0221893491124256</v>
       </c>
       <c r="U13" t="s">
-        <v>175</v>
+        <v>183</v>
       </c>
     </row>
     <row r="14">
@@ -8712,7 +8876,7 @@
         <v>41</v>
       </c>
       <c r="B14" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C14" t="n">
         <v>0.0195704328899079</v>
@@ -8769,7 +8933,7 @@
         <v>-0.0162721893491122</v>
       </c>
       <c r="U14" t="s">
-        <v>176</v>
+        <v>184</v>
       </c>
     </row>
     <row r="15">
@@ -8777,7 +8941,7 @@
         <v>43</v>
       </c>
       <c r="B15" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C15" t="n">
         <v>-0.0418397094473616</v>
@@ -8834,7 +8998,7 @@
         <v>-0.00147928994082847</v>
       </c>
       <c r="U15" t="s">
-        <v>177</v>
+        <v>185</v>
       </c>
     </row>
     <row r="16">
@@ -8842,7 +9006,7 @@
         <v>46</v>
       </c>
       <c r="B16" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C16" t="n">
         <v>0.0124472305128505</v>
@@ -8899,7 +9063,7 @@
         <v>-0.0355029585798816</v>
       </c>
       <c r="U16" t="s">
-        <v>178</v>
+        <v>186</v>
       </c>
     </row>
     <row r="17">
@@ -8907,7 +9071,7 @@
         <v>48</v>
       </c>
       <c r="B17" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C17" t="n">
         <v>-0.0806246496345397</v>
@@ -8964,7 +9128,7 @@
         <v>-0.0236686390532546</v>
       </c>
       <c r="U17" t="s">
-        <v>179</v>
+        <v>187</v>
       </c>
     </row>
     <row r="18">
@@ -8972,7 +9136,7 @@
         <v>50</v>
       </c>
       <c r="B18" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C18" t="n">
         <v>-0.147151445107312</v>
@@ -9029,7 +9193,7 @@
         <v>-0.0340236686390534</v>
       </c>
       <c r="U18" t="s">
-        <v>180</v>
+        <v>188</v>
       </c>
     </row>
     <row r="19">
@@ -9037,7 +9201,7 @@
         <v>55</v>
       </c>
       <c r="B19" t="s">
-        <v>163</v>
+        <v>171</v>
       </c>
       <c r="C19" t="n">
         <v>0.0354641375127147</v>
@@ -9094,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="U19" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -9116,39 +9280,39 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
-        <v>182</v>
+        <v>190</v>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="s">
-        <v>183</v>
+        <v>191</v>
       </c>
       <c r="B2" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s">
-        <v>184</v>
+        <v>192</v>
       </c>
       <c r="B3" t="s">
-        <v>185</v>
+        <v>193</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
-        <v>186</v>
+        <v>194</v>
       </c>
       <c r="B4" t="s">
-        <v>187</v>
+        <v>195</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
-        <v>188</v>
+        <v>196</v>
       </c>
       <c r="B5" t="s">
-        <v>189</v>
+        <v>197</v>
       </c>
     </row>
     <row r="6">
@@ -9156,407 +9320,407 @@
         <v>8</v>
       </c>
       <c r="B6" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
       <c r="B7" t="s">
-        <v>192</v>
+        <v>200</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="s">
-        <v>195</v>
+        <v>203</v>
       </c>
       <c r="B9" t="s">
-        <v>181</v>
+        <v>189</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>204</v>
       </c>
       <c r="B10" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="B11" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="B12" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="B13" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="s">
-        <v>202</v>
+        <v>210</v>
       </c>
       <c r="B14" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>203</v>
+        <v>211</v>
       </c>
       <c r="B15" t="s">
-        <v>204</v>
+        <v>212</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>205</v>
+        <v>213</v>
       </c>
       <c r="B16" t="s">
-        <v>206</v>
+        <v>214</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>207</v>
+        <v>215</v>
       </c>
       <c r="B17" t="s">
-        <v>208</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>209</v>
+        <v>217</v>
       </c>
       <c r="B18" t="s">
-        <v>210</v>
+        <v>218</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>211</v>
+        <v>219</v>
       </c>
       <c r="B19" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>212</v>
+        <v>220</v>
       </c>
       <c r="B20" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="s">
-        <v>213</v>
+        <v>221</v>
       </c>
       <c r="B21" t="s">
-        <v>197</v>
+        <v>205</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="s">
-        <v>214</v>
+        <v>222</v>
       </c>
       <c r="B22" t="s">
-        <v>215</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="s">
-        <v>216</v>
+        <v>224</v>
       </c>
       <c r="B23" t="s">
-        <v>217</v>
+        <v>225</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="s">
-        <v>218</v>
+        <v>226</v>
       </c>
       <c r="B24" t="s">
-        <v>219</v>
+        <v>227</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="s">
-        <v>220</v>
+        <v>228</v>
       </c>
       <c r="B25" t="s">
-        <v>221</v>
+        <v>229</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="s">
-        <v>222</v>
+        <v>230</v>
       </c>
       <c r="B26" t="s">
-        <v>223</v>
+        <v>231</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="B27" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="B28" t="s">
-        <v>227</v>
+        <v>235</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>236</v>
       </c>
       <c r="B29" t="s">
-        <v>229</v>
+        <v>237</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>238</v>
       </c>
       <c r="B30" t="s">
-        <v>231</v>
+        <v>239</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="s">
-        <v>232</v>
+        <v>240</v>
       </c>
       <c r="B31" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="s">
-        <v>234</v>
+        <v>242</v>
       </c>
       <c r="B32" t="s">
-        <v>235</v>
+        <v>243</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>236</v>
+        <v>244</v>
       </c>
       <c r="B33" t="s">
-        <v>237</v>
+        <v>245</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="s">
-        <v>238</v>
+        <v>246</v>
       </c>
       <c r="B34" t="s">
-        <v>239</v>
+        <v>247</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="s">
-        <v>240</v>
+        <v>248</v>
       </c>
       <c r="B35" t="s">
-        <v>241</v>
+        <v>249</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="s">
-        <v>242</v>
+        <v>250</v>
       </c>
       <c r="B36" t="s">
-        <v>243</v>
+        <v>251</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="s">
-        <v>244</v>
+        <v>252</v>
       </c>
       <c r="B37" t="s">
-        <v>245</v>
+        <v>253</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="s">
-        <v>246</v>
+        <v>254</v>
       </c>
       <c r="B38" t="s">
-        <v>247</v>
+        <v>255</v>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="s">
-        <v>248</v>
+        <v>256</v>
       </c>
       <c r="B39" t="s">
-        <v>249</v>
+        <v>257</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="s">
-        <v>250</v>
+        <v>258</v>
       </c>
       <c r="B40" t="s">
-        <v>251</v>
+        <v>259</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="s">
-        <v>252</v>
+        <v>260</v>
       </c>
       <c r="B41" t="s">
-        <v>253</v>
+        <v>261</v>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="s">
-        <v>254</v>
+        <v>262</v>
       </c>
       <c r="B42" t="s">
-        <v>255</v>
+        <v>263</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="s">
-        <v>256</v>
+        <v>264</v>
       </c>
       <c r="B43" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="B44" t="s">
-        <v>257</v>
+        <v>265</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="s">
-        <v>259</v>
+        <v>267</v>
       </c>
       <c r="B45" t="s">
-        <v>260</v>
+        <v>268</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="s">
-        <v>261</v>
+        <v>269</v>
       </c>
       <c r="B46" t="s">
-        <v>262</v>
+        <v>270</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="s">
-        <v>263</v>
+        <v>271</v>
       </c>
       <c r="B47" t="s">
-        <v>264</v>
+        <v>272</v>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="s">
-        <v>265</v>
+        <v>273</v>
       </c>
       <c r="B48" t="s">
-        <v>266</v>
+        <v>274</v>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="s">
-        <v>267</v>
+        <v>275</v>
       </c>
       <c r="B49" t="s">
-        <v>268</v>
+        <v>276</v>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="s">
-        <v>269</v>
+        <v>277</v>
       </c>
       <c r="B50" t="s">
-        <v>270</v>
+        <v>278</v>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="s">
-        <v>271</v>
+        <v>279</v>
       </c>
       <c r="B51" t="s">
-        <v>272</v>
+        <v>280</v>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="s">
-        <v>273</v>
+        <v>281</v>
       </c>
       <c r="B52" t="s">
-        <v>274</v>
+        <v>282</v>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="s">
-        <v>275</v>
+        <v>283</v>
       </c>
       <c r="B53" t="s">
-        <v>276</v>
+        <v>284</v>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="s">
-        <v>277</v>
+        <v>285</v>
       </c>
       <c r="B54" t="s">
-        <v>278</v>
+        <v>286</v>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="s">
-        <v>279</v>
+        <v>287</v>
       </c>
       <c r="B55" t="s">
-        <v>280</v>
+        <v>288</v>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="s">
-        <v>281</v>
+        <v>289</v>
       </c>
       <c r="B56" t="s">
-        <v>282</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
